--- a/backend/core/management/data/OmmahAssembly5-2024.xlsx
+++ b/backend/core/management/data/OmmahAssembly5-2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\q8tasweet2\backend\core\management\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B676A71-5892-4C46-806F-5C68CA819205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA006D2A-6461-434C-84EA-3AD1C01B5FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{1DD58D10-4434-4643-8D68-675AA0CD293F}"/>
   </bookViews>
@@ -1149,12 +1149,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1275,6 +1269,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1868,141 +1868,141 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="41.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="41.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="8"/>
+      <c r="C5" s="6"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="8"/>
+      <c r="C6" s="6"/>
     </row>
     <row r="7" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="9"/>
-      <c r="C7" s="8"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="6"/>
     </row>
     <row r="8" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="50"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="8"/>
+      <c r="C9" s="6"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="8"/>
+      <c r="C10" s="6"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="8"/>
+      <c r="C12" s="6"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="8"/>
+      <c r="C13" s="6"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="8"/>
+      <c r="C15" s="6"/>
     </row>
     <row r="16" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="8"/>
+      <c r="C16" s="6"/>
     </row>
     <row r="17" spans="2:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="50"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="8"/>
+      <c r="C18" s="6"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="8"/>
+      <c r="C19" s="6"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="8"/>
+      <c r="C20" s="6"/>
     </row>
     <row r="21" spans="2:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="9"/>
-      <c r="C21" s="8"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="6"/>
     </row>
     <row r="22" spans="2:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="50"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="8"/>
+      <c r="C23" s="6"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="8"/>
+      <c r="C24" s="6"/>
     </row>
     <row r="25" spans="2:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="11"/>
+      <c r="C25" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2020,7 +2020,7 @@
   <dimension ref="B2:U438"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="N94" sqref="N94"/>
+      <selection activeCell="K101" sqref="K101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2032,4298 +2032,4298 @@
   <sheetData>
     <row r="2" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" spans="2:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="O6" s="16" t="s">
+      <c r="C6" s="4"/>
+      <c r="O6" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="P6" s="27">
+      <c r="P6" s="25">
         <v>16469</v>
       </c>
-      <c r="Q6" s="29" t="s">
+      <c r="Q6" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="R6" s="27" t="s">
+      <c r="R6" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="S6" s="31" t="s">
+      <c r="S6" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="T6" s="27"/>
-      <c r="U6" s="18" t="e" vm="1">
+      <c r="T6" s="25"/>
+      <c r="U6" s="16" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="7" spans="2:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="O7" s="17">
+      <c r="C7" s="4"/>
+      <c r="O7" s="15">
         <v>1</v>
       </c>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="28"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="26"/>
     </row>
     <row r="8" spans="2:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="O8" s="20" t="s">
+      <c r="C8" s="4"/>
+      <c r="O8" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="P8" s="38">
+      <c r="P8" s="36">
         <v>14211</v>
       </c>
-      <c r="Q8" s="48" t="s">
+      <c r="Q8" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="R8" s="38" t="s">
+      <c r="R8" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="S8" s="44" t="s">
+      <c r="S8" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="T8" s="44" t="s">
+      <c r="T8" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="U8" s="22" t="e" vm="2">
+      <c r="U8" s="20" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="9" spans="2:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="45"/>
+      <c r="C9" s="4"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="43"/>
     </row>
     <row r="10" spans="2:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="45"/>
+      <c r="C10" s="4"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="43"/>
     </row>
     <row r="11" spans="2:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="49"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="45"/>
+      <c r="C11" s="4"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="43"/>
     </row>
     <row r="12" spans="2:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="39"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="45"/>
+      <c r="C12" s="4"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="43"/>
+      <c r="T12" s="43"/>
     </row>
     <row r="13" spans="2:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="49"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="45"/>
-      <c r="T13" s="45"/>
+      <c r="C13" s="4"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="43"/>
+      <c r="T13" s="43"/>
     </row>
     <row r="14" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="39"/>
-      <c r="S14" s="45"/>
-      <c r="T14" s="45"/>
+      <c r="C14" s="4"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="43"/>
+      <c r="T14" s="43"/>
     </row>
     <row r="15" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="49"/>
-      <c r="R15" s="39"/>
-      <c r="S15" s="45"/>
-      <c r="T15" s="45"/>
+      <c r="C15" s="4"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="43"/>
+      <c r="T15" s="43"/>
     </row>
     <row r="16" spans="2:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="O16" s="21">
+      <c r="C16" s="4"/>
+      <c r="O16" s="19">
         <v>2</v>
       </c>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="50"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="46"/>
-      <c r="T16" s="46"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="44"/>
     </row>
     <row r="17" spans="2:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="O17" s="24" t="s">
+      <c r="C17" s="4"/>
+      <c r="O17" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="P17" s="27">
+      <c r="P17" s="25">
         <v>11055</v>
       </c>
-      <c r="Q17" s="29" t="s">
+      <c r="Q17" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="R17" s="27"/>
-      <c r="S17" s="31" t="s">
+      <c r="R17" s="25"/>
+      <c r="S17" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="T17" s="27"/>
-      <c r="U17" s="18" t="e" vm="3">
+      <c r="T17" s="25"/>
+      <c r="U17" s="16" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="18" spans="2:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="47"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="37"/>
-      <c r="T18" s="33"/>
+      <c r="C18" s="4"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="31"/>
     </row>
     <row r="19" spans="2:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="47"/>
-      <c r="R19" s="33"/>
-      <c r="S19" s="37"/>
-      <c r="T19" s="33"/>
+      <c r="C19" s="4"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="31"/>
     </row>
     <row r="20" spans="2:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="33"/>
-      <c r="S20" s="37"/>
-      <c r="T20" s="33"/>
+      <c r="C20" s="4"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="31"/>
     </row>
     <row r="21" spans="2:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="47"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="37"/>
-      <c r="T21" s="33"/>
+      <c r="C21" s="4"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="31"/>
+      <c r="S21" s="35"/>
+      <c r="T21" s="31"/>
     </row>
     <row r="22" spans="2:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="47"/>
-      <c r="R22" s="33"/>
-      <c r="S22" s="37"/>
-      <c r="T22" s="33"/>
+      <c r="C22" s="4"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="31"/>
     </row>
     <row r="23" spans="2:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="47"/>
-      <c r="R23" s="33"/>
-      <c r="S23" s="37"/>
-      <c r="T23" s="33"/>
+      <c r="C23" s="13"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="31"/>
     </row>
     <row r="24" spans="2:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="47"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="37"/>
-      <c r="T24" s="33"/>
+      <c r="C24" s="13"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="45"/>
+      <c r="R24" s="31"/>
+      <c r="S24" s="35"/>
+      <c r="T24" s="31"/>
     </row>
     <row r="25" spans="2:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="O25" s="17">
+      <c r="C25" s="13"/>
+      <c r="O25" s="15">
         <v>3</v>
       </c>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="28"/>
-      <c r="S25" s="32"/>
-      <c r="T25" s="28"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="26"/>
     </row>
     <row r="26" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="O26" s="20" t="s">
+      <c r="C26" s="13"/>
+      <c r="O26" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="P26" s="38">
+      <c r="P26" s="36">
         <v>10643</v>
       </c>
-      <c r="Q26" s="48" t="s">
+      <c r="Q26" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="R26" s="38" t="s">
+      <c r="R26" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="S26" s="44" t="s">
+      <c r="S26" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="T26" s="44" t="s">
+      <c r="T26" s="42" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="27" spans="2:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="49"/>
-      <c r="R27" s="39"/>
-      <c r="S27" s="45"/>
-      <c r="T27" s="45"/>
+      <c r="C27" s="13"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="47"/>
+      <c r="R27" s="37"/>
+      <c r="S27" s="43"/>
+      <c r="T27" s="43"/>
     </row>
     <row r="28" spans="2:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="39"/>
-      <c r="Q28" s="49"/>
-      <c r="R28" s="39"/>
-      <c r="S28" s="45"/>
-      <c r="T28" s="45"/>
+      <c r="C28" s="13"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="47"/>
+      <c r="R28" s="37"/>
+      <c r="S28" s="43"/>
+      <c r="T28" s="43"/>
     </row>
     <row r="29" spans="2:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="49"/>
-      <c r="R29" s="39"/>
-      <c r="S29" s="45"/>
-      <c r="T29" s="45"/>
+      <c r="C29" s="13"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="47"/>
+      <c r="R29" s="37"/>
+      <c r="S29" s="43"/>
+      <c r="T29" s="43"/>
     </row>
     <row r="30" spans="2:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="15"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="49"/>
-      <c r="R30" s="39"/>
-      <c r="S30" s="45"/>
-      <c r="T30" s="45"/>
+      <c r="C30" s="13"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="37"/>
+      <c r="Q30" s="47"/>
+      <c r="R30" s="37"/>
+      <c r="S30" s="43"/>
+      <c r="T30" s="43"/>
     </row>
     <row r="31" spans="2:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="15"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="49"/>
-      <c r="R31" s="39"/>
-      <c r="S31" s="45"/>
-      <c r="T31" s="45"/>
+      <c r="C31" s="13"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="37"/>
+      <c r="Q31" s="47"/>
+      <c r="R31" s="37"/>
+      <c r="S31" s="43"/>
+      <c r="T31" s="43"/>
     </row>
     <row r="32" spans="2:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="15"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="39"/>
-      <c r="Q32" s="49"/>
-      <c r="R32" s="39"/>
-      <c r="S32" s="45"/>
-      <c r="T32" s="45"/>
+      <c r="C32" s="13"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="47"/>
+      <c r="R32" s="37"/>
+      <c r="S32" s="43"/>
+      <c r="T32" s="43"/>
     </row>
     <row r="33" spans="2:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="15"/>
-      <c r="P33" s="39"/>
-      <c r="Q33" s="49"/>
-      <c r="R33" s="39"/>
-      <c r="S33" s="45"/>
-      <c r="T33" s="45"/>
+      <c r="C33" s="13"/>
+      <c r="P33" s="37"/>
+      <c r="Q33" s="47"/>
+      <c r="R33" s="37"/>
+      <c r="S33" s="43"/>
+      <c r="T33" s="43"/>
     </row>
     <row r="34" spans="2:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="15"/>
-      <c r="O34" s="21">
+      <c r="C34" s="13"/>
+      <c r="O34" s="19">
         <v>4</v>
       </c>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="50"/>
-      <c r="R34" s="40"/>
-      <c r="S34" s="46"/>
-      <c r="T34" s="46"/>
+      <c r="P34" s="38"/>
+      <c r="Q34" s="48"/>
+      <c r="R34" s="38"/>
+      <c r="S34" s="44"/>
+      <c r="T34" s="44"/>
     </row>
     <row r="35" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="15"/>
-      <c r="O35" s="24" t="s">
+      <c r="C35" s="13"/>
+      <c r="O35" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="P35" s="27">
+      <c r="P35" s="25">
         <v>9104</v>
       </c>
-      <c r="Q35" s="29" t="s">
+      <c r="Q35" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="R35" s="27" t="s">
+      <c r="R35" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="S35" s="31" t="s">
+      <c r="S35" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="T35" s="31" t="s">
+      <c r="T35" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="U35" s="22" t="e" vm="4">
+      <c r="U35" s="20" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="36" spans="2:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="15"/>
-      <c r="O36" s="23"/>
-      <c r="P36" s="33"/>
-      <c r="Q36" s="47"/>
-      <c r="R36" s="33"/>
-      <c r="S36" s="37"/>
-      <c r="T36" s="37"/>
+      <c r="C36" s="13"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="45"/>
+      <c r="R36" s="31"/>
+      <c r="S36" s="35"/>
+      <c r="T36" s="35"/>
     </row>
     <row r="37" spans="2:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="15"/>
-      <c r="O37" s="23"/>
-      <c r="P37" s="33"/>
-      <c r="Q37" s="47"/>
-      <c r="R37" s="33"/>
-      <c r="S37" s="37"/>
-      <c r="T37" s="37"/>
+      <c r="C37" s="13"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="45"/>
+      <c r="R37" s="31"/>
+      <c r="S37" s="35"/>
+      <c r="T37" s="35"/>
     </row>
     <row r="38" spans="2:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="15"/>
-      <c r="O38" s="23"/>
-      <c r="P38" s="33"/>
-      <c r="Q38" s="47"/>
-      <c r="R38" s="33"/>
-      <c r="S38" s="37"/>
-      <c r="T38" s="37"/>
+      <c r="C38" s="13"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="45"/>
+      <c r="R38" s="31"/>
+      <c r="S38" s="35"/>
+      <c r="T38" s="35"/>
     </row>
     <row r="39" spans="2:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="15"/>
-      <c r="O39" s="23"/>
-      <c r="P39" s="33"/>
-      <c r="Q39" s="47"/>
-      <c r="R39" s="33"/>
-      <c r="S39" s="37"/>
-      <c r="T39" s="37"/>
+      <c r="C39" s="13"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="31"/>
+      <c r="Q39" s="45"/>
+      <c r="R39" s="31"/>
+      <c r="S39" s="35"/>
+      <c r="T39" s="35"/>
     </row>
     <row r="40" spans="2:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C40" s="15"/>
-      <c r="O40" s="23"/>
-      <c r="P40" s="33"/>
-      <c r="Q40" s="47"/>
-      <c r="R40" s="33"/>
-      <c r="S40" s="37"/>
-      <c r="T40" s="37"/>
+      <c r="C40" s="13"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="31"/>
+      <c r="Q40" s="45"/>
+      <c r="R40" s="31"/>
+      <c r="S40" s="35"/>
+      <c r="T40" s="35"/>
     </row>
     <row r="41" spans="2:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C41" s="15"/>
-      <c r="O41" s="23"/>
-      <c r="P41" s="33"/>
-      <c r="Q41" s="47"/>
-      <c r="R41" s="33"/>
-      <c r="S41" s="37"/>
-      <c r="T41" s="37"/>
+      <c r="C41" s="13"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="31"/>
+      <c r="Q41" s="45"/>
+      <c r="R41" s="31"/>
+      <c r="S41" s="35"/>
+      <c r="T41" s="35"/>
     </row>
     <row r="42" spans="2:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C42" s="15"/>
-      <c r="P42" s="33"/>
-      <c r="Q42" s="47"/>
-      <c r="R42" s="33"/>
-      <c r="S42" s="37"/>
-      <c r="T42" s="37"/>
+      <c r="C42" s="13"/>
+      <c r="P42" s="31"/>
+      <c r="Q42" s="45"/>
+      <c r="R42" s="31"/>
+      <c r="S42" s="35"/>
+      <c r="T42" s="35"/>
     </row>
     <row r="43" spans="2:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="O43" s="17">
+      <c r="C43" s="13"/>
+      <c r="O43" s="15">
         <v>5</v>
       </c>
-      <c r="P43" s="28"/>
-      <c r="Q43" s="30"/>
-      <c r="R43" s="28"/>
-      <c r="S43" s="32"/>
-      <c r="T43" s="32"/>
+      <c r="P43" s="26"/>
+      <c r="Q43" s="28"/>
+      <c r="R43" s="26"/>
+      <c r="S43" s="30"/>
+      <c r="T43" s="30"/>
     </row>
     <row r="44" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="O44" s="20" t="s">
+      <c r="C44" s="13"/>
+      <c r="O44" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="P44" s="38">
+      <c r="P44" s="36">
         <v>8807</v>
       </c>
-      <c r="Q44" s="48" t="s">
+      <c r="Q44" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="R44" s="38" t="s">
+      <c r="R44" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="S44" s="44" t="s">
+      <c r="S44" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="T44" s="44" t="s">
+      <c r="T44" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="U44" s="18" t="e" vm="5">
+      <c r="U44" s="16" t="e" vm="5">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="45" spans="2:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C45" s="15"/>
-      <c r="O45" s="19"/>
-      <c r="P45" s="39"/>
-      <c r="Q45" s="49"/>
-      <c r="R45" s="39"/>
-      <c r="S45" s="45"/>
-      <c r="T45" s="45"/>
+      <c r="C45" s="13"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="37"/>
+      <c r="Q45" s="47"/>
+      <c r="R45" s="37"/>
+      <c r="S45" s="43"/>
+      <c r="T45" s="43"/>
     </row>
     <row r="46" spans="2:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C46" s="15"/>
-      <c r="O46" s="19"/>
-      <c r="P46" s="39"/>
-      <c r="Q46" s="49"/>
-      <c r="R46" s="39"/>
-      <c r="S46" s="45"/>
-      <c r="T46" s="45"/>
+      <c r="C46" s="13"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="37"/>
+      <c r="Q46" s="47"/>
+      <c r="R46" s="37"/>
+      <c r="S46" s="43"/>
+      <c r="T46" s="43"/>
     </row>
     <row r="47" spans="2:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C47" s="15"/>
-      <c r="O47" s="19"/>
-      <c r="P47" s="39"/>
-      <c r="Q47" s="49"/>
-      <c r="R47" s="39"/>
-      <c r="S47" s="45"/>
-      <c r="T47" s="45"/>
+      <c r="C47" s="13"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="37"/>
+      <c r="Q47" s="47"/>
+      <c r="R47" s="37"/>
+      <c r="S47" s="43"/>
+      <c r="T47" s="43"/>
     </row>
     <row r="48" spans="2:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C48" s="15"/>
-      <c r="O48" s="19"/>
-      <c r="P48" s="39"/>
-      <c r="Q48" s="49"/>
-      <c r="R48" s="39"/>
-      <c r="S48" s="45"/>
-      <c r="T48" s="45"/>
+      <c r="C48" s="13"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="37"/>
+      <c r="Q48" s="47"/>
+      <c r="R48" s="37"/>
+      <c r="S48" s="43"/>
+      <c r="T48" s="43"/>
     </row>
     <row r="49" spans="2:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C49" s="15"/>
-      <c r="O49" s="19"/>
-      <c r="P49" s="39"/>
-      <c r="Q49" s="49"/>
-      <c r="R49" s="39"/>
-      <c r="S49" s="45"/>
-      <c r="T49" s="45"/>
+      <c r="C49" s="13"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="37"/>
+      <c r="Q49" s="47"/>
+      <c r="R49" s="37"/>
+      <c r="S49" s="43"/>
+      <c r="T49" s="43"/>
     </row>
     <row r="50" spans="2:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C50" s="15"/>
-      <c r="O50" s="19"/>
-      <c r="P50" s="39"/>
-      <c r="Q50" s="49"/>
-      <c r="R50" s="39"/>
-      <c r="S50" s="45"/>
-      <c r="T50" s="45"/>
+      <c r="C50" s="13"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="37"/>
+      <c r="Q50" s="47"/>
+      <c r="R50" s="37"/>
+      <c r="S50" s="43"/>
+      <c r="T50" s="43"/>
     </row>
     <row r="51" spans="2:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C51" s="15"/>
-      <c r="P51" s="39"/>
-      <c r="Q51" s="49"/>
-      <c r="R51" s="39"/>
-      <c r="S51" s="45"/>
-      <c r="T51" s="45"/>
+      <c r="C51" s="13"/>
+      <c r="P51" s="37"/>
+      <c r="Q51" s="47"/>
+      <c r="R51" s="37"/>
+      <c r="S51" s="43"/>
+      <c r="T51" s="43"/>
     </row>
     <row r="52" spans="2:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C52" s="15"/>
-      <c r="O52" s="21">
+      <c r="C52" s="13"/>
+      <c r="O52" s="19">
         <v>6</v>
       </c>
-      <c r="P52" s="40"/>
-      <c r="Q52" s="50"/>
-      <c r="R52" s="40"/>
-      <c r="S52" s="46"/>
-      <c r="T52" s="46"/>
+      <c r="P52" s="38"/>
+      <c r="Q52" s="48"/>
+      <c r="R52" s="38"/>
+      <c r="S52" s="44"/>
+      <c r="T52" s="44"/>
     </row>
     <row r="53" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C53" s="15"/>
-      <c r="O53" s="24" t="s">
+      <c r="C53" s="13"/>
+      <c r="O53" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="P53" s="27">
+      <c r="P53" s="25">
         <v>8521</v>
       </c>
-      <c r="Q53" s="29" t="s">
+      <c r="Q53" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="R53" s="27"/>
-      <c r="S53" s="31" t="s">
+      <c r="R53" s="25"/>
+      <c r="S53" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="T53" s="31" t="s">
+      <c r="T53" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="U53" s="22" t="e" vm="6">
+      <c r="U53" s="20" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="54" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O54" s="23"/>
-      <c r="P54" s="33"/>
-      <c r="Q54" s="47"/>
-      <c r="R54" s="33"/>
-      <c r="S54" s="37"/>
-      <c r="T54" s="37"/>
+      <c r="O54" s="21"/>
+      <c r="P54" s="31"/>
+      <c r="Q54" s="45"/>
+      <c r="R54" s="31"/>
+      <c r="S54" s="35"/>
+      <c r="T54" s="35"/>
     </row>
     <row r="55" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O55" s="23"/>
-      <c r="P55" s="33"/>
-      <c r="Q55" s="47"/>
-      <c r="R55" s="33"/>
-      <c r="S55" s="37"/>
-      <c r="T55" s="37"/>
+      <c r="O55" s="21"/>
+      <c r="P55" s="31"/>
+      <c r="Q55" s="45"/>
+      <c r="R55" s="31"/>
+      <c r="S55" s="35"/>
+      <c r="T55" s="35"/>
     </row>
     <row r="56" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O56" s="23"/>
-      <c r="P56" s="33"/>
-      <c r="Q56" s="47"/>
-      <c r="R56" s="33"/>
-      <c r="S56" s="37"/>
-      <c r="T56" s="37"/>
+      <c r="O56" s="21"/>
+      <c r="P56" s="31"/>
+      <c r="Q56" s="45"/>
+      <c r="R56" s="31"/>
+      <c r="S56" s="35"/>
+      <c r="T56" s="35"/>
     </row>
     <row r="57" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O57" s="23"/>
-      <c r="P57" s="33"/>
-      <c r="Q57" s="47"/>
-      <c r="R57" s="33"/>
-      <c r="S57" s="37"/>
-      <c r="T57" s="37"/>
+      <c r="O57" s="21"/>
+      <c r="P57" s="31"/>
+      <c r="Q57" s="45"/>
+      <c r="R57" s="31"/>
+      <c r="S57" s="35"/>
+      <c r="T57" s="35"/>
     </row>
     <row r="58" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O58" s="23"/>
-      <c r="P58" s="33"/>
-      <c r="Q58" s="47"/>
-      <c r="R58" s="33"/>
-      <c r="S58" s="37"/>
-      <c r="T58" s="37"/>
+      <c r="O58" s="21"/>
+      <c r="P58" s="31"/>
+      <c r="Q58" s="45"/>
+      <c r="R58" s="31"/>
+      <c r="S58" s="35"/>
+      <c r="T58" s="35"/>
     </row>
     <row r="59" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O59" s="23"/>
-      <c r="P59" s="33"/>
-      <c r="Q59" s="47"/>
-      <c r="R59" s="33"/>
-      <c r="S59" s="37"/>
-      <c r="T59" s="37"/>
+      <c r="O59" s="21"/>
+      <c r="P59" s="31"/>
+      <c r="Q59" s="45"/>
+      <c r="R59" s="31"/>
+      <c r="S59" s="35"/>
+      <c r="T59" s="35"/>
     </row>
     <row r="60" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P60" s="33"/>
-      <c r="Q60" s="47"/>
-      <c r="R60" s="33"/>
-      <c r="S60" s="37"/>
-      <c r="T60" s="37"/>
+      <c r="P60" s="31"/>
+      <c r="Q60" s="45"/>
+      <c r="R60" s="31"/>
+      <c r="S60" s="35"/>
+      <c r="T60" s="35"/>
     </row>
     <row r="61" spans="2:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O61" s="17">
+      <c r="O61" s="15">
         <v>7</v>
       </c>
-      <c r="P61" s="28"/>
-      <c r="Q61" s="30"/>
-      <c r="R61" s="28"/>
-      <c r="S61" s="32"/>
-      <c r="T61" s="32"/>
+      <c r="P61" s="26"/>
+      <c r="Q61" s="28"/>
+      <c r="R61" s="26"/>
+      <c r="S61" s="30"/>
+      <c r="T61" s="30"/>
     </row>
     <row r="62" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="O62" s="20" t="s">
+      <c r="O62" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="P62" s="38">
+      <c r="P62" s="36">
         <v>8437</v>
       </c>
-      <c r="Q62" s="48" t="s">
+      <c r="Q62" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="R62" s="38" t="s">
+      <c r="R62" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="S62" s="44" t="s">
+      <c r="S62" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="T62" s="38"/>
-      <c r="U62" s="18" t="e" vm="7">
+      <c r="T62" s="36"/>
+      <c r="U62" s="16" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="63" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O63" s="19"/>
-      <c r="P63" s="39"/>
-      <c r="Q63" s="49"/>
-      <c r="R63" s="39"/>
-      <c r="S63" s="45"/>
-      <c r="T63" s="39"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="37"/>
+      <c r="Q63" s="47"/>
+      <c r="R63" s="37"/>
+      <c r="S63" s="43"/>
+      <c r="T63" s="37"/>
     </row>
     <row r="64" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O64" s="19"/>
-      <c r="P64" s="39"/>
-      <c r="Q64" s="49"/>
-      <c r="R64" s="39"/>
-      <c r="S64" s="45"/>
-      <c r="T64" s="39"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="37"/>
+      <c r="Q64" s="47"/>
+      <c r="R64" s="37"/>
+      <c r="S64" s="43"/>
+      <c r="T64" s="37"/>
     </row>
     <row r="65" spans="15:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O65" s="19"/>
-      <c r="P65" s="39"/>
-      <c r="Q65" s="49"/>
-      <c r="R65" s="39"/>
-      <c r="S65" s="45"/>
-      <c r="T65" s="39"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="37"/>
+      <c r="Q65" s="47"/>
+      <c r="R65" s="37"/>
+      <c r="S65" s="43"/>
+      <c r="T65" s="37"/>
     </row>
     <row r="66" spans="15:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O66" s="19"/>
-      <c r="P66" s="39"/>
-      <c r="Q66" s="49"/>
-      <c r="R66" s="39"/>
-      <c r="S66" s="45"/>
-      <c r="T66" s="39"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="37"/>
+      <c r="Q66" s="47"/>
+      <c r="R66" s="37"/>
+      <c r="S66" s="43"/>
+      <c r="T66" s="37"/>
     </row>
     <row r="67" spans="15:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O67" s="19"/>
-      <c r="P67" s="39"/>
-      <c r="Q67" s="49"/>
-      <c r="R67" s="39"/>
-      <c r="S67" s="45"/>
-      <c r="T67" s="39"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="37"/>
+      <c r="Q67" s="47"/>
+      <c r="R67" s="37"/>
+      <c r="S67" s="43"/>
+      <c r="T67" s="37"/>
     </row>
     <row r="68" spans="15:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O68" s="19"/>
-      <c r="P68" s="39"/>
-      <c r="Q68" s="49"/>
-      <c r="R68" s="39"/>
-      <c r="S68" s="45"/>
-      <c r="T68" s="39"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="37"/>
+      <c r="Q68" s="47"/>
+      <c r="R68" s="37"/>
+      <c r="S68" s="43"/>
+      <c r="T68" s="37"/>
     </row>
     <row r="69" spans="15:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P69" s="39"/>
-      <c r="Q69" s="49"/>
-      <c r="R69" s="39"/>
-      <c r="S69" s="45"/>
-      <c r="T69" s="39"/>
+      <c r="P69" s="37"/>
+      <c r="Q69" s="47"/>
+      <c r="R69" s="37"/>
+      <c r="S69" s="43"/>
+      <c r="T69" s="37"/>
     </row>
     <row r="70" spans="15:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O70" s="21">
+      <c r="O70" s="19">
         <v>8</v>
       </c>
-      <c r="P70" s="40"/>
-      <c r="Q70" s="50"/>
-      <c r="R70" s="40"/>
-      <c r="S70" s="46"/>
-      <c r="T70" s="40"/>
+      <c r="P70" s="38"/>
+      <c r="Q70" s="48"/>
+      <c r="R70" s="38"/>
+      <c r="S70" s="44"/>
+      <c r="T70" s="38"/>
     </row>
     <row r="71" spans="15:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="O71" s="24" t="s">
+      <c r="O71" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="P71" s="27">
+      <c r="P71" s="25">
         <v>7644</v>
       </c>
-      <c r="Q71" s="29" t="s">
+      <c r="Q71" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="R71" s="27"/>
-      <c r="S71" s="31" t="s">
+      <c r="R71" s="25"/>
+      <c r="S71" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="T71" s="27"/>
-      <c r="U71" s="22" t="e" vm="8">
+      <c r="T71" s="25"/>
+      <c r="U71" s="20" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="72" spans="15:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O72" s="23"/>
-      <c r="P72" s="33"/>
-      <c r="Q72" s="47"/>
-      <c r="R72" s="33"/>
-      <c r="S72" s="37"/>
-      <c r="T72" s="33"/>
+      <c r="O72" s="21"/>
+      <c r="P72" s="31"/>
+      <c r="Q72" s="45"/>
+      <c r="R72" s="31"/>
+      <c r="S72" s="35"/>
+      <c r="T72" s="31"/>
     </row>
     <row r="73" spans="15:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O73" s="23"/>
-      <c r="P73" s="33"/>
-      <c r="Q73" s="47"/>
-      <c r="R73" s="33"/>
-      <c r="S73" s="37"/>
-      <c r="T73" s="33"/>
+      <c r="O73" s="21"/>
+      <c r="P73" s="31"/>
+      <c r="Q73" s="45"/>
+      <c r="R73" s="31"/>
+      <c r="S73" s="35"/>
+      <c r="T73" s="31"/>
     </row>
     <row r="74" spans="15:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O74" s="23"/>
-      <c r="P74" s="33"/>
-      <c r="Q74" s="47"/>
-      <c r="R74" s="33"/>
-      <c r="S74" s="37"/>
-      <c r="T74" s="33"/>
+      <c r="O74" s="21"/>
+      <c r="P74" s="31"/>
+      <c r="Q74" s="45"/>
+      <c r="R74" s="31"/>
+      <c r="S74" s="35"/>
+      <c r="T74" s="31"/>
     </row>
     <row r="75" spans="15:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O75" s="23"/>
-      <c r="P75" s="33"/>
-      <c r="Q75" s="47"/>
-      <c r="R75" s="33"/>
-      <c r="S75" s="37"/>
-      <c r="T75" s="33"/>
+      <c r="O75" s="21"/>
+      <c r="P75" s="31"/>
+      <c r="Q75" s="45"/>
+      <c r="R75" s="31"/>
+      <c r="S75" s="35"/>
+      <c r="T75" s="31"/>
     </row>
     <row r="76" spans="15:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O76" s="23"/>
-      <c r="P76" s="33"/>
-      <c r="Q76" s="47"/>
-      <c r="R76" s="33"/>
-      <c r="S76" s="37"/>
-      <c r="T76" s="33"/>
+      <c r="O76" s="21"/>
+      <c r="P76" s="31"/>
+      <c r="Q76" s="45"/>
+      <c r="R76" s="31"/>
+      <c r="S76" s="35"/>
+      <c r="T76" s="31"/>
     </row>
     <row r="77" spans="15:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O77" s="23"/>
-      <c r="P77" s="33"/>
-      <c r="Q77" s="47"/>
-      <c r="R77" s="33"/>
-      <c r="S77" s="37"/>
-      <c r="T77" s="33"/>
+      <c r="O77" s="21"/>
+      <c r="P77" s="31"/>
+      <c r="Q77" s="45"/>
+      <c r="R77" s="31"/>
+      <c r="S77" s="35"/>
+      <c r="T77" s="31"/>
     </row>
     <row r="78" spans="15:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P78" s="33"/>
-      <c r="Q78" s="47"/>
-      <c r="R78" s="33"/>
-      <c r="S78" s="37"/>
-      <c r="T78" s="33"/>
+      <c r="P78" s="31"/>
+      <c r="Q78" s="45"/>
+      <c r="R78" s="31"/>
+      <c r="S78" s="35"/>
+      <c r="T78" s="31"/>
     </row>
     <row r="79" spans="15:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O79" s="17">
+      <c r="O79" s="15">
         <v>9</v>
       </c>
-      <c r="P79" s="28"/>
-      <c r="Q79" s="30"/>
-      <c r="R79" s="28"/>
-      <c r="S79" s="32"/>
-      <c r="T79" s="28"/>
-      <c r="U79" s="18" t="e" vm="9">
+      <c r="P79" s="26"/>
+      <c r="Q79" s="28"/>
+      <c r="R79" s="26"/>
+      <c r="S79" s="30"/>
+      <c r="T79" s="26"/>
+      <c r="U79" s="16" t="e" vm="9">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="80" spans="15:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="O80" s="20" t="s">
+      <c r="O80" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="P80" s="38">
+      <c r="P80" s="36">
         <v>7343</v>
       </c>
-      <c r="Q80" s="48" t="s">
+      <c r="Q80" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="R80" s="38"/>
-      <c r="S80" s="44" t="s">
+      <c r="R80" s="36"/>
+      <c r="S80" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="T80" s="38"/>
+      <c r="T80" s="36"/>
     </row>
     <row r="81" spans="15:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O81" s="19"/>
-      <c r="P81" s="39"/>
-      <c r="Q81" s="49"/>
-      <c r="R81" s="39"/>
-      <c r="S81" s="45"/>
-      <c r="T81" s="39"/>
+      <c r="O81" s="17"/>
+      <c r="P81" s="37"/>
+      <c r="Q81" s="47"/>
+      <c r="R81" s="37"/>
+      <c r="S81" s="43"/>
+      <c r="T81" s="37"/>
     </row>
     <row r="82" spans="15:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O82" s="19"/>
-      <c r="P82" s="39"/>
-      <c r="Q82" s="49"/>
-      <c r="R82" s="39"/>
-      <c r="S82" s="45"/>
-      <c r="T82" s="39"/>
+      <c r="O82" s="17"/>
+      <c r="P82" s="37"/>
+      <c r="Q82" s="47"/>
+      <c r="R82" s="37"/>
+      <c r="S82" s="43"/>
+      <c r="T82" s="37"/>
     </row>
     <row r="83" spans="15:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O83" s="19"/>
-      <c r="P83" s="39"/>
-      <c r="Q83" s="49"/>
-      <c r="R83" s="39"/>
-      <c r="S83" s="45"/>
-      <c r="T83" s="39"/>
+      <c r="O83" s="17"/>
+      <c r="P83" s="37"/>
+      <c r="Q83" s="47"/>
+      <c r="R83" s="37"/>
+      <c r="S83" s="43"/>
+      <c r="T83" s="37"/>
     </row>
     <row r="84" spans="15:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O84" s="19"/>
-      <c r="P84" s="39"/>
-      <c r="Q84" s="49"/>
-      <c r="R84" s="39"/>
-      <c r="S84" s="45"/>
-      <c r="T84" s="39"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="37"/>
+      <c r="Q84" s="47"/>
+      <c r="R84" s="37"/>
+      <c r="S84" s="43"/>
+      <c r="T84" s="37"/>
     </row>
     <row r="85" spans="15:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O85" s="19"/>
-      <c r="P85" s="39"/>
-      <c r="Q85" s="49"/>
-      <c r="R85" s="39"/>
-      <c r="S85" s="45"/>
-      <c r="T85" s="39"/>
+      <c r="O85" s="17"/>
+      <c r="P85" s="37"/>
+      <c r="Q85" s="47"/>
+      <c r="R85" s="37"/>
+      <c r="S85" s="43"/>
+      <c r="T85" s="37"/>
     </row>
     <row r="86" spans="15:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O86" s="19"/>
-      <c r="P86" s="39"/>
-      <c r="Q86" s="49"/>
-      <c r="R86" s="39"/>
-      <c r="S86" s="45"/>
-      <c r="T86" s="39"/>
+      <c r="O86" s="17"/>
+      <c r="P86" s="37"/>
+      <c r="Q86" s="47"/>
+      <c r="R86" s="37"/>
+      <c r="S86" s="43"/>
+      <c r="T86" s="37"/>
     </row>
     <row r="87" spans="15:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P87" s="39"/>
-      <c r="Q87" s="49"/>
-      <c r="R87" s="39"/>
-      <c r="S87" s="45"/>
-      <c r="T87" s="39"/>
+      <c r="P87" s="37"/>
+      <c r="Q87" s="47"/>
+      <c r="R87" s="37"/>
+      <c r="S87" s="43"/>
+      <c r="T87" s="37"/>
     </row>
     <row r="88" spans="15:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O88" s="21">
+      <c r="O88" s="19">
         <v>10</v>
       </c>
-      <c r="P88" s="40"/>
-      <c r="Q88" s="50"/>
-      <c r="R88" s="40"/>
-      <c r="S88" s="46"/>
-      <c r="T88" s="40"/>
+      <c r="P88" s="38"/>
+      <c r="Q88" s="48"/>
+      <c r="R88" s="38"/>
+      <c r="S88" s="44"/>
+      <c r="T88" s="38"/>
     </row>
     <row r="89" spans="15:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="O89" s="24" t="s">
+      <c r="O89" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="P89" s="27">
+      <c r="P89" s="25">
         <v>6953</v>
       </c>
-      <c r="Q89" s="34" t="s">
+      <c r="Q89" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="R89" s="27" t="s">
+      <c r="R89" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="S89" s="31" t="s">
+      <c r="S89" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="T89" s="31" t="s">
+      <c r="T89" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="U89" s="22" t="e" vm="10">
+      <c r="U89" s="20" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="90" spans="15:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O90" s="23"/>
-      <c r="P90" s="33"/>
-      <c r="Q90" s="35"/>
-      <c r="R90" s="33"/>
-      <c r="S90" s="37"/>
-      <c r="T90" s="37"/>
+      <c r="O90" s="21"/>
+      <c r="P90" s="31"/>
+      <c r="Q90" s="33"/>
+      <c r="R90" s="31"/>
+      <c r="S90" s="35"/>
+      <c r="T90" s="35"/>
     </row>
     <row r="91" spans="15:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O91" s="23"/>
-      <c r="P91" s="33"/>
-      <c r="Q91" s="35"/>
-      <c r="R91" s="33"/>
-      <c r="S91" s="37"/>
-      <c r="T91" s="37"/>
+      <c r="O91" s="21"/>
+      <c r="P91" s="31"/>
+      <c r="Q91" s="33"/>
+      <c r="R91" s="31"/>
+      <c r="S91" s="35"/>
+      <c r="T91" s="35"/>
     </row>
     <row r="92" spans="15:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O92" s="23"/>
-      <c r="P92" s="33"/>
-      <c r="Q92" s="35"/>
-      <c r="R92" s="33"/>
-      <c r="S92" s="37"/>
-      <c r="T92" s="37"/>
+      <c r="O92" s="21"/>
+      <c r="P92" s="31"/>
+      <c r="Q92" s="33"/>
+      <c r="R92" s="31"/>
+      <c r="S92" s="35"/>
+      <c r="T92" s="35"/>
     </row>
     <row r="93" spans="15:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O93" s="23"/>
-      <c r="P93" s="33"/>
-      <c r="Q93" s="35"/>
-      <c r="R93" s="33"/>
-      <c r="S93" s="37"/>
-      <c r="T93" s="37"/>
+      <c r="O93" s="21"/>
+      <c r="P93" s="31"/>
+      <c r="Q93" s="33"/>
+      <c r="R93" s="31"/>
+      <c r="S93" s="35"/>
+      <c r="T93" s="35"/>
     </row>
     <row r="94" spans="15:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O94" s="23"/>
-      <c r="P94" s="33"/>
-      <c r="Q94" s="35"/>
-      <c r="R94" s="33"/>
-      <c r="S94" s="37"/>
-      <c r="T94" s="37"/>
+      <c r="O94" s="21"/>
+      <c r="P94" s="31"/>
+      <c r="Q94" s="33"/>
+      <c r="R94" s="31"/>
+      <c r="S94" s="35"/>
+      <c r="T94" s="35"/>
     </row>
     <row r="95" spans="15:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O95" s="23"/>
-      <c r="P95" s="33"/>
-      <c r="Q95" s="35"/>
-      <c r="R95" s="33"/>
-      <c r="S95" s="37"/>
-      <c r="T95" s="37"/>
+      <c r="O95" s="21"/>
+      <c r="P95" s="31"/>
+      <c r="Q95" s="33"/>
+      <c r="R95" s="31"/>
+      <c r="S95" s="35"/>
+      <c r="T95" s="35"/>
     </row>
     <row r="96" spans="15:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P96" s="33"/>
-      <c r="Q96" s="35"/>
-      <c r="R96" s="33"/>
-      <c r="S96" s="37"/>
-      <c r="T96" s="37"/>
+      <c r="P96" s="31"/>
+      <c r="Q96" s="33"/>
+      <c r="R96" s="31"/>
+      <c r="S96" s="35"/>
+      <c r="T96" s="35"/>
     </row>
     <row r="97" spans="15:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O97" s="17">
+      <c r="O97" s="15">
         <v>11</v>
       </c>
-      <c r="P97" s="28"/>
-      <c r="Q97" s="36"/>
-      <c r="R97" s="28"/>
-      <c r="S97" s="32"/>
-      <c r="T97" s="32"/>
+      <c r="P97" s="26"/>
+      <c r="Q97" s="34"/>
+      <c r="R97" s="26"/>
+      <c r="S97" s="30"/>
+      <c r="T97" s="30"/>
     </row>
     <row r="98" spans="15:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="P98" s="38">
+      <c r="P98" s="36">
         <v>6360</v>
       </c>
-      <c r="Q98" s="41" t="s">
+      <c r="Q98" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="R98" s="38" t="s">
+      <c r="R98" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="S98" s="44" t="s">
+      <c r="S98" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="T98" s="44" t="s">
+      <c r="T98" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="U98" s="18" t="e" vm="11">
+      <c r="U98" s="16" t="e" vm="11">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="99" spans="15:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O99" s="19"/>
-      <c r="P99" s="39"/>
-      <c r="Q99" s="42"/>
-      <c r="R99" s="39"/>
-      <c r="S99" s="45"/>
-      <c r="T99" s="45"/>
+      <c r="O99" s="17"/>
+      <c r="P99" s="37"/>
+      <c r="Q99" s="40"/>
+      <c r="R99" s="37"/>
+      <c r="S99" s="43"/>
+      <c r="T99" s="43"/>
     </row>
     <row r="100" spans="15:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O100" s="19"/>
-      <c r="P100" s="39"/>
-      <c r="Q100" s="42"/>
-      <c r="R100" s="39"/>
-      <c r="S100" s="45"/>
-      <c r="T100" s="45"/>
+      <c r="O100" s="17"/>
+      <c r="P100" s="37"/>
+      <c r="Q100" s="40"/>
+      <c r="R100" s="37"/>
+      <c r="S100" s="43"/>
+      <c r="T100" s="43"/>
     </row>
     <row r="101" spans="15:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O101" s="19"/>
-      <c r="P101" s="39"/>
-      <c r="Q101" s="42"/>
-      <c r="R101" s="39"/>
-      <c r="S101" s="45"/>
-      <c r="T101" s="45"/>
+      <c r="O101" s="17"/>
+      <c r="P101" s="37"/>
+      <c r="Q101" s="40"/>
+      <c r="R101" s="37"/>
+      <c r="S101" s="43"/>
+      <c r="T101" s="43"/>
     </row>
     <row r="102" spans="15:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O102" s="19"/>
-      <c r="P102" s="39"/>
-      <c r="Q102" s="42"/>
-      <c r="R102" s="39"/>
-      <c r="S102" s="45"/>
-      <c r="T102" s="45"/>
+      <c r="O102" s="17"/>
+      <c r="P102" s="37"/>
+      <c r="Q102" s="40"/>
+      <c r="R102" s="37"/>
+      <c r="S102" s="43"/>
+      <c r="T102" s="43"/>
     </row>
     <row r="103" spans="15:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O103" s="19"/>
-      <c r="P103" s="39"/>
-      <c r="Q103" s="42"/>
-      <c r="R103" s="39"/>
-      <c r="S103" s="45"/>
-      <c r="T103" s="45"/>
+      <c r="O103" s="17"/>
+      <c r="P103" s="37"/>
+      <c r="Q103" s="40"/>
+      <c r="R103" s="37"/>
+      <c r="S103" s="43"/>
+      <c r="T103" s="43"/>
     </row>
     <row r="104" spans="15:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O104" s="19"/>
-      <c r="P104" s="39"/>
-      <c r="Q104" s="42"/>
-      <c r="R104" s="39"/>
-      <c r="S104" s="45"/>
-      <c r="T104" s="45"/>
+      <c r="O104" s="17"/>
+      <c r="P104" s="37"/>
+      <c r="Q104" s="40"/>
+      <c r="R104" s="37"/>
+      <c r="S104" s="43"/>
+      <c r="T104" s="43"/>
     </row>
     <row r="105" spans="15:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O105" s="20" t="s">
+      <c r="O105" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="P105" s="39"/>
-      <c r="Q105" s="42"/>
-      <c r="R105" s="39"/>
-      <c r="S105" s="45"/>
-      <c r="T105" s="45"/>
+      <c r="P105" s="37"/>
+      <c r="Q105" s="40"/>
+      <c r="R105" s="37"/>
+      <c r="S105" s="43"/>
+      <c r="T105" s="43"/>
     </row>
     <row r="106" spans="15:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O106" s="21">
+      <c r="O106" s="19">
         <v>12</v>
       </c>
-      <c r="P106" s="40"/>
-      <c r="Q106" s="43"/>
-      <c r="R106" s="40"/>
-      <c r="S106" s="46"/>
-      <c r="T106" s="46"/>
+      <c r="P106" s="38"/>
+      <c r="Q106" s="41"/>
+      <c r="R106" s="38"/>
+      <c r="S106" s="44"/>
+      <c r="T106" s="44"/>
     </row>
     <row r="107" spans="15:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="O107" s="22" t="e" vm="12">
+      <c r="O107" s="20" t="e" vm="12">
         <v>#VALUE!</v>
       </c>
-      <c r="P107" s="27">
+      <c r="P107" s="25">
         <v>5505</v>
       </c>
-      <c r="Q107" s="34" t="s">
+      <c r="Q107" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="R107" s="27"/>
-      <c r="S107" s="31" t="s">
+      <c r="R107" s="25"/>
+      <c r="S107" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="T107" s="31" t="s">
+      <c r="T107" s="29" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="108" spans="15:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O108" s="23"/>
-      <c r="P108" s="33"/>
-      <c r="Q108" s="35"/>
-      <c r="R108" s="33"/>
-      <c r="S108" s="37"/>
-      <c r="T108" s="37"/>
+      <c r="O108" s="21"/>
+      <c r="P108" s="31"/>
+      <c r="Q108" s="33"/>
+      <c r="R108" s="31"/>
+      <c r="S108" s="35"/>
+      <c r="T108" s="35"/>
     </row>
     <row r="109" spans="15:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O109" s="23"/>
-      <c r="P109" s="33"/>
-      <c r="Q109" s="35"/>
-      <c r="R109" s="33"/>
-      <c r="S109" s="37"/>
-      <c r="T109" s="37"/>
+      <c r="O109" s="21"/>
+      <c r="P109" s="31"/>
+      <c r="Q109" s="33"/>
+      <c r="R109" s="31"/>
+      <c r="S109" s="35"/>
+      <c r="T109" s="35"/>
     </row>
     <row r="110" spans="15:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O110" s="23"/>
-      <c r="P110" s="33"/>
-      <c r="Q110" s="35"/>
-      <c r="R110" s="33"/>
-      <c r="S110" s="37"/>
-      <c r="T110" s="37"/>
+      <c r="O110" s="21"/>
+      <c r="P110" s="31"/>
+      <c r="Q110" s="33"/>
+      <c r="R110" s="31"/>
+      <c r="S110" s="35"/>
+      <c r="T110" s="35"/>
     </row>
     <row r="111" spans="15:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O111" s="23"/>
-      <c r="P111" s="33"/>
-      <c r="Q111" s="35"/>
-      <c r="R111" s="33"/>
-      <c r="S111" s="37"/>
-      <c r="T111" s="37"/>
+      <c r="O111" s="21"/>
+      <c r="P111" s="31"/>
+      <c r="Q111" s="33"/>
+      <c r="R111" s="31"/>
+      <c r="S111" s="35"/>
+      <c r="T111" s="35"/>
     </row>
     <row r="112" spans="15:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O112" s="23"/>
-      <c r="P112" s="33"/>
-      <c r="Q112" s="35"/>
-      <c r="R112" s="33"/>
-      <c r="S112" s="37"/>
-      <c r="T112" s="37"/>
+      <c r="O112" s="21"/>
+      <c r="P112" s="31"/>
+      <c r="Q112" s="33"/>
+      <c r="R112" s="31"/>
+      <c r="S112" s="35"/>
+      <c r="T112" s="35"/>
     </row>
     <row r="113" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O113" s="23"/>
-      <c r="P113" s="33"/>
-      <c r="Q113" s="35"/>
-      <c r="R113" s="33"/>
-      <c r="S113" s="37"/>
-      <c r="T113" s="37"/>
+      <c r="O113" s="21"/>
+      <c r="P113" s="31"/>
+      <c r="Q113" s="33"/>
+      <c r="R113" s="31"/>
+      <c r="S113" s="35"/>
+      <c r="T113" s="35"/>
     </row>
     <row r="114" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O114" s="24" t="s">
+      <c r="O114" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="P114" s="33"/>
-      <c r="Q114" s="35"/>
-      <c r="R114" s="33"/>
-      <c r="S114" s="37"/>
-      <c r="T114" s="37"/>
+      <c r="P114" s="31"/>
+      <c r="Q114" s="33"/>
+      <c r="R114" s="31"/>
+      <c r="S114" s="35"/>
+      <c r="T114" s="35"/>
     </row>
     <row r="115" spans="15:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O115" s="17">
+      <c r="O115" s="15">
         <v>13</v>
       </c>
-      <c r="P115" s="28"/>
-      <c r="Q115" s="36"/>
-      <c r="R115" s="28"/>
-      <c r="S115" s="32"/>
-      <c r="T115" s="32"/>
+      <c r="P115" s="26"/>
+      <c r="Q115" s="34"/>
+      <c r="R115" s="26"/>
+      <c r="S115" s="30"/>
+      <c r="T115" s="30"/>
     </row>
     <row r="116" spans="15:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="O116" s="18" t="e" vm="13">
+      <c r="O116" s="16" t="e" vm="13">
         <v>#VALUE!</v>
       </c>
-      <c r="P116" s="38">
+      <c r="P116" s="36">
         <v>5504</v>
       </c>
-      <c r="Q116" s="41" t="s">
+      <c r="Q116" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="R116" s="38"/>
-      <c r="S116" s="44" t="s">
+      <c r="R116" s="36"/>
+      <c r="S116" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="T116" s="44" t="s">
+      <c r="T116" s="42" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="117" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O117" s="19"/>
-      <c r="P117" s="39"/>
-      <c r="Q117" s="42"/>
-      <c r="R117" s="39"/>
-      <c r="S117" s="45"/>
-      <c r="T117" s="45"/>
+      <c r="O117" s="17"/>
+      <c r="P117" s="37"/>
+      <c r="Q117" s="40"/>
+      <c r="R117" s="37"/>
+      <c r="S117" s="43"/>
+      <c r="T117" s="43"/>
     </row>
     <row r="118" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O118" s="19"/>
-      <c r="P118" s="39"/>
-      <c r="Q118" s="42"/>
-      <c r="R118" s="39"/>
-      <c r="S118" s="45"/>
-      <c r="T118" s="45"/>
+      <c r="O118" s="17"/>
+      <c r="P118" s="37"/>
+      <c r="Q118" s="40"/>
+      <c r="R118" s="37"/>
+      <c r="S118" s="43"/>
+      <c r="T118" s="43"/>
     </row>
     <row r="119" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O119" s="19"/>
-      <c r="P119" s="39"/>
-      <c r="Q119" s="42"/>
-      <c r="R119" s="39"/>
-      <c r="S119" s="45"/>
-      <c r="T119" s="45"/>
+      <c r="O119" s="17"/>
+      <c r="P119" s="37"/>
+      <c r="Q119" s="40"/>
+      <c r="R119" s="37"/>
+      <c r="S119" s="43"/>
+      <c r="T119" s="43"/>
     </row>
     <row r="120" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O120" s="19"/>
-      <c r="P120" s="39"/>
-      <c r="Q120" s="42"/>
-      <c r="R120" s="39"/>
-      <c r="S120" s="45"/>
-      <c r="T120" s="45"/>
+      <c r="O120" s="17"/>
+      <c r="P120" s="37"/>
+      <c r="Q120" s="40"/>
+      <c r="R120" s="37"/>
+      <c r="S120" s="43"/>
+      <c r="T120" s="43"/>
     </row>
     <row r="121" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O121" s="19"/>
-      <c r="P121" s="39"/>
-      <c r="Q121" s="42"/>
-      <c r="R121" s="39"/>
-      <c r="S121" s="45"/>
-      <c r="T121" s="45"/>
+      <c r="O121" s="17"/>
+      <c r="P121" s="37"/>
+      <c r="Q121" s="40"/>
+      <c r="R121" s="37"/>
+      <c r="S121" s="43"/>
+      <c r="T121" s="43"/>
     </row>
     <row r="122" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O122" s="19"/>
-      <c r="P122" s="39"/>
-      <c r="Q122" s="42"/>
-      <c r="R122" s="39"/>
-      <c r="S122" s="45"/>
-      <c r="T122" s="45"/>
+      <c r="O122" s="17"/>
+      <c r="P122" s="37"/>
+      <c r="Q122" s="40"/>
+      <c r="R122" s="37"/>
+      <c r="S122" s="43"/>
+      <c r="T122" s="43"/>
     </row>
     <row r="123" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O123" s="20" t="s">
+      <c r="O123" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="P123" s="39"/>
-      <c r="Q123" s="42"/>
-      <c r="R123" s="39"/>
-      <c r="S123" s="45"/>
-      <c r="T123" s="45"/>
+      <c r="P123" s="37"/>
+      <c r="Q123" s="40"/>
+      <c r="R123" s="37"/>
+      <c r="S123" s="43"/>
+      <c r="T123" s="43"/>
     </row>
     <row r="124" spans="15:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O124" s="21">
+      <c r="O124" s="19">
         <v>14</v>
       </c>
-      <c r="P124" s="40"/>
-      <c r="Q124" s="43"/>
-      <c r="R124" s="40"/>
-      <c r="S124" s="46"/>
-      <c r="T124" s="46"/>
+      <c r="P124" s="38"/>
+      <c r="Q124" s="41"/>
+      <c r="R124" s="38"/>
+      <c r="S124" s="44"/>
+      <c r="T124" s="44"/>
     </row>
     <row r="125" spans="15:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="O125" s="22" t="e" vm="14">
+      <c r="O125" s="20" t="e" vm="14">
         <v>#VALUE!</v>
       </c>
-      <c r="P125" s="27">
+      <c r="P125" s="25">
         <v>5080</v>
       </c>
-      <c r="Q125" s="34" t="s">
+      <c r="Q125" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="R125" s="27" t="s">
+      <c r="R125" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="S125" s="31" t="s">
+      <c r="S125" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="T125" s="27"/>
+      <c r="T125" s="25"/>
     </row>
     <row r="126" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O126" s="23"/>
-      <c r="P126" s="33"/>
-      <c r="Q126" s="35"/>
-      <c r="R126" s="33"/>
-      <c r="S126" s="37"/>
-      <c r="T126" s="33"/>
+      <c r="O126" s="21"/>
+      <c r="P126" s="31"/>
+      <c r="Q126" s="33"/>
+      <c r="R126" s="31"/>
+      <c r="S126" s="35"/>
+      <c r="T126" s="31"/>
     </row>
     <row r="127" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O127" s="23"/>
-      <c r="P127" s="33"/>
-      <c r="Q127" s="35"/>
-      <c r="R127" s="33"/>
-      <c r="S127" s="37"/>
-      <c r="T127" s="33"/>
+      <c r="O127" s="21"/>
+      <c r="P127" s="31"/>
+      <c r="Q127" s="33"/>
+      <c r="R127" s="31"/>
+      <c r="S127" s="35"/>
+      <c r="T127" s="31"/>
     </row>
     <row r="128" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O128" s="23"/>
-      <c r="P128" s="33"/>
-      <c r="Q128" s="35"/>
-      <c r="R128" s="33"/>
-      <c r="S128" s="37"/>
-      <c r="T128" s="33"/>
+      <c r="O128" s="21"/>
+      <c r="P128" s="31"/>
+      <c r="Q128" s="33"/>
+      <c r="R128" s="31"/>
+      <c r="S128" s="35"/>
+      <c r="T128" s="31"/>
     </row>
     <row r="129" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O129" s="23"/>
-      <c r="P129" s="33"/>
-      <c r="Q129" s="35"/>
-      <c r="R129" s="33"/>
-      <c r="S129" s="37"/>
-      <c r="T129" s="33"/>
+      <c r="O129" s="21"/>
+      <c r="P129" s="31"/>
+      <c r="Q129" s="33"/>
+      <c r="R129" s="31"/>
+      <c r="S129" s="35"/>
+      <c r="T129" s="31"/>
     </row>
     <row r="130" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O130" s="23"/>
-      <c r="P130" s="33"/>
-      <c r="Q130" s="35"/>
-      <c r="R130" s="33"/>
-      <c r="S130" s="37"/>
-      <c r="T130" s="33"/>
+      <c r="O130" s="21"/>
+      <c r="P130" s="31"/>
+      <c r="Q130" s="33"/>
+      <c r="R130" s="31"/>
+      <c r="S130" s="35"/>
+      <c r="T130" s="31"/>
     </row>
     <row r="131" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O131" s="23"/>
-      <c r="P131" s="33"/>
-      <c r="Q131" s="35"/>
-      <c r="R131" s="33"/>
-      <c r="S131" s="37"/>
-      <c r="T131" s="33"/>
+      <c r="O131" s="21"/>
+      <c r="P131" s="31"/>
+      <c r="Q131" s="33"/>
+      <c r="R131" s="31"/>
+      <c r="S131" s="35"/>
+      <c r="T131" s="31"/>
     </row>
     <row r="132" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O132" s="24" t="s">
+      <c r="O132" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="P132" s="33"/>
-      <c r="Q132" s="35"/>
-      <c r="R132" s="33"/>
-      <c r="S132" s="37"/>
-      <c r="T132" s="33"/>
+      <c r="P132" s="31"/>
+      <c r="Q132" s="33"/>
+      <c r="R132" s="31"/>
+      <c r="S132" s="35"/>
+      <c r="T132" s="31"/>
     </row>
     <row r="133" spans="15:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O133" s="17">
+      <c r="O133" s="15">
         <v>15</v>
       </c>
-      <c r="P133" s="28"/>
-      <c r="Q133" s="36"/>
-      <c r="R133" s="28"/>
-      <c r="S133" s="32"/>
-      <c r="T133" s="28"/>
+      <c r="P133" s="26"/>
+      <c r="Q133" s="34"/>
+      <c r="R133" s="26"/>
+      <c r="S133" s="30"/>
+      <c r="T133" s="26"/>
     </row>
     <row r="134" spans="15:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="O134" s="18" t="e" vm="15">
+      <c r="O134" s="16" t="e" vm="15">
         <v>#VALUE!</v>
       </c>
-      <c r="P134" s="38">
+      <c r="P134" s="36">
         <v>4547</v>
       </c>
-      <c r="Q134" s="41" t="s">
+      <c r="Q134" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="R134" s="38" t="s">
+      <c r="R134" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="S134" s="44" t="s">
+      <c r="S134" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="T134" s="44" t="s">
+      <c r="T134" s="42" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="135" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O135" s="19"/>
-      <c r="P135" s="39"/>
-      <c r="Q135" s="42"/>
-      <c r="R135" s="39"/>
-      <c r="S135" s="45"/>
-      <c r="T135" s="45"/>
+      <c r="O135" s="17"/>
+      <c r="P135" s="37"/>
+      <c r="Q135" s="40"/>
+      <c r="R135" s="37"/>
+      <c r="S135" s="43"/>
+      <c r="T135" s="43"/>
     </row>
     <row r="136" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O136" s="19"/>
-      <c r="P136" s="39"/>
-      <c r="Q136" s="42"/>
-      <c r="R136" s="39"/>
-      <c r="S136" s="45"/>
-      <c r="T136" s="45"/>
+      <c r="O136" s="17"/>
+      <c r="P136" s="37"/>
+      <c r="Q136" s="40"/>
+      <c r="R136" s="37"/>
+      <c r="S136" s="43"/>
+      <c r="T136" s="43"/>
     </row>
     <row r="137" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O137" s="19"/>
-      <c r="P137" s="39"/>
-      <c r="Q137" s="42"/>
-      <c r="R137" s="39"/>
-      <c r="S137" s="45"/>
-      <c r="T137" s="45"/>
+      <c r="O137" s="17"/>
+      <c r="P137" s="37"/>
+      <c r="Q137" s="40"/>
+      <c r="R137" s="37"/>
+      <c r="S137" s="43"/>
+      <c r="T137" s="43"/>
     </row>
     <row r="138" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O138" s="19"/>
-      <c r="P138" s="39"/>
-      <c r="Q138" s="42"/>
-      <c r="R138" s="39"/>
-      <c r="S138" s="45"/>
-      <c r="T138" s="45"/>
+      <c r="O138" s="17"/>
+      <c r="P138" s="37"/>
+      <c r="Q138" s="40"/>
+      <c r="R138" s="37"/>
+      <c r="S138" s="43"/>
+      <c r="T138" s="43"/>
     </row>
     <row r="139" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O139" s="19"/>
-      <c r="P139" s="39"/>
-      <c r="Q139" s="42"/>
-      <c r="R139" s="39"/>
-      <c r="S139" s="45"/>
-      <c r="T139" s="45"/>
+      <c r="O139" s="17"/>
+      <c r="P139" s="37"/>
+      <c r="Q139" s="40"/>
+      <c r="R139" s="37"/>
+      <c r="S139" s="43"/>
+      <c r="T139" s="43"/>
     </row>
     <row r="140" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O140" s="19"/>
-      <c r="P140" s="39"/>
-      <c r="Q140" s="42"/>
-      <c r="R140" s="39"/>
-      <c r="S140" s="45"/>
-      <c r="T140" s="45"/>
+      <c r="O140" s="17"/>
+      <c r="P140" s="37"/>
+      <c r="Q140" s="40"/>
+      <c r="R140" s="37"/>
+      <c r="S140" s="43"/>
+      <c r="T140" s="43"/>
     </row>
     <row r="141" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O141" s="20" t="s">
+      <c r="O141" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="P141" s="39"/>
-      <c r="Q141" s="42"/>
-      <c r="R141" s="39"/>
-      <c r="S141" s="45"/>
-      <c r="T141" s="45"/>
+      <c r="P141" s="37"/>
+      <c r="Q141" s="40"/>
+      <c r="R141" s="37"/>
+      <c r="S141" s="43"/>
+      <c r="T141" s="43"/>
     </row>
     <row r="142" spans="15:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O142" s="21">
+      <c r="O142" s="19">
         <v>16</v>
       </c>
-      <c r="P142" s="40"/>
-      <c r="Q142" s="43"/>
-      <c r="R142" s="40"/>
-      <c r="S142" s="46"/>
-      <c r="T142" s="46"/>
+      <c r="P142" s="38"/>
+      <c r="Q142" s="41"/>
+      <c r="R142" s="38"/>
+      <c r="S142" s="44"/>
+      <c r="T142" s="44"/>
     </row>
     <row r="143" spans="15:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="O143" s="22" t="e" vm="16">
+      <c r="O143" s="20" t="e" vm="16">
         <v>#VALUE!</v>
       </c>
-      <c r="P143" s="27">
+      <c r="P143" s="25">
         <v>4456</v>
       </c>
-      <c r="Q143" s="34" t="s">
+      <c r="Q143" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="R143" s="27"/>
-      <c r="S143" s="31" t="s">
+      <c r="R143" s="25"/>
+      <c r="S143" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="T143" s="27"/>
+      <c r="T143" s="25"/>
     </row>
     <row r="144" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O144" s="23"/>
-      <c r="P144" s="33"/>
-      <c r="Q144" s="35"/>
-      <c r="R144" s="33"/>
-      <c r="S144" s="37"/>
-      <c r="T144" s="33"/>
+      <c r="O144" s="21"/>
+      <c r="P144" s="31"/>
+      <c r="Q144" s="33"/>
+      <c r="R144" s="31"/>
+      <c r="S144" s="35"/>
+      <c r="T144" s="31"/>
     </row>
     <row r="145" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O145" s="23"/>
-      <c r="P145" s="33"/>
-      <c r="Q145" s="35"/>
-      <c r="R145" s="33"/>
-      <c r="S145" s="37"/>
-      <c r="T145" s="33"/>
+      <c r="O145" s="21"/>
+      <c r="P145" s="31"/>
+      <c r="Q145" s="33"/>
+      <c r="R145" s="31"/>
+      <c r="S145" s="35"/>
+      <c r="T145" s="31"/>
     </row>
     <row r="146" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O146" s="23"/>
-      <c r="P146" s="33"/>
-      <c r="Q146" s="35"/>
-      <c r="R146" s="33"/>
-      <c r="S146" s="37"/>
-      <c r="T146" s="33"/>
+      <c r="O146" s="21"/>
+      <c r="P146" s="31"/>
+      <c r="Q146" s="33"/>
+      <c r="R146" s="31"/>
+      <c r="S146" s="35"/>
+      <c r="T146" s="31"/>
     </row>
     <row r="147" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O147" s="23"/>
-      <c r="P147" s="33"/>
-      <c r="Q147" s="35"/>
-      <c r="R147" s="33"/>
-      <c r="S147" s="37"/>
-      <c r="T147" s="33"/>
+      <c r="O147" s="21"/>
+      <c r="P147" s="31"/>
+      <c r="Q147" s="33"/>
+      <c r="R147" s="31"/>
+      <c r="S147" s="35"/>
+      <c r="T147" s="31"/>
     </row>
     <row r="148" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O148" s="23"/>
-      <c r="P148" s="33"/>
-      <c r="Q148" s="35"/>
-      <c r="R148" s="33"/>
-      <c r="S148" s="37"/>
-      <c r="T148" s="33"/>
+      <c r="O148" s="21"/>
+      <c r="P148" s="31"/>
+      <c r="Q148" s="33"/>
+      <c r="R148" s="31"/>
+      <c r="S148" s="35"/>
+      <c r="T148" s="31"/>
     </row>
     <row r="149" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O149" s="23"/>
-      <c r="P149" s="33"/>
-      <c r="Q149" s="35"/>
-      <c r="R149" s="33"/>
-      <c r="S149" s="37"/>
-      <c r="T149" s="33"/>
+      <c r="O149" s="21"/>
+      <c r="P149" s="31"/>
+      <c r="Q149" s="33"/>
+      <c r="R149" s="31"/>
+      <c r="S149" s="35"/>
+      <c r="T149" s="31"/>
     </row>
     <row r="150" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O150" s="24" t="s">
+      <c r="O150" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="P150" s="33"/>
-      <c r="Q150" s="35"/>
-      <c r="R150" s="33"/>
-      <c r="S150" s="37"/>
-      <c r="T150" s="33"/>
+      <c r="P150" s="31"/>
+      <c r="Q150" s="33"/>
+      <c r="R150" s="31"/>
+      <c r="S150" s="35"/>
+      <c r="T150" s="31"/>
     </row>
     <row r="151" spans="15:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O151" s="17">
+      <c r="O151" s="15">
         <v>17</v>
       </c>
-      <c r="P151" s="28"/>
-      <c r="Q151" s="36"/>
-      <c r="R151" s="28"/>
-      <c r="S151" s="32"/>
-      <c r="T151" s="28"/>
+      <c r="P151" s="26"/>
+      <c r="Q151" s="34"/>
+      <c r="R151" s="26"/>
+      <c r="S151" s="30"/>
+      <c r="T151" s="26"/>
     </row>
     <row r="152" spans="15:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="O152" s="18" t="e" vm="17">
+      <c r="O152" s="16" t="e" vm="17">
         <v>#VALUE!</v>
       </c>
-      <c r="P152" s="38">
+      <c r="P152" s="36">
         <v>2720</v>
       </c>
-      <c r="Q152" s="41" t="s">
+      <c r="Q152" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="R152" s="38" t="s">
+      <c r="R152" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="S152" s="44" t="s">
+      <c r="S152" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="T152" s="44" t="s">
+      <c r="T152" s="42" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="153" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O153" s="19"/>
-      <c r="P153" s="39"/>
-      <c r="Q153" s="42"/>
-      <c r="R153" s="39"/>
-      <c r="S153" s="45"/>
-      <c r="T153" s="45"/>
+      <c r="O153" s="17"/>
+      <c r="P153" s="37"/>
+      <c r="Q153" s="40"/>
+      <c r="R153" s="37"/>
+      <c r="S153" s="43"/>
+      <c r="T153" s="43"/>
     </row>
     <row r="154" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O154" s="19"/>
-      <c r="P154" s="39"/>
-      <c r="Q154" s="42"/>
-      <c r="R154" s="39"/>
-      <c r="S154" s="45"/>
-      <c r="T154" s="45"/>
+      <c r="O154" s="17"/>
+      <c r="P154" s="37"/>
+      <c r="Q154" s="40"/>
+      <c r="R154" s="37"/>
+      <c r="S154" s="43"/>
+      <c r="T154" s="43"/>
     </row>
     <row r="155" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O155" s="19"/>
-      <c r="P155" s="39"/>
-      <c r="Q155" s="42"/>
-      <c r="R155" s="39"/>
-      <c r="S155" s="45"/>
-      <c r="T155" s="45"/>
+      <c r="O155" s="17"/>
+      <c r="P155" s="37"/>
+      <c r="Q155" s="40"/>
+      <c r="R155" s="37"/>
+      <c r="S155" s="43"/>
+      <c r="T155" s="43"/>
     </row>
     <row r="156" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O156" s="19"/>
-      <c r="P156" s="39"/>
-      <c r="Q156" s="42"/>
-      <c r="R156" s="39"/>
-      <c r="S156" s="45"/>
-      <c r="T156" s="45"/>
+      <c r="O156" s="17"/>
+      <c r="P156" s="37"/>
+      <c r="Q156" s="40"/>
+      <c r="R156" s="37"/>
+      <c r="S156" s="43"/>
+      <c r="T156" s="43"/>
     </row>
     <row r="157" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O157" s="19"/>
-      <c r="P157" s="39"/>
-      <c r="Q157" s="42"/>
-      <c r="R157" s="39"/>
-      <c r="S157" s="45"/>
-      <c r="T157" s="45"/>
+      <c r="O157" s="17"/>
+      <c r="P157" s="37"/>
+      <c r="Q157" s="40"/>
+      <c r="R157" s="37"/>
+      <c r="S157" s="43"/>
+      <c r="T157" s="43"/>
     </row>
     <row r="158" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O158" s="19"/>
-      <c r="P158" s="39"/>
-      <c r="Q158" s="42"/>
-      <c r="R158" s="39"/>
-      <c r="S158" s="45"/>
-      <c r="T158" s="45"/>
+      <c r="O158" s="17"/>
+      <c r="P158" s="37"/>
+      <c r="Q158" s="40"/>
+      <c r="R158" s="37"/>
+      <c r="S158" s="43"/>
+      <c r="T158" s="43"/>
     </row>
     <row r="159" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O159" s="20" t="s">
+      <c r="O159" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="P159" s="39"/>
-      <c r="Q159" s="42"/>
-      <c r="R159" s="39"/>
-      <c r="S159" s="45"/>
-      <c r="T159" s="45"/>
+      <c r="P159" s="37"/>
+      <c r="Q159" s="40"/>
+      <c r="R159" s="37"/>
+      <c r="S159" s="43"/>
+      <c r="T159" s="43"/>
     </row>
     <row r="160" spans="15:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O160" s="21">
+      <c r="O160" s="19">
         <v>18</v>
       </c>
-      <c r="P160" s="40"/>
-      <c r="Q160" s="43"/>
-      <c r="R160" s="40"/>
-      <c r="S160" s="46"/>
-      <c r="T160" s="46"/>
+      <c r="P160" s="38"/>
+      <c r="Q160" s="41"/>
+      <c r="R160" s="38"/>
+      <c r="S160" s="44"/>
+      <c r="T160" s="44"/>
     </row>
     <row r="161" spans="15:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="O161" s="22" t="e" vm="18">
+      <c r="O161" s="20" t="e" vm="18">
         <v>#VALUE!</v>
       </c>
-      <c r="P161" s="27">
+      <c r="P161" s="25">
         <v>2634</v>
       </c>
-      <c r="Q161" s="34" t="s">
+      <c r="Q161" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="R161" s="27"/>
-      <c r="S161" s="31" t="s">
+      <c r="R161" s="25"/>
+      <c r="S161" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="T161" s="31" t="s">
+      <c r="T161" s="29" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="162" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O162" s="23"/>
-      <c r="P162" s="33"/>
-      <c r="Q162" s="35"/>
-      <c r="R162" s="33"/>
-      <c r="S162" s="37"/>
-      <c r="T162" s="37"/>
+      <c r="O162" s="21"/>
+      <c r="P162" s="31"/>
+      <c r="Q162" s="33"/>
+      <c r="R162" s="31"/>
+      <c r="S162" s="35"/>
+      <c r="T162" s="35"/>
     </row>
     <row r="163" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O163" s="23"/>
-      <c r="P163" s="33"/>
-      <c r="Q163" s="35"/>
-      <c r="R163" s="33"/>
-      <c r="S163" s="37"/>
-      <c r="T163" s="37"/>
+      <c r="O163" s="21"/>
+      <c r="P163" s="31"/>
+      <c r="Q163" s="33"/>
+      <c r="R163" s="31"/>
+      <c r="S163" s="35"/>
+      <c r="T163" s="35"/>
     </row>
     <row r="164" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O164" s="23"/>
-      <c r="P164" s="33"/>
-      <c r="Q164" s="35"/>
-      <c r="R164" s="33"/>
-      <c r="S164" s="37"/>
-      <c r="T164" s="37"/>
+      <c r="O164" s="21"/>
+      <c r="P164" s="31"/>
+      <c r="Q164" s="33"/>
+      <c r="R164" s="31"/>
+      <c r="S164" s="35"/>
+      <c r="T164" s="35"/>
     </row>
     <row r="165" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O165" s="23"/>
-      <c r="P165" s="33"/>
-      <c r="Q165" s="35"/>
-      <c r="R165" s="33"/>
-      <c r="S165" s="37"/>
-      <c r="T165" s="37"/>
+      <c r="O165" s="21"/>
+      <c r="P165" s="31"/>
+      <c r="Q165" s="33"/>
+      <c r="R165" s="31"/>
+      <c r="S165" s="35"/>
+      <c r="T165" s="35"/>
     </row>
     <row r="166" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O166" s="23"/>
-      <c r="P166" s="33"/>
-      <c r="Q166" s="35"/>
-      <c r="R166" s="33"/>
-      <c r="S166" s="37"/>
-      <c r="T166" s="37"/>
+      <c r="O166" s="21"/>
+      <c r="P166" s="31"/>
+      <c r="Q166" s="33"/>
+      <c r="R166" s="31"/>
+      <c r="S166" s="35"/>
+      <c r="T166" s="35"/>
     </row>
     <row r="167" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O167" s="23"/>
-      <c r="P167" s="33"/>
-      <c r="Q167" s="35"/>
-      <c r="R167" s="33"/>
-      <c r="S167" s="37"/>
-      <c r="T167" s="37"/>
+      <c r="O167" s="21"/>
+      <c r="P167" s="31"/>
+      <c r="Q167" s="33"/>
+      <c r="R167" s="31"/>
+      <c r="S167" s="35"/>
+      <c r="T167" s="35"/>
     </row>
     <row r="168" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O168" s="24" t="s">
+      <c r="O168" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="P168" s="33"/>
-      <c r="Q168" s="35"/>
-      <c r="R168" s="33"/>
-      <c r="S168" s="37"/>
-      <c r="T168" s="37"/>
+      <c r="P168" s="31"/>
+      <c r="Q168" s="33"/>
+      <c r="R168" s="31"/>
+      <c r="S168" s="35"/>
+      <c r="T168" s="35"/>
     </row>
     <row r="169" spans="15:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O169" s="17">
+      <c r="O169" s="15">
         <v>19</v>
       </c>
-      <c r="P169" s="28"/>
-      <c r="Q169" s="36"/>
-      <c r="R169" s="28"/>
-      <c r="S169" s="32"/>
-      <c r="T169" s="32"/>
+      <c r="P169" s="26"/>
+      <c r="Q169" s="34"/>
+      <c r="R169" s="26"/>
+      <c r="S169" s="30"/>
+      <c r="T169" s="30"/>
     </row>
     <row r="170" spans="15:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="O170" s="18" t="e" vm="19">
+      <c r="O170" s="16" t="e" vm="19">
         <v>#VALUE!</v>
       </c>
-      <c r="P170" s="38">
+      <c r="P170" s="36">
         <v>2478</v>
       </c>
-      <c r="Q170" s="41" t="s">
+      <c r="Q170" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="R170" s="38"/>
-      <c r="S170" s="44" t="s">
+      <c r="R170" s="36"/>
+      <c r="S170" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="T170" s="38"/>
+      <c r="T170" s="36"/>
     </row>
     <row r="171" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O171" s="19"/>
-      <c r="P171" s="39"/>
-      <c r="Q171" s="42"/>
-      <c r="R171" s="39"/>
-      <c r="S171" s="45"/>
-      <c r="T171" s="39"/>
+      <c r="O171" s="17"/>
+      <c r="P171" s="37"/>
+      <c r="Q171" s="40"/>
+      <c r="R171" s="37"/>
+      <c r="S171" s="43"/>
+      <c r="T171" s="37"/>
     </row>
     <row r="172" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O172" s="19"/>
-      <c r="P172" s="39"/>
-      <c r="Q172" s="42"/>
-      <c r="R172" s="39"/>
-      <c r="S172" s="45"/>
-      <c r="T172" s="39"/>
+      <c r="O172" s="17"/>
+      <c r="P172" s="37"/>
+      <c r="Q172" s="40"/>
+      <c r="R172" s="37"/>
+      <c r="S172" s="43"/>
+      <c r="T172" s="37"/>
     </row>
     <row r="173" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O173" s="19"/>
-      <c r="P173" s="39"/>
-      <c r="Q173" s="42"/>
-      <c r="R173" s="39"/>
-      <c r="S173" s="45"/>
-      <c r="T173" s="39"/>
+      <c r="O173" s="17"/>
+      <c r="P173" s="37"/>
+      <c r="Q173" s="40"/>
+      <c r="R173" s="37"/>
+      <c r="S173" s="43"/>
+      <c r="T173" s="37"/>
     </row>
     <row r="174" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O174" s="19"/>
-      <c r="P174" s="39"/>
-      <c r="Q174" s="42"/>
-      <c r="R174" s="39"/>
-      <c r="S174" s="45"/>
-      <c r="T174" s="39"/>
+      <c r="O174" s="17"/>
+      <c r="P174" s="37"/>
+      <c r="Q174" s="40"/>
+      <c r="R174" s="37"/>
+      <c r="S174" s="43"/>
+      <c r="T174" s="37"/>
     </row>
     <row r="175" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O175" s="19"/>
-      <c r="P175" s="39"/>
-      <c r="Q175" s="42"/>
-      <c r="R175" s="39"/>
-      <c r="S175" s="45"/>
-      <c r="T175" s="39"/>
+      <c r="O175" s="17"/>
+      <c r="P175" s="37"/>
+      <c r="Q175" s="40"/>
+      <c r="R175" s="37"/>
+      <c r="S175" s="43"/>
+      <c r="T175" s="37"/>
     </row>
     <row r="176" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O176" s="19"/>
-      <c r="P176" s="39"/>
-      <c r="Q176" s="42"/>
-      <c r="R176" s="39"/>
-      <c r="S176" s="45"/>
-      <c r="T176" s="39"/>
+      <c r="O176" s="17"/>
+      <c r="P176" s="37"/>
+      <c r="Q176" s="40"/>
+      <c r="R176" s="37"/>
+      <c r="S176" s="43"/>
+      <c r="T176" s="37"/>
     </row>
     <row r="177" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O177" s="20" t="s">
+      <c r="O177" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="P177" s="39"/>
-      <c r="Q177" s="42"/>
-      <c r="R177" s="39"/>
-      <c r="S177" s="45"/>
-      <c r="T177" s="39"/>
+      <c r="P177" s="37"/>
+      <c r="Q177" s="40"/>
+      <c r="R177" s="37"/>
+      <c r="S177" s="43"/>
+      <c r="T177" s="37"/>
     </row>
     <row r="178" spans="15:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O178" s="21">
+      <c r="O178" s="19">
         <v>20</v>
       </c>
-      <c r="P178" s="40"/>
-      <c r="Q178" s="43"/>
-      <c r="R178" s="40"/>
-      <c r="S178" s="46"/>
-      <c r="T178" s="40"/>
+      <c r="P178" s="38"/>
+      <c r="Q178" s="41"/>
+      <c r="R178" s="38"/>
+      <c r="S178" s="44"/>
+      <c r="T178" s="38"/>
     </row>
     <row r="179" spans="15:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="O179" s="22" t="e" vm="20">
+      <c r="O179" s="20" t="e" vm="20">
         <v>#VALUE!</v>
       </c>
-      <c r="P179" s="27">
+      <c r="P179" s="25">
         <v>2206</v>
       </c>
-      <c r="Q179" s="34" t="s">
+      <c r="Q179" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="R179" s="27"/>
-      <c r="S179" s="31" t="s">
+      <c r="R179" s="25"/>
+      <c r="S179" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="T179" s="27"/>
+      <c r="T179" s="25"/>
     </row>
     <row r="180" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O180" s="23"/>
-      <c r="P180" s="33"/>
-      <c r="Q180" s="35"/>
-      <c r="R180" s="33"/>
-      <c r="S180" s="37"/>
-      <c r="T180" s="33"/>
+      <c r="O180" s="21"/>
+      <c r="P180" s="31"/>
+      <c r="Q180" s="33"/>
+      <c r="R180" s="31"/>
+      <c r="S180" s="35"/>
+      <c r="T180" s="31"/>
     </row>
     <row r="181" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O181" s="23"/>
-      <c r="P181" s="33"/>
-      <c r="Q181" s="35"/>
-      <c r="R181" s="33"/>
-      <c r="S181" s="37"/>
-      <c r="T181" s="33"/>
+      <c r="O181" s="21"/>
+      <c r="P181" s="31"/>
+      <c r="Q181" s="33"/>
+      <c r="R181" s="31"/>
+      <c r="S181" s="35"/>
+      <c r="T181" s="31"/>
     </row>
     <row r="182" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O182" s="23"/>
-      <c r="P182" s="33"/>
-      <c r="Q182" s="35"/>
-      <c r="R182" s="33"/>
-      <c r="S182" s="37"/>
-      <c r="T182" s="33"/>
+      <c r="O182" s="21"/>
+      <c r="P182" s="31"/>
+      <c r="Q182" s="33"/>
+      <c r="R182" s="31"/>
+      <c r="S182" s="35"/>
+      <c r="T182" s="31"/>
     </row>
     <row r="183" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O183" s="23"/>
-      <c r="P183" s="33"/>
-      <c r="Q183" s="35"/>
-      <c r="R183" s="33"/>
-      <c r="S183" s="37"/>
-      <c r="T183" s="33"/>
+      <c r="O183" s="21"/>
+      <c r="P183" s="31"/>
+      <c r="Q183" s="33"/>
+      <c r="R183" s="31"/>
+      <c r="S183" s="35"/>
+      <c r="T183" s="31"/>
     </row>
     <row r="184" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O184" s="23"/>
-      <c r="P184" s="33"/>
-      <c r="Q184" s="35"/>
-      <c r="R184" s="33"/>
-      <c r="S184" s="37"/>
-      <c r="T184" s="33"/>
+      <c r="O184" s="21"/>
+      <c r="P184" s="31"/>
+      <c r="Q184" s="33"/>
+      <c r="R184" s="31"/>
+      <c r="S184" s="35"/>
+      <c r="T184" s="31"/>
     </row>
     <row r="185" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O185" s="23"/>
-      <c r="P185" s="33"/>
-      <c r="Q185" s="35"/>
-      <c r="R185" s="33"/>
-      <c r="S185" s="37"/>
-      <c r="T185" s="33"/>
+      <c r="O185" s="21"/>
+      <c r="P185" s="31"/>
+      <c r="Q185" s="33"/>
+      <c r="R185" s="31"/>
+      <c r="S185" s="35"/>
+      <c r="T185" s="31"/>
     </row>
     <row r="186" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O186" s="24" t="s">
+      <c r="O186" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="P186" s="33"/>
-      <c r="Q186" s="35"/>
-      <c r="R186" s="33"/>
-      <c r="S186" s="37"/>
-      <c r="T186" s="33"/>
+      <c r="P186" s="31"/>
+      <c r="Q186" s="33"/>
+      <c r="R186" s="31"/>
+      <c r="S186" s="35"/>
+      <c r="T186" s="31"/>
     </row>
     <row r="187" spans="15:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O187" s="17">
+      <c r="O187" s="15">
         <v>21</v>
       </c>
-      <c r="P187" s="28"/>
-      <c r="Q187" s="36"/>
-      <c r="R187" s="28"/>
-      <c r="S187" s="32"/>
-      <c r="T187" s="28"/>
+      <c r="P187" s="26"/>
+      <c r="Q187" s="34"/>
+      <c r="R187" s="26"/>
+      <c r="S187" s="30"/>
+      <c r="T187" s="26"/>
     </row>
     <row r="188" spans="15:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="O188" s="18" t="e" vm="21">
+      <c r="O188" s="16" t="e" vm="21">
         <v>#VALUE!</v>
       </c>
-      <c r="P188" s="38">
+      <c r="P188" s="36">
         <v>2080</v>
       </c>
-      <c r="Q188" s="41" t="s">
+      <c r="Q188" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="R188" s="38"/>
-      <c r="S188" s="44" t="s">
+      <c r="R188" s="36"/>
+      <c r="S188" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="T188" s="38"/>
+      <c r="T188" s="36"/>
     </row>
     <row r="189" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O189" s="19"/>
-      <c r="P189" s="39"/>
-      <c r="Q189" s="42"/>
-      <c r="R189" s="39"/>
-      <c r="S189" s="45"/>
-      <c r="T189" s="39"/>
+      <c r="O189" s="17"/>
+      <c r="P189" s="37"/>
+      <c r="Q189" s="40"/>
+      <c r="R189" s="37"/>
+      <c r="S189" s="43"/>
+      <c r="T189" s="37"/>
     </row>
     <row r="190" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O190" s="19"/>
-      <c r="P190" s="39"/>
-      <c r="Q190" s="42"/>
-      <c r="R190" s="39"/>
-      <c r="S190" s="45"/>
-      <c r="T190" s="39"/>
+      <c r="O190" s="17"/>
+      <c r="P190" s="37"/>
+      <c r="Q190" s="40"/>
+      <c r="R190" s="37"/>
+      <c r="S190" s="43"/>
+      <c r="T190" s="37"/>
     </row>
     <row r="191" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O191" s="19"/>
-      <c r="P191" s="39"/>
-      <c r="Q191" s="42"/>
-      <c r="R191" s="39"/>
-      <c r="S191" s="45"/>
-      <c r="T191" s="39"/>
+      <c r="O191" s="17"/>
+      <c r="P191" s="37"/>
+      <c r="Q191" s="40"/>
+      <c r="R191" s="37"/>
+      <c r="S191" s="43"/>
+      <c r="T191" s="37"/>
     </row>
     <row r="192" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O192" s="19"/>
-      <c r="P192" s="39"/>
-      <c r="Q192" s="42"/>
-      <c r="R192" s="39"/>
-      <c r="S192" s="45"/>
-      <c r="T192" s="39"/>
+      <c r="O192" s="17"/>
+      <c r="P192" s="37"/>
+      <c r="Q192" s="40"/>
+      <c r="R192" s="37"/>
+      <c r="S192" s="43"/>
+      <c r="T192" s="37"/>
     </row>
     <row r="193" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O193" s="19"/>
-      <c r="P193" s="39"/>
-      <c r="Q193" s="42"/>
-      <c r="R193" s="39"/>
-      <c r="S193" s="45"/>
-      <c r="T193" s="39"/>
+      <c r="O193" s="17"/>
+      <c r="P193" s="37"/>
+      <c r="Q193" s="40"/>
+      <c r="R193" s="37"/>
+      <c r="S193" s="43"/>
+      <c r="T193" s="37"/>
     </row>
     <row r="194" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O194" s="19"/>
-      <c r="P194" s="39"/>
-      <c r="Q194" s="42"/>
-      <c r="R194" s="39"/>
-      <c r="S194" s="45"/>
-      <c r="T194" s="39"/>
+      <c r="O194" s="17"/>
+      <c r="P194" s="37"/>
+      <c r="Q194" s="40"/>
+      <c r="R194" s="37"/>
+      <c r="S194" s="43"/>
+      <c r="T194" s="37"/>
     </row>
     <row r="195" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O195" s="20" t="s">
+      <c r="O195" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="P195" s="39"/>
-      <c r="Q195" s="42"/>
-      <c r="R195" s="39"/>
-      <c r="S195" s="45"/>
-      <c r="T195" s="39"/>
+      <c r="P195" s="37"/>
+      <c r="Q195" s="40"/>
+      <c r="R195" s="37"/>
+      <c r="S195" s="43"/>
+      <c r="T195" s="37"/>
     </row>
     <row r="196" spans="15:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O196" s="21">
+      <c r="O196" s="19">
         <v>22</v>
       </c>
-      <c r="P196" s="40"/>
-      <c r="Q196" s="43"/>
-      <c r="R196" s="40"/>
-      <c r="S196" s="46"/>
-      <c r="T196" s="40"/>
+      <c r="P196" s="38"/>
+      <c r="Q196" s="41"/>
+      <c r="R196" s="38"/>
+      <c r="S196" s="44"/>
+      <c r="T196" s="38"/>
     </row>
     <row r="197" spans="15:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="O197" s="22" t="e" vm="22">
+      <c r="O197" s="20" t="e" vm="22">
         <v>#VALUE!</v>
       </c>
-      <c r="P197" s="27">
+      <c r="P197" s="25">
         <v>1720</v>
       </c>
-      <c r="Q197" s="34" t="s">
+      <c r="Q197" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="R197" s="27"/>
-      <c r="S197" s="31" t="s">
+      <c r="R197" s="25"/>
+      <c r="S197" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="T197" s="31" t="s">
+      <c r="T197" s="29" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="198" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O198" s="23"/>
-      <c r="P198" s="33"/>
-      <c r="Q198" s="35"/>
-      <c r="R198" s="33"/>
-      <c r="S198" s="37"/>
-      <c r="T198" s="37"/>
+      <c r="O198" s="21"/>
+      <c r="P198" s="31"/>
+      <c r="Q198" s="33"/>
+      <c r="R198" s="31"/>
+      <c r="S198" s="35"/>
+      <c r="T198" s="35"/>
     </row>
     <row r="199" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O199" s="23"/>
-      <c r="P199" s="33"/>
-      <c r="Q199" s="35"/>
-      <c r="R199" s="33"/>
-      <c r="S199" s="37"/>
-      <c r="T199" s="37"/>
+      <c r="O199" s="21"/>
+      <c r="P199" s="31"/>
+      <c r="Q199" s="33"/>
+      <c r="R199" s="31"/>
+      <c r="S199" s="35"/>
+      <c r="T199" s="35"/>
     </row>
     <row r="200" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O200" s="23"/>
-      <c r="P200" s="33"/>
-      <c r="Q200" s="35"/>
-      <c r="R200" s="33"/>
-      <c r="S200" s="37"/>
-      <c r="T200" s="37"/>
+      <c r="O200" s="21"/>
+      <c r="P200" s="31"/>
+      <c r="Q200" s="33"/>
+      <c r="R200" s="31"/>
+      <c r="S200" s="35"/>
+      <c r="T200" s="35"/>
     </row>
     <row r="201" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O201" s="23"/>
-      <c r="P201" s="33"/>
-      <c r="Q201" s="35"/>
-      <c r="R201" s="33"/>
-      <c r="S201" s="37"/>
-      <c r="T201" s="37"/>
+      <c r="O201" s="21"/>
+      <c r="P201" s="31"/>
+      <c r="Q201" s="33"/>
+      <c r="R201" s="31"/>
+      <c r="S201" s="35"/>
+      <c r="T201" s="35"/>
     </row>
     <row r="202" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O202" s="23"/>
-      <c r="P202" s="33"/>
-      <c r="Q202" s="35"/>
-      <c r="R202" s="33"/>
-      <c r="S202" s="37"/>
-      <c r="T202" s="37"/>
+      <c r="O202" s="21"/>
+      <c r="P202" s="31"/>
+      <c r="Q202" s="33"/>
+      <c r="R202" s="31"/>
+      <c r="S202" s="35"/>
+      <c r="T202" s="35"/>
     </row>
     <row r="203" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O203" s="23"/>
-      <c r="P203" s="33"/>
-      <c r="Q203" s="35"/>
-      <c r="R203" s="33"/>
-      <c r="S203" s="37"/>
-      <c r="T203" s="37"/>
+      <c r="O203" s="21"/>
+      <c r="P203" s="31"/>
+      <c r="Q203" s="33"/>
+      <c r="R203" s="31"/>
+      <c r="S203" s="35"/>
+      <c r="T203" s="35"/>
     </row>
     <row r="204" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O204" s="24" t="s">
+      <c r="O204" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="P204" s="33"/>
-      <c r="Q204" s="35"/>
-      <c r="R204" s="33"/>
-      <c r="S204" s="37"/>
-      <c r="T204" s="37"/>
+      <c r="P204" s="31"/>
+      <c r="Q204" s="33"/>
+      <c r="R204" s="31"/>
+      <c r="S204" s="35"/>
+      <c r="T204" s="35"/>
     </row>
     <row r="205" spans="15:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O205" s="17">
+      <c r="O205" s="15">
         <v>23</v>
       </c>
-      <c r="P205" s="28"/>
-      <c r="Q205" s="36"/>
-      <c r="R205" s="28"/>
-      <c r="S205" s="32"/>
-      <c r="T205" s="32"/>
+      <c r="P205" s="26"/>
+      <c r="Q205" s="34"/>
+      <c r="R205" s="26"/>
+      <c r="S205" s="30"/>
+      <c r="T205" s="30"/>
     </row>
     <row r="206" spans="15:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="O206" s="18" t="e" vm="23">
+      <c r="O206" s="16" t="e" vm="23">
         <v>#VALUE!</v>
       </c>
-      <c r="P206" s="38">
+      <c r="P206" s="36">
         <v>1609</v>
       </c>
-      <c r="Q206" s="41" t="s">
+      <c r="Q206" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="R206" s="38"/>
-      <c r="S206" s="44" t="s">
+      <c r="R206" s="36"/>
+      <c r="S206" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="T206" s="38"/>
+      <c r="T206" s="36"/>
     </row>
     <row r="207" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O207" s="19"/>
-      <c r="P207" s="39"/>
-      <c r="Q207" s="42"/>
-      <c r="R207" s="39"/>
-      <c r="S207" s="45"/>
-      <c r="T207" s="39"/>
+      <c r="O207" s="17"/>
+      <c r="P207" s="37"/>
+      <c r="Q207" s="40"/>
+      <c r="R207" s="37"/>
+      <c r="S207" s="43"/>
+      <c r="T207" s="37"/>
     </row>
     <row r="208" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O208" s="19"/>
-      <c r="P208" s="39"/>
-      <c r="Q208" s="42"/>
-      <c r="R208" s="39"/>
-      <c r="S208" s="45"/>
-      <c r="T208" s="39"/>
+      <c r="O208" s="17"/>
+      <c r="P208" s="37"/>
+      <c r="Q208" s="40"/>
+      <c r="R208" s="37"/>
+      <c r="S208" s="43"/>
+      <c r="T208" s="37"/>
     </row>
     <row r="209" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O209" s="19"/>
-      <c r="P209" s="39"/>
-      <c r="Q209" s="42"/>
-      <c r="R209" s="39"/>
-      <c r="S209" s="45"/>
-      <c r="T209" s="39"/>
+      <c r="O209" s="17"/>
+      <c r="P209" s="37"/>
+      <c r="Q209" s="40"/>
+      <c r="R209" s="37"/>
+      <c r="S209" s="43"/>
+      <c r="T209" s="37"/>
     </row>
     <row r="210" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O210" s="19"/>
-      <c r="P210" s="39"/>
-      <c r="Q210" s="42"/>
-      <c r="R210" s="39"/>
-      <c r="S210" s="45"/>
-      <c r="T210" s="39"/>
+      <c r="O210" s="17"/>
+      <c r="P210" s="37"/>
+      <c r="Q210" s="40"/>
+      <c r="R210" s="37"/>
+      <c r="S210" s="43"/>
+      <c r="T210" s="37"/>
     </row>
     <row r="211" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O211" s="19"/>
-      <c r="P211" s="39"/>
-      <c r="Q211" s="42"/>
-      <c r="R211" s="39"/>
-      <c r="S211" s="45"/>
-      <c r="T211" s="39"/>
+      <c r="O211" s="17"/>
+      <c r="P211" s="37"/>
+      <c r="Q211" s="40"/>
+      <c r="R211" s="37"/>
+      <c r="S211" s="43"/>
+      <c r="T211" s="37"/>
     </row>
     <row r="212" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O212" s="19"/>
-      <c r="P212" s="39"/>
-      <c r="Q212" s="42"/>
-      <c r="R212" s="39"/>
-      <c r="S212" s="45"/>
-      <c r="T212" s="39"/>
+      <c r="O212" s="17"/>
+      <c r="P212" s="37"/>
+      <c r="Q212" s="40"/>
+      <c r="R212" s="37"/>
+      <c r="S212" s="43"/>
+      <c r="T212" s="37"/>
     </row>
     <row r="213" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O213" s="20" t="s">
+      <c r="O213" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="P213" s="39"/>
-      <c r="Q213" s="42"/>
-      <c r="R213" s="39"/>
-      <c r="S213" s="45"/>
-      <c r="T213" s="39"/>
+      <c r="P213" s="37"/>
+      <c r="Q213" s="40"/>
+      <c r="R213" s="37"/>
+      <c r="S213" s="43"/>
+      <c r="T213" s="37"/>
     </row>
     <row r="214" spans="15:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O214" s="21">
+      <c r="O214" s="19">
         <v>24</v>
       </c>
-      <c r="P214" s="40"/>
-      <c r="Q214" s="43"/>
-      <c r="R214" s="40"/>
-      <c r="S214" s="46"/>
-      <c r="T214" s="40"/>
+      <c r="P214" s="38"/>
+      <c r="Q214" s="41"/>
+      <c r="R214" s="38"/>
+      <c r="S214" s="44"/>
+      <c r="T214" s="38"/>
     </row>
     <row r="215" spans="15:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="O215" s="22" t="e" vm="24">
+      <c r="O215" s="20" t="e" vm="24">
         <v>#VALUE!</v>
       </c>
-      <c r="P215" s="27">
+      <c r="P215" s="25">
         <v>1375</v>
       </c>
-      <c r="Q215" s="34" t="s">
+      <c r="Q215" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="R215" s="27"/>
-      <c r="S215" s="31" t="s">
+      <c r="R215" s="25"/>
+      <c r="S215" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="T215" s="27"/>
+      <c r="T215" s="25"/>
     </row>
     <row r="216" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O216" s="23"/>
-      <c r="P216" s="33"/>
-      <c r="Q216" s="35"/>
-      <c r="R216" s="33"/>
-      <c r="S216" s="37"/>
-      <c r="T216" s="33"/>
+      <c r="O216" s="21"/>
+      <c r="P216" s="31"/>
+      <c r="Q216" s="33"/>
+      <c r="R216" s="31"/>
+      <c r="S216" s="35"/>
+      <c r="T216" s="31"/>
     </row>
     <row r="217" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O217" s="23"/>
-      <c r="P217" s="33"/>
-      <c r="Q217" s="35"/>
-      <c r="R217" s="33"/>
-      <c r="S217" s="37"/>
-      <c r="T217" s="33"/>
+      <c r="O217" s="21"/>
+      <c r="P217" s="31"/>
+      <c r="Q217" s="33"/>
+      <c r="R217" s="31"/>
+      <c r="S217" s="35"/>
+      <c r="T217" s="31"/>
     </row>
     <row r="218" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O218" s="23"/>
-      <c r="P218" s="33"/>
-      <c r="Q218" s="35"/>
-      <c r="R218" s="33"/>
-      <c r="S218" s="37"/>
-      <c r="T218" s="33"/>
+      <c r="O218" s="21"/>
+      <c r="P218" s="31"/>
+      <c r="Q218" s="33"/>
+      <c r="R218" s="31"/>
+      <c r="S218" s="35"/>
+      <c r="T218" s="31"/>
     </row>
     <row r="219" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O219" s="23"/>
-      <c r="P219" s="33"/>
-      <c r="Q219" s="35"/>
-      <c r="R219" s="33"/>
-      <c r="S219" s="37"/>
-      <c r="T219" s="33"/>
+      <c r="O219" s="21"/>
+      <c r="P219" s="31"/>
+      <c r="Q219" s="33"/>
+      <c r="R219" s="31"/>
+      <c r="S219" s="35"/>
+      <c r="T219" s="31"/>
     </row>
     <row r="220" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O220" s="23"/>
-      <c r="P220" s="33"/>
-      <c r="Q220" s="35"/>
-      <c r="R220" s="33"/>
-      <c r="S220" s="37"/>
-      <c r="T220" s="33"/>
+      <c r="O220" s="21"/>
+      <c r="P220" s="31"/>
+      <c r="Q220" s="33"/>
+      <c r="R220" s="31"/>
+      <c r="S220" s="35"/>
+      <c r="T220" s="31"/>
     </row>
     <row r="221" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O221" s="23"/>
-      <c r="P221" s="33"/>
-      <c r="Q221" s="35"/>
-      <c r="R221" s="33"/>
-      <c r="S221" s="37"/>
-      <c r="T221" s="33"/>
+      <c r="O221" s="21"/>
+      <c r="P221" s="31"/>
+      <c r="Q221" s="33"/>
+      <c r="R221" s="31"/>
+      <c r="S221" s="35"/>
+      <c r="T221" s="31"/>
     </row>
     <row r="222" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O222" s="24" t="s">
+      <c r="O222" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="P222" s="33"/>
-      <c r="Q222" s="35"/>
-      <c r="R222" s="33"/>
-      <c r="S222" s="37"/>
-      <c r="T222" s="33"/>
+      <c r="P222" s="31"/>
+      <c r="Q222" s="33"/>
+      <c r="R222" s="31"/>
+      <c r="S222" s="35"/>
+      <c r="T222" s="31"/>
     </row>
     <row r="223" spans="15:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O223" s="17">
+      <c r="O223" s="15">
         <v>25</v>
       </c>
-      <c r="P223" s="28"/>
-      <c r="Q223" s="36"/>
-      <c r="R223" s="28"/>
-      <c r="S223" s="32"/>
-      <c r="T223" s="28"/>
+      <c r="P223" s="26"/>
+      <c r="Q223" s="34"/>
+      <c r="R223" s="26"/>
+      <c r="S223" s="30"/>
+      <c r="T223" s="26"/>
     </row>
     <row r="224" spans="15:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="O224" s="18" t="e" vm="25">
+      <c r="O224" s="16" t="e" vm="25">
         <v>#VALUE!</v>
       </c>
-      <c r="P224" s="38">
+      <c r="P224" s="36">
         <v>1289</v>
       </c>
-      <c r="Q224" s="41" t="s">
+      <c r="Q224" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="R224" s="38"/>
-      <c r="S224" s="44" t="s">
+      <c r="R224" s="36"/>
+      <c r="S224" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="T224" s="38"/>
+      <c r="T224" s="36"/>
     </row>
     <row r="225" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O225" s="19"/>
-      <c r="P225" s="39"/>
-      <c r="Q225" s="42"/>
-      <c r="R225" s="39"/>
-      <c r="S225" s="45"/>
-      <c r="T225" s="39"/>
+      <c r="O225" s="17"/>
+      <c r="P225" s="37"/>
+      <c r="Q225" s="40"/>
+      <c r="R225" s="37"/>
+      <c r="S225" s="43"/>
+      <c r="T225" s="37"/>
     </row>
     <row r="226" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O226" s="19"/>
-      <c r="P226" s="39"/>
-      <c r="Q226" s="42"/>
-      <c r="R226" s="39"/>
-      <c r="S226" s="45"/>
-      <c r="T226" s="39"/>
+      <c r="O226" s="17"/>
+      <c r="P226" s="37"/>
+      <c r="Q226" s="40"/>
+      <c r="R226" s="37"/>
+      <c r="S226" s="43"/>
+      <c r="T226" s="37"/>
     </row>
     <row r="227" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O227" s="19"/>
-      <c r="P227" s="39"/>
-      <c r="Q227" s="42"/>
-      <c r="R227" s="39"/>
-      <c r="S227" s="45"/>
-      <c r="T227" s="39"/>
+      <c r="O227" s="17"/>
+      <c r="P227" s="37"/>
+      <c r="Q227" s="40"/>
+      <c r="R227" s="37"/>
+      <c r="S227" s="43"/>
+      <c r="T227" s="37"/>
     </row>
     <row r="228" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O228" s="19"/>
-      <c r="P228" s="39"/>
-      <c r="Q228" s="42"/>
-      <c r="R228" s="39"/>
-      <c r="S228" s="45"/>
-      <c r="T228" s="39"/>
+      <c r="O228" s="17"/>
+      <c r="P228" s="37"/>
+      <c r="Q228" s="40"/>
+      <c r="R228" s="37"/>
+      <c r="S228" s="43"/>
+      <c r="T228" s="37"/>
     </row>
     <row r="229" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O229" s="19"/>
-      <c r="P229" s="39"/>
-      <c r="Q229" s="42"/>
-      <c r="R229" s="39"/>
-      <c r="S229" s="45"/>
-      <c r="T229" s="39"/>
+      <c r="O229" s="17"/>
+      <c r="P229" s="37"/>
+      <c r="Q229" s="40"/>
+      <c r="R229" s="37"/>
+      <c r="S229" s="43"/>
+      <c r="T229" s="37"/>
     </row>
     <row r="230" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O230" s="19"/>
-      <c r="P230" s="39"/>
-      <c r="Q230" s="42"/>
-      <c r="R230" s="39"/>
-      <c r="S230" s="45"/>
-      <c r="T230" s="39"/>
+      <c r="O230" s="17"/>
+      <c r="P230" s="37"/>
+      <c r="Q230" s="40"/>
+      <c r="R230" s="37"/>
+      <c r="S230" s="43"/>
+      <c r="T230" s="37"/>
     </row>
     <row r="231" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O231" s="20" t="s">
+      <c r="O231" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="P231" s="39"/>
-      <c r="Q231" s="42"/>
-      <c r="R231" s="39"/>
-      <c r="S231" s="45"/>
-      <c r="T231" s="39"/>
+      <c r="P231" s="37"/>
+      <c r="Q231" s="40"/>
+      <c r="R231" s="37"/>
+      <c r="S231" s="43"/>
+      <c r="T231" s="37"/>
     </row>
     <row r="232" spans="15:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O232" s="21">
+      <c r="O232" s="19">
         <v>26</v>
       </c>
-      <c r="P232" s="40"/>
-      <c r="Q232" s="43"/>
-      <c r="R232" s="40"/>
-      <c r="S232" s="46"/>
-      <c r="T232" s="40"/>
+      <c r="P232" s="38"/>
+      <c r="Q232" s="41"/>
+      <c r="R232" s="38"/>
+      <c r="S232" s="44"/>
+      <c r="T232" s="38"/>
     </row>
     <row r="233" spans="15:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="O233" s="22" t="e" vm="19">
+      <c r="O233" s="20" t="e" vm="19">
         <v>#VALUE!</v>
       </c>
-      <c r="P233" s="27">
+      <c r="P233" s="25">
         <v>1101</v>
       </c>
-      <c r="Q233" s="34" t="s">
+      <c r="Q233" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="R233" s="27"/>
-      <c r="S233" s="31" t="s">
+      <c r="R233" s="25"/>
+      <c r="S233" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="T233" s="27"/>
+      <c r="T233" s="25"/>
     </row>
     <row r="234" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O234" s="23"/>
-      <c r="P234" s="33"/>
-      <c r="Q234" s="35"/>
-      <c r="R234" s="33"/>
-      <c r="S234" s="37"/>
-      <c r="T234" s="33"/>
+      <c r="O234" s="21"/>
+      <c r="P234" s="31"/>
+      <c r="Q234" s="33"/>
+      <c r="R234" s="31"/>
+      <c r="S234" s="35"/>
+      <c r="T234" s="31"/>
     </row>
     <row r="235" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O235" s="23"/>
-      <c r="P235" s="33"/>
-      <c r="Q235" s="35"/>
-      <c r="R235" s="33"/>
-      <c r="S235" s="37"/>
-      <c r="T235" s="33"/>
+      <c r="O235" s="21"/>
+      <c r="P235" s="31"/>
+      <c r="Q235" s="33"/>
+      <c r="R235" s="31"/>
+      <c r="S235" s="35"/>
+      <c r="T235" s="31"/>
     </row>
     <row r="236" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O236" s="23"/>
-      <c r="P236" s="33"/>
-      <c r="Q236" s="35"/>
-      <c r="R236" s="33"/>
-      <c r="S236" s="37"/>
-      <c r="T236" s="33"/>
+      <c r="O236" s="21"/>
+      <c r="P236" s="31"/>
+      <c r="Q236" s="33"/>
+      <c r="R236" s="31"/>
+      <c r="S236" s="35"/>
+      <c r="T236" s="31"/>
     </row>
     <row r="237" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O237" s="23"/>
-      <c r="P237" s="33"/>
-      <c r="Q237" s="35"/>
-      <c r="R237" s="33"/>
-      <c r="S237" s="37"/>
-      <c r="T237" s="33"/>
+      <c r="O237" s="21"/>
+      <c r="P237" s="31"/>
+      <c r="Q237" s="33"/>
+      <c r="R237" s="31"/>
+      <c r="S237" s="35"/>
+      <c r="T237" s="31"/>
     </row>
     <row r="238" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O238" s="23"/>
-      <c r="P238" s="33"/>
-      <c r="Q238" s="35"/>
-      <c r="R238" s="33"/>
-      <c r="S238" s="37"/>
-      <c r="T238" s="33"/>
+      <c r="O238" s="21"/>
+      <c r="P238" s="31"/>
+      <c r="Q238" s="33"/>
+      <c r="R238" s="31"/>
+      <c r="S238" s="35"/>
+      <c r="T238" s="31"/>
     </row>
     <row r="239" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O239" s="23"/>
-      <c r="P239" s="33"/>
-      <c r="Q239" s="35"/>
-      <c r="R239" s="33"/>
-      <c r="S239" s="37"/>
-      <c r="T239" s="33"/>
+      <c r="O239" s="21"/>
+      <c r="P239" s="31"/>
+      <c r="Q239" s="33"/>
+      <c r="R239" s="31"/>
+      <c r="S239" s="35"/>
+      <c r="T239" s="31"/>
     </row>
     <row r="240" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O240" s="24" t="s">
+      <c r="O240" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="P240" s="33"/>
-      <c r="Q240" s="35"/>
-      <c r="R240" s="33"/>
-      <c r="S240" s="37"/>
-      <c r="T240" s="33"/>
+      <c r="P240" s="31"/>
+      <c r="Q240" s="33"/>
+      <c r="R240" s="31"/>
+      <c r="S240" s="35"/>
+      <c r="T240" s="31"/>
     </row>
     <row r="241" spans="15:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O241" s="17">
+      <c r="O241" s="15">
         <v>27</v>
       </c>
-      <c r="P241" s="28"/>
-      <c r="Q241" s="36"/>
-      <c r="R241" s="28"/>
-      <c r="S241" s="32"/>
-      <c r="T241" s="28"/>
+      <c r="P241" s="26"/>
+      <c r="Q241" s="34"/>
+      <c r="R241" s="26"/>
+      <c r="S241" s="30"/>
+      <c r="T241" s="26"/>
     </row>
     <row r="242" spans="15:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="O242" s="18" t="e" vm="26">
+      <c r="O242" s="16" t="e" vm="26">
         <v>#VALUE!</v>
       </c>
-      <c r="P242" s="38">
+      <c r="P242" s="36">
         <v>1087</v>
       </c>
-      <c r="Q242" s="41" t="s">
+      <c r="Q242" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="R242" s="38"/>
-      <c r="S242" s="44" t="s">
+      <c r="R242" s="36"/>
+      <c r="S242" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="T242" s="38"/>
+      <c r="T242" s="36"/>
     </row>
     <row r="243" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O243" s="19"/>
-      <c r="P243" s="39"/>
-      <c r="Q243" s="42"/>
-      <c r="R243" s="39"/>
-      <c r="S243" s="45"/>
-      <c r="T243" s="39"/>
+      <c r="O243" s="17"/>
+      <c r="P243" s="37"/>
+      <c r="Q243" s="40"/>
+      <c r="R243" s="37"/>
+      <c r="S243" s="43"/>
+      <c r="T243" s="37"/>
     </row>
     <row r="244" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O244" s="19"/>
-      <c r="P244" s="39"/>
-      <c r="Q244" s="42"/>
-      <c r="R244" s="39"/>
-      <c r="S244" s="45"/>
-      <c r="T244" s="39"/>
+      <c r="O244" s="17"/>
+      <c r="P244" s="37"/>
+      <c r="Q244" s="40"/>
+      <c r="R244" s="37"/>
+      <c r="S244" s="43"/>
+      <c r="T244" s="37"/>
     </row>
     <row r="245" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O245" s="19"/>
-      <c r="P245" s="39"/>
-      <c r="Q245" s="42"/>
-      <c r="R245" s="39"/>
-      <c r="S245" s="45"/>
-      <c r="T245" s="39"/>
+      <c r="O245" s="17"/>
+      <c r="P245" s="37"/>
+      <c r="Q245" s="40"/>
+      <c r="R245" s="37"/>
+      <c r="S245" s="43"/>
+      <c r="T245" s="37"/>
     </row>
     <row r="246" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O246" s="19"/>
-      <c r="P246" s="39"/>
-      <c r="Q246" s="42"/>
-      <c r="R246" s="39"/>
-      <c r="S246" s="45"/>
-      <c r="T246" s="39"/>
+      <c r="O246" s="17"/>
+      <c r="P246" s="37"/>
+      <c r="Q246" s="40"/>
+      <c r="R246" s="37"/>
+      <c r="S246" s="43"/>
+      <c r="T246" s="37"/>
     </row>
     <row r="247" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O247" s="19"/>
-      <c r="P247" s="39"/>
-      <c r="Q247" s="42"/>
-      <c r="R247" s="39"/>
-      <c r="S247" s="45"/>
-      <c r="T247" s="39"/>
+      <c r="O247" s="17"/>
+      <c r="P247" s="37"/>
+      <c r="Q247" s="40"/>
+      <c r="R247" s="37"/>
+      <c r="S247" s="43"/>
+      <c r="T247" s="37"/>
     </row>
     <row r="248" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O248" s="19"/>
-      <c r="P248" s="39"/>
-      <c r="Q248" s="42"/>
-      <c r="R248" s="39"/>
-      <c r="S248" s="45"/>
-      <c r="T248" s="39"/>
+      <c r="O248" s="17"/>
+      <c r="P248" s="37"/>
+      <c r="Q248" s="40"/>
+      <c r="R248" s="37"/>
+      <c r="S248" s="43"/>
+      <c r="T248" s="37"/>
     </row>
     <row r="249" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O249" s="20" t="s">
+      <c r="O249" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="P249" s="39"/>
-      <c r="Q249" s="42"/>
-      <c r="R249" s="39"/>
-      <c r="S249" s="45"/>
-      <c r="T249" s="39"/>
+      <c r="P249" s="37"/>
+      <c r="Q249" s="40"/>
+      <c r="R249" s="37"/>
+      <c r="S249" s="43"/>
+      <c r="T249" s="37"/>
     </row>
     <row r="250" spans="15:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O250" s="21">
+      <c r="O250" s="19">
         <v>28</v>
       </c>
-      <c r="P250" s="40"/>
-      <c r="Q250" s="43"/>
-      <c r="R250" s="40"/>
-      <c r="S250" s="46"/>
-      <c r="T250" s="40"/>
+      <c r="P250" s="38"/>
+      <c r="Q250" s="41"/>
+      <c r="R250" s="38"/>
+      <c r="S250" s="44"/>
+      <c r="T250" s="38"/>
     </row>
     <row r="251" spans="15:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="O251" s="22" t="e" vm="27">
+      <c r="O251" s="20" t="e" vm="27">
         <v>#VALUE!</v>
       </c>
-      <c r="P251" s="27">
+      <c r="P251" s="25">
         <v>936</v>
       </c>
-      <c r="Q251" s="34" t="s">
+      <c r="Q251" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="R251" s="27" t="s">
+      <c r="R251" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="S251" s="27"/>
-      <c r="T251" s="31" t="s">
+      <c r="S251" s="25"/>
+      <c r="T251" s="29" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="252" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O252" s="23"/>
-      <c r="P252" s="33"/>
-      <c r="Q252" s="35"/>
-      <c r="R252" s="33"/>
-      <c r="S252" s="33"/>
-      <c r="T252" s="37"/>
+      <c r="O252" s="21"/>
+      <c r="P252" s="31"/>
+      <c r="Q252" s="33"/>
+      <c r="R252" s="31"/>
+      <c r="S252" s="31"/>
+      <c r="T252" s="35"/>
     </row>
     <row r="253" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O253" s="23"/>
-      <c r="P253" s="33"/>
-      <c r="Q253" s="35"/>
-      <c r="R253" s="33"/>
-      <c r="S253" s="33"/>
-      <c r="T253" s="37"/>
+      <c r="O253" s="21"/>
+      <c r="P253" s="31"/>
+      <c r="Q253" s="33"/>
+      <c r="R253" s="31"/>
+      <c r="S253" s="31"/>
+      <c r="T253" s="35"/>
     </row>
     <row r="254" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O254" s="23"/>
-      <c r="P254" s="33"/>
-      <c r="Q254" s="35"/>
-      <c r="R254" s="33"/>
-      <c r="S254" s="33"/>
-      <c r="T254" s="37"/>
+      <c r="O254" s="21"/>
+      <c r="P254" s="31"/>
+      <c r="Q254" s="33"/>
+      <c r="R254" s="31"/>
+      <c r="S254" s="31"/>
+      <c r="T254" s="35"/>
     </row>
     <row r="255" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O255" s="23"/>
-      <c r="P255" s="33"/>
-      <c r="Q255" s="35"/>
-      <c r="R255" s="33"/>
-      <c r="S255" s="33"/>
-      <c r="T255" s="37"/>
+      <c r="O255" s="21"/>
+      <c r="P255" s="31"/>
+      <c r="Q255" s="33"/>
+      <c r="R255" s="31"/>
+      <c r="S255" s="31"/>
+      <c r="T255" s="35"/>
     </row>
     <row r="256" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O256" s="23"/>
-      <c r="P256" s="33"/>
-      <c r="Q256" s="35"/>
-      <c r="R256" s="33"/>
-      <c r="S256" s="33"/>
-      <c r="T256" s="37"/>
+      <c r="O256" s="21"/>
+      <c r="P256" s="31"/>
+      <c r="Q256" s="33"/>
+      <c r="R256" s="31"/>
+      <c r="S256" s="31"/>
+      <c r="T256" s="35"/>
     </row>
     <row r="257" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O257" s="23"/>
-      <c r="P257" s="33"/>
-      <c r="Q257" s="35"/>
-      <c r="R257" s="33"/>
-      <c r="S257" s="33"/>
-      <c r="T257" s="37"/>
+      <c r="O257" s="21"/>
+      <c r="P257" s="31"/>
+      <c r="Q257" s="33"/>
+      <c r="R257" s="31"/>
+      <c r="S257" s="31"/>
+      <c r="T257" s="35"/>
     </row>
     <row r="258" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O258" s="24" t="s">
+      <c r="O258" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="P258" s="33"/>
-      <c r="Q258" s="35"/>
-      <c r="R258" s="33"/>
-      <c r="S258" s="33"/>
-      <c r="T258" s="37"/>
+      <c r="P258" s="31"/>
+      <c r="Q258" s="33"/>
+      <c r="R258" s="31"/>
+      <c r="S258" s="31"/>
+      <c r="T258" s="35"/>
     </row>
     <row r="259" spans="15:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O259" s="17">
+      <c r="O259" s="15">
         <v>29</v>
       </c>
-      <c r="P259" s="28"/>
-      <c r="Q259" s="36"/>
-      <c r="R259" s="28"/>
-      <c r="S259" s="28"/>
-      <c r="T259" s="32"/>
+      <c r="P259" s="26"/>
+      <c r="Q259" s="34"/>
+      <c r="R259" s="26"/>
+      <c r="S259" s="26"/>
+      <c r="T259" s="30"/>
     </row>
     <row r="260" spans="15:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="O260" s="18" t="e" vm="28">
+      <c r="O260" s="16" t="e" vm="28">
         <v>#VALUE!</v>
       </c>
-      <c r="P260" s="38">
+      <c r="P260" s="36">
         <v>565</v>
       </c>
-      <c r="Q260" s="41" t="s">
+      <c r="Q260" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="R260" s="38"/>
-      <c r="S260" s="44" t="s">
+      <c r="R260" s="36"/>
+      <c r="S260" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="T260" s="38"/>
+      <c r="T260" s="36"/>
     </row>
     <row r="261" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O261" s="19"/>
-      <c r="P261" s="39"/>
-      <c r="Q261" s="42"/>
-      <c r="R261" s="39"/>
-      <c r="S261" s="45"/>
-      <c r="T261" s="39"/>
+      <c r="O261" s="17"/>
+      <c r="P261" s="37"/>
+      <c r="Q261" s="40"/>
+      <c r="R261" s="37"/>
+      <c r="S261" s="43"/>
+      <c r="T261" s="37"/>
     </row>
     <row r="262" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O262" s="19"/>
-      <c r="P262" s="39"/>
-      <c r="Q262" s="42"/>
-      <c r="R262" s="39"/>
-      <c r="S262" s="45"/>
-      <c r="T262" s="39"/>
+      <c r="O262" s="17"/>
+      <c r="P262" s="37"/>
+      <c r="Q262" s="40"/>
+      <c r="R262" s="37"/>
+      <c r="S262" s="43"/>
+      <c r="T262" s="37"/>
     </row>
     <row r="263" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O263" s="19"/>
-      <c r="P263" s="39"/>
-      <c r="Q263" s="42"/>
-      <c r="R263" s="39"/>
-      <c r="S263" s="45"/>
-      <c r="T263" s="39"/>
+      <c r="O263" s="17"/>
+      <c r="P263" s="37"/>
+      <c r="Q263" s="40"/>
+      <c r="R263" s="37"/>
+      <c r="S263" s="43"/>
+      <c r="T263" s="37"/>
     </row>
     <row r="264" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O264" s="19"/>
-      <c r="P264" s="39"/>
-      <c r="Q264" s="42"/>
-      <c r="R264" s="39"/>
-      <c r="S264" s="45"/>
-      <c r="T264" s="39"/>
+      <c r="O264" s="17"/>
+      <c r="P264" s="37"/>
+      <c r="Q264" s="40"/>
+      <c r="R264" s="37"/>
+      <c r="S264" s="43"/>
+      <c r="T264" s="37"/>
     </row>
     <row r="265" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O265" s="19"/>
-      <c r="P265" s="39"/>
-      <c r="Q265" s="42"/>
-      <c r="R265" s="39"/>
-      <c r="S265" s="45"/>
-      <c r="T265" s="39"/>
+      <c r="O265" s="17"/>
+      <c r="P265" s="37"/>
+      <c r="Q265" s="40"/>
+      <c r="R265" s="37"/>
+      <c r="S265" s="43"/>
+      <c r="T265" s="37"/>
     </row>
     <row r="266" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O266" s="19"/>
-      <c r="P266" s="39"/>
-      <c r="Q266" s="42"/>
-      <c r="R266" s="39"/>
-      <c r="S266" s="45"/>
-      <c r="T266" s="39"/>
+      <c r="O266" s="17"/>
+      <c r="P266" s="37"/>
+      <c r="Q266" s="40"/>
+      <c r="R266" s="37"/>
+      <c r="S266" s="43"/>
+      <c r="T266" s="37"/>
     </row>
     <row r="267" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O267" s="20" t="s">
+      <c r="O267" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="P267" s="39"/>
-      <c r="Q267" s="42"/>
-      <c r="R267" s="39"/>
-      <c r="S267" s="45"/>
-      <c r="T267" s="39"/>
+      <c r="P267" s="37"/>
+      <c r="Q267" s="40"/>
+      <c r="R267" s="37"/>
+      <c r="S267" s="43"/>
+      <c r="T267" s="37"/>
     </row>
     <row r="268" spans="15:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O268" s="21">
+      <c r="O268" s="19">
         <v>30</v>
       </c>
-      <c r="P268" s="40"/>
-      <c r="Q268" s="43"/>
-      <c r="R268" s="40"/>
-      <c r="S268" s="46"/>
-      <c r="T268" s="40"/>
+      <c r="P268" s="38"/>
+      <c r="Q268" s="41"/>
+      <c r="R268" s="38"/>
+      <c r="S268" s="44"/>
+      <c r="T268" s="38"/>
     </row>
     <row r="269" spans="15:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="O269" s="22" t="e" vm="29">
+      <c r="O269" s="20" t="e" vm="29">
         <v>#VALUE!</v>
       </c>
-      <c r="P269" s="27">
+      <c r="P269" s="25">
         <v>296</v>
       </c>
-      <c r="Q269" s="34" t="s">
+      <c r="Q269" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="R269" s="27"/>
-      <c r="S269" s="31" t="s">
+      <c r="R269" s="25"/>
+      <c r="S269" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="T269" s="27"/>
+      <c r="T269" s="25"/>
     </row>
     <row r="270" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O270" s="23"/>
-      <c r="P270" s="33"/>
-      <c r="Q270" s="35"/>
-      <c r="R270" s="33"/>
-      <c r="S270" s="37"/>
-      <c r="T270" s="33"/>
+      <c r="O270" s="21"/>
+      <c r="P270" s="31"/>
+      <c r="Q270" s="33"/>
+      <c r="R270" s="31"/>
+      <c r="S270" s="35"/>
+      <c r="T270" s="31"/>
     </row>
     <row r="271" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O271" s="23"/>
-      <c r="P271" s="33"/>
-      <c r="Q271" s="35"/>
-      <c r="R271" s="33"/>
-      <c r="S271" s="37"/>
-      <c r="T271" s="33"/>
+      <c r="O271" s="21"/>
+      <c r="P271" s="31"/>
+      <c r="Q271" s="33"/>
+      <c r="R271" s="31"/>
+      <c r="S271" s="35"/>
+      <c r="T271" s="31"/>
     </row>
     <row r="272" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O272" s="23"/>
-      <c r="P272" s="33"/>
-      <c r="Q272" s="35"/>
-      <c r="R272" s="33"/>
-      <c r="S272" s="37"/>
-      <c r="T272" s="33"/>
+      <c r="O272" s="21"/>
+      <c r="P272" s="31"/>
+      <c r="Q272" s="33"/>
+      <c r="R272" s="31"/>
+      <c r="S272" s="35"/>
+      <c r="T272" s="31"/>
     </row>
     <row r="273" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O273" s="23"/>
-      <c r="P273" s="33"/>
-      <c r="Q273" s="35"/>
-      <c r="R273" s="33"/>
-      <c r="S273" s="37"/>
-      <c r="T273" s="33"/>
+      <c r="O273" s="21"/>
+      <c r="P273" s="31"/>
+      <c r="Q273" s="33"/>
+      <c r="R273" s="31"/>
+      <c r="S273" s="35"/>
+      <c r="T273" s="31"/>
     </row>
     <row r="274" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O274" s="23"/>
-      <c r="P274" s="33"/>
-      <c r="Q274" s="35"/>
-      <c r="R274" s="33"/>
-      <c r="S274" s="37"/>
-      <c r="T274" s="33"/>
+      <c r="O274" s="21"/>
+      <c r="P274" s="31"/>
+      <c r="Q274" s="33"/>
+      <c r="R274" s="31"/>
+      <c r="S274" s="35"/>
+      <c r="T274" s="31"/>
     </row>
     <row r="275" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O275" s="23"/>
-      <c r="P275" s="33"/>
-      <c r="Q275" s="35"/>
-      <c r="R275" s="33"/>
-      <c r="S275" s="37"/>
-      <c r="T275" s="33"/>
+      <c r="O275" s="21"/>
+      <c r="P275" s="31"/>
+      <c r="Q275" s="33"/>
+      <c r="R275" s="31"/>
+      <c r="S275" s="35"/>
+      <c r="T275" s="31"/>
     </row>
     <row r="276" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O276" s="24" t="s">
+      <c r="O276" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="P276" s="33"/>
-      <c r="Q276" s="35"/>
-      <c r="R276" s="33"/>
-      <c r="S276" s="37"/>
-      <c r="T276" s="33"/>
+      <c r="P276" s="31"/>
+      <c r="Q276" s="33"/>
+      <c r="R276" s="31"/>
+      <c r="S276" s="35"/>
+      <c r="T276" s="31"/>
     </row>
     <row r="277" spans="15:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O277" s="17">
+      <c r="O277" s="15">
         <v>31</v>
       </c>
-      <c r="P277" s="28"/>
-      <c r="Q277" s="36"/>
-      <c r="R277" s="28"/>
-      <c r="S277" s="32"/>
-      <c r="T277" s="28"/>
+      <c r="P277" s="26"/>
+      <c r="Q277" s="34"/>
+      <c r="R277" s="26"/>
+      <c r="S277" s="30"/>
+      <c r="T277" s="26"/>
     </row>
     <row r="278" spans="15:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="O278" s="18" t="e" vm="30">
+      <c r="O278" s="16" t="e" vm="30">
         <v>#VALUE!</v>
       </c>
-      <c r="P278" s="38">
+      <c r="P278" s="36">
         <v>179</v>
       </c>
-      <c r="Q278" s="41" t="s">
+      <c r="Q278" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="R278" s="38"/>
-      <c r="S278" s="44" t="s">
+      <c r="R278" s="36"/>
+      <c r="S278" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="T278" s="38"/>
+      <c r="T278" s="36"/>
     </row>
     <row r="279" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O279" s="19"/>
-      <c r="P279" s="39"/>
-      <c r="Q279" s="42"/>
-      <c r="R279" s="39"/>
-      <c r="S279" s="45"/>
-      <c r="T279" s="39"/>
+      <c r="O279" s="17"/>
+      <c r="P279" s="37"/>
+      <c r="Q279" s="40"/>
+      <c r="R279" s="37"/>
+      <c r="S279" s="43"/>
+      <c r="T279" s="37"/>
     </row>
     <row r="280" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O280" s="19"/>
-      <c r="P280" s="39"/>
-      <c r="Q280" s="42"/>
-      <c r="R280" s="39"/>
-      <c r="S280" s="45"/>
-      <c r="T280" s="39"/>
+      <c r="O280" s="17"/>
+      <c r="P280" s="37"/>
+      <c r="Q280" s="40"/>
+      <c r="R280" s="37"/>
+      <c r="S280" s="43"/>
+      <c r="T280" s="37"/>
     </row>
     <row r="281" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O281" s="19"/>
-      <c r="P281" s="39"/>
-      <c r="Q281" s="42"/>
-      <c r="R281" s="39"/>
-      <c r="S281" s="45"/>
-      <c r="T281" s="39"/>
+      <c r="O281" s="17"/>
+      <c r="P281" s="37"/>
+      <c r="Q281" s="40"/>
+      <c r="R281" s="37"/>
+      <c r="S281" s="43"/>
+      <c r="T281" s="37"/>
     </row>
     <row r="282" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O282" s="19"/>
-      <c r="P282" s="39"/>
-      <c r="Q282" s="42"/>
-      <c r="R282" s="39"/>
-      <c r="S282" s="45"/>
-      <c r="T282" s="39"/>
+      <c r="O282" s="17"/>
+      <c r="P282" s="37"/>
+      <c r="Q282" s="40"/>
+      <c r="R282" s="37"/>
+      <c r="S282" s="43"/>
+      <c r="T282" s="37"/>
     </row>
     <row r="283" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O283" s="19"/>
-      <c r="P283" s="39"/>
-      <c r="Q283" s="42"/>
-      <c r="R283" s="39"/>
-      <c r="S283" s="45"/>
-      <c r="T283" s="39"/>
+      <c r="O283" s="17"/>
+      <c r="P283" s="37"/>
+      <c r="Q283" s="40"/>
+      <c r="R283" s="37"/>
+      <c r="S283" s="43"/>
+      <c r="T283" s="37"/>
     </row>
     <row r="284" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O284" s="19"/>
-      <c r="P284" s="39"/>
-      <c r="Q284" s="42"/>
-      <c r="R284" s="39"/>
-      <c r="S284" s="45"/>
-      <c r="T284" s="39"/>
+      <c r="O284" s="17"/>
+      <c r="P284" s="37"/>
+      <c r="Q284" s="40"/>
+      <c r="R284" s="37"/>
+      <c r="S284" s="43"/>
+      <c r="T284" s="37"/>
     </row>
     <row r="285" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O285" s="20" t="s">
+      <c r="O285" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="P285" s="39"/>
-      <c r="Q285" s="42"/>
-      <c r="R285" s="39"/>
-      <c r="S285" s="45"/>
-      <c r="T285" s="39"/>
+      <c r="P285" s="37"/>
+      <c r="Q285" s="40"/>
+      <c r="R285" s="37"/>
+      <c r="S285" s="43"/>
+      <c r="T285" s="37"/>
     </row>
     <row r="286" spans="15:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O286" s="21">
+      <c r="O286" s="19">
         <v>32</v>
       </c>
-      <c r="P286" s="40"/>
-      <c r="Q286" s="43"/>
-      <c r="R286" s="40"/>
-      <c r="S286" s="46"/>
-      <c r="T286" s="40"/>
+      <c r="P286" s="38"/>
+      <c r="Q286" s="41"/>
+      <c r="R286" s="38"/>
+      <c r="S286" s="44"/>
+      <c r="T286" s="38"/>
     </row>
     <row r="287" spans="15:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="O287" s="22" t="e" vm="19">
+      <c r="O287" s="20" t="e" vm="19">
         <v>#VALUE!</v>
       </c>
-      <c r="P287" s="27">
+      <c r="P287" s="25">
         <v>165</v>
       </c>
-      <c r="Q287" s="34" t="s">
+      <c r="Q287" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="R287" s="27"/>
-      <c r="S287" s="31" t="s">
+      <c r="R287" s="25"/>
+      <c r="S287" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="T287" s="27"/>
+      <c r="T287" s="25"/>
     </row>
     <row r="288" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O288" s="23"/>
-      <c r="P288" s="33"/>
-      <c r="Q288" s="35"/>
-      <c r="R288" s="33"/>
-      <c r="S288" s="37"/>
-      <c r="T288" s="33"/>
+      <c r="O288" s="21"/>
+      <c r="P288" s="31"/>
+      <c r="Q288" s="33"/>
+      <c r="R288" s="31"/>
+      <c r="S288" s="35"/>
+      <c r="T288" s="31"/>
     </row>
     <row r="289" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O289" s="23"/>
-      <c r="P289" s="33"/>
-      <c r="Q289" s="35"/>
-      <c r="R289" s="33"/>
-      <c r="S289" s="37"/>
-      <c r="T289" s="33"/>
+      <c r="O289" s="21"/>
+      <c r="P289" s="31"/>
+      <c r="Q289" s="33"/>
+      <c r="R289" s="31"/>
+      <c r="S289" s="35"/>
+      <c r="T289" s="31"/>
     </row>
     <row r="290" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O290" s="23"/>
-      <c r="P290" s="33"/>
-      <c r="Q290" s="35"/>
-      <c r="R290" s="33"/>
-      <c r="S290" s="37"/>
-      <c r="T290" s="33"/>
+      <c r="O290" s="21"/>
+      <c r="P290" s="31"/>
+      <c r="Q290" s="33"/>
+      <c r="R290" s="31"/>
+      <c r="S290" s="35"/>
+      <c r="T290" s="31"/>
     </row>
     <row r="291" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O291" s="23"/>
-      <c r="P291" s="33"/>
-      <c r="Q291" s="35"/>
-      <c r="R291" s="33"/>
-      <c r="S291" s="37"/>
-      <c r="T291" s="33"/>
+      <c r="O291" s="21"/>
+      <c r="P291" s="31"/>
+      <c r="Q291" s="33"/>
+      <c r="R291" s="31"/>
+      <c r="S291" s="35"/>
+      <c r="T291" s="31"/>
     </row>
     <row r="292" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O292" s="23"/>
-      <c r="P292" s="33"/>
-      <c r="Q292" s="35"/>
-      <c r="R292" s="33"/>
-      <c r="S292" s="37"/>
-      <c r="T292" s="33"/>
+      <c r="O292" s="21"/>
+      <c r="P292" s="31"/>
+      <c r="Q292" s="33"/>
+      <c r="R292" s="31"/>
+      <c r="S292" s="35"/>
+      <c r="T292" s="31"/>
     </row>
     <row r="293" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O293" s="23"/>
-      <c r="P293" s="33"/>
-      <c r="Q293" s="35"/>
-      <c r="R293" s="33"/>
-      <c r="S293" s="37"/>
-      <c r="T293" s="33"/>
+      <c r="O293" s="21"/>
+      <c r="P293" s="31"/>
+      <c r="Q293" s="33"/>
+      <c r="R293" s="31"/>
+      <c r="S293" s="35"/>
+      <c r="T293" s="31"/>
     </row>
     <row r="294" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O294" s="24" t="s">
+      <c r="O294" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="P294" s="33"/>
-      <c r="Q294" s="35"/>
-      <c r="R294" s="33"/>
-      <c r="S294" s="37"/>
-      <c r="T294" s="33"/>
+      <c r="P294" s="31"/>
+      <c r="Q294" s="33"/>
+      <c r="R294" s="31"/>
+      <c r="S294" s="35"/>
+      <c r="T294" s="31"/>
     </row>
     <row r="295" spans="15:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O295" s="17">
+      <c r="O295" s="15">
         <v>33</v>
       </c>
-      <c r="P295" s="28"/>
-      <c r="Q295" s="36"/>
-      <c r="R295" s="28"/>
-      <c r="S295" s="32"/>
-      <c r="T295" s="28"/>
+      <c r="P295" s="26"/>
+      <c r="Q295" s="34"/>
+      <c r="R295" s="26"/>
+      <c r="S295" s="30"/>
+      <c r="T295" s="26"/>
     </row>
     <row r="296" spans="15:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="O296" s="18" t="e" vm="19">
+      <c r="O296" s="16" t="e" vm="19">
         <v>#VALUE!</v>
       </c>
-      <c r="P296" s="38">
+      <c r="P296" s="36">
         <v>46</v>
       </c>
-      <c r="Q296" s="41" t="s">
+      <c r="Q296" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="R296" s="38"/>
-      <c r="S296" s="44" t="s">
+      <c r="R296" s="36"/>
+      <c r="S296" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="T296" s="38"/>
+      <c r="T296" s="36"/>
     </row>
     <row r="297" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O297" s="19"/>
-      <c r="P297" s="39"/>
-      <c r="Q297" s="42"/>
-      <c r="R297" s="39"/>
-      <c r="S297" s="45"/>
-      <c r="T297" s="39"/>
+      <c r="O297" s="17"/>
+      <c r="P297" s="37"/>
+      <c r="Q297" s="40"/>
+      <c r="R297" s="37"/>
+      <c r="S297" s="43"/>
+      <c r="T297" s="37"/>
     </row>
     <row r="298" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O298" s="19"/>
-      <c r="P298" s="39"/>
-      <c r="Q298" s="42"/>
-      <c r="R298" s="39"/>
-      <c r="S298" s="45"/>
-      <c r="T298" s="39"/>
+      <c r="O298" s="17"/>
+      <c r="P298" s="37"/>
+      <c r="Q298" s="40"/>
+      <c r="R298" s="37"/>
+      <c r="S298" s="43"/>
+      <c r="T298" s="37"/>
     </row>
     <row r="299" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O299" s="19"/>
-      <c r="P299" s="39"/>
-      <c r="Q299" s="42"/>
-      <c r="R299" s="39"/>
-      <c r="S299" s="45"/>
-      <c r="T299" s="39"/>
+      <c r="O299" s="17"/>
+      <c r="P299" s="37"/>
+      <c r="Q299" s="40"/>
+      <c r="R299" s="37"/>
+      <c r="S299" s="43"/>
+      <c r="T299" s="37"/>
     </row>
     <row r="300" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O300" s="19"/>
-      <c r="P300" s="39"/>
-      <c r="Q300" s="42"/>
-      <c r="R300" s="39"/>
-      <c r="S300" s="45"/>
-      <c r="T300" s="39"/>
+      <c r="O300" s="17"/>
+      <c r="P300" s="37"/>
+      <c r="Q300" s="40"/>
+      <c r="R300" s="37"/>
+      <c r="S300" s="43"/>
+      <c r="T300" s="37"/>
     </row>
     <row r="301" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O301" s="19"/>
-      <c r="P301" s="39"/>
-      <c r="Q301" s="42"/>
-      <c r="R301" s="39"/>
-      <c r="S301" s="45"/>
-      <c r="T301" s="39"/>
+      <c r="O301" s="17"/>
+      <c r="P301" s="37"/>
+      <c r="Q301" s="40"/>
+      <c r="R301" s="37"/>
+      <c r="S301" s="43"/>
+      <c r="T301" s="37"/>
     </row>
     <row r="302" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O302" s="19"/>
-      <c r="P302" s="39"/>
-      <c r="Q302" s="42"/>
-      <c r="R302" s="39"/>
-      <c r="S302" s="45"/>
-      <c r="T302" s="39"/>
+      <c r="O302" s="17"/>
+      <c r="P302" s="37"/>
+      <c r="Q302" s="40"/>
+      <c r="R302" s="37"/>
+      <c r="S302" s="43"/>
+      <c r="T302" s="37"/>
     </row>
     <row r="303" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O303" s="20" t="s">
+      <c r="O303" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="P303" s="39"/>
-      <c r="Q303" s="42"/>
-      <c r="R303" s="39"/>
-      <c r="S303" s="45"/>
-      <c r="T303" s="39"/>
+      <c r="P303" s="37"/>
+      <c r="Q303" s="40"/>
+      <c r="R303" s="37"/>
+      <c r="S303" s="43"/>
+      <c r="T303" s="37"/>
     </row>
     <row r="304" spans="15:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O304" s="21">
+      <c r="O304" s="19">
         <v>34</v>
       </c>
-      <c r="P304" s="40"/>
-      <c r="Q304" s="43"/>
-      <c r="R304" s="40"/>
-      <c r="S304" s="46"/>
-      <c r="T304" s="40"/>
+      <c r="P304" s="38"/>
+      <c r="Q304" s="41"/>
+      <c r="R304" s="38"/>
+      <c r="S304" s="44"/>
+      <c r="T304" s="38"/>
     </row>
     <row r="305" spans="15:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="O305" s="22" t="e" vm="31">
+      <c r="O305" s="20" t="e" vm="31">
         <v>#VALUE!</v>
       </c>
-      <c r="P305" s="27">
+      <c r="P305" s="25">
         <v>39</v>
       </c>
-      <c r="Q305" s="34" t="s">
+      <c r="Q305" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="R305" s="27"/>
-      <c r="S305" s="31" t="s">
+      <c r="R305" s="25"/>
+      <c r="S305" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="T305" s="27"/>
+      <c r="T305" s="25"/>
     </row>
     <row r="306" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O306" s="23"/>
-      <c r="P306" s="33"/>
-      <c r="Q306" s="35"/>
-      <c r="R306" s="33"/>
-      <c r="S306" s="37"/>
-      <c r="T306" s="33"/>
+      <c r="O306" s="21"/>
+      <c r="P306" s="31"/>
+      <c r="Q306" s="33"/>
+      <c r="R306" s="31"/>
+      <c r="S306" s="35"/>
+      <c r="T306" s="31"/>
     </row>
     <row r="307" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O307" s="23"/>
-      <c r="P307" s="33"/>
-      <c r="Q307" s="35"/>
-      <c r="R307" s="33"/>
-      <c r="S307" s="37"/>
-      <c r="T307" s="33"/>
+      <c r="O307" s="21"/>
+      <c r="P307" s="31"/>
+      <c r="Q307" s="33"/>
+      <c r="R307" s="31"/>
+      <c r="S307" s="35"/>
+      <c r="T307" s="31"/>
     </row>
     <row r="308" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O308" s="23"/>
-      <c r="P308" s="33"/>
-      <c r="Q308" s="35"/>
-      <c r="R308" s="33"/>
-      <c r="S308" s="37"/>
-      <c r="T308" s="33"/>
+      <c r="O308" s="21"/>
+      <c r="P308" s="31"/>
+      <c r="Q308" s="33"/>
+      <c r="R308" s="31"/>
+      <c r="S308" s="35"/>
+      <c r="T308" s="31"/>
     </row>
     <row r="309" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O309" s="23"/>
-      <c r="P309" s="33"/>
-      <c r="Q309" s="35"/>
-      <c r="R309" s="33"/>
-      <c r="S309" s="37"/>
-      <c r="T309" s="33"/>
+      <c r="O309" s="21"/>
+      <c r="P309" s="31"/>
+      <c r="Q309" s="33"/>
+      <c r="R309" s="31"/>
+      <c r="S309" s="35"/>
+      <c r="T309" s="31"/>
     </row>
     <row r="310" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O310" s="23"/>
-      <c r="P310" s="33"/>
-      <c r="Q310" s="35"/>
-      <c r="R310" s="33"/>
-      <c r="S310" s="37"/>
-      <c r="T310" s="33"/>
+      <c r="O310" s="21"/>
+      <c r="P310" s="31"/>
+      <c r="Q310" s="33"/>
+      <c r="R310" s="31"/>
+      <c r="S310" s="35"/>
+      <c r="T310" s="31"/>
     </row>
     <row r="311" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O311" s="23"/>
-      <c r="P311" s="33"/>
-      <c r="Q311" s="35"/>
-      <c r="R311" s="33"/>
-      <c r="S311" s="37"/>
-      <c r="T311" s="33"/>
+      <c r="O311" s="21"/>
+      <c r="P311" s="31"/>
+      <c r="Q311" s="33"/>
+      <c r="R311" s="31"/>
+      <c r="S311" s="35"/>
+      <c r="T311" s="31"/>
     </row>
     <row r="312" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O312" s="24" t="s">
+      <c r="O312" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="P312" s="33"/>
-      <c r="Q312" s="35"/>
-      <c r="R312" s="33"/>
-      <c r="S312" s="37"/>
-      <c r="T312" s="33"/>
+      <c r="P312" s="31"/>
+      <c r="Q312" s="33"/>
+      <c r="R312" s="31"/>
+      <c r="S312" s="35"/>
+      <c r="T312" s="31"/>
     </row>
     <row r="313" spans="15:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O313" s="17">
+      <c r="O313" s="15">
         <v>35</v>
       </c>
-      <c r="P313" s="28"/>
-      <c r="Q313" s="36"/>
-      <c r="R313" s="28"/>
-      <c r="S313" s="32"/>
-      <c r="T313" s="28"/>
+      <c r="P313" s="26"/>
+      <c r="Q313" s="34"/>
+      <c r="R313" s="26"/>
+      <c r="S313" s="30"/>
+      <c r="T313" s="26"/>
     </row>
     <row r="314" spans="15:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="O314" s="18" t="e" vm="32">
+      <c r="O314" s="16" t="e" vm="32">
         <v>#VALUE!</v>
       </c>
-      <c r="P314" s="38">
+      <c r="P314" s="36">
         <v>33</v>
       </c>
-      <c r="Q314" s="41" t="s">
+      <c r="Q314" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="R314" s="38"/>
-      <c r="S314" s="44" t="s">
+      <c r="R314" s="36"/>
+      <c r="S314" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="T314" s="44" t="s">
+      <c r="T314" s="42" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="315" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O315" s="19"/>
-      <c r="P315" s="39"/>
-      <c r="Q315" s="42"/>
-      <c r="R315" s="39"/>
-      <c r="S315" s="45"/>
-      <c r="T315" s="45"/>
+      <c r="O315" s="17"/>
+      <c r="P315" s="37"/>
+      <c r="Q315" s="40"/>
+      <c r="R315" s="37"/>
+      <c r="S315" s="43"/>
+      <c r="T315" s="43"/>
     </row>
     <row r="316" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O316" s="19"/>
-      <c r="P316" s="39"/>
-      <c r="Q316" s="42"/>
-      <c r="R316" s="39"/>
-      <c r="S316" s="45"/>
-      <c r="T316" s="45"/>
+      <c r="O316" s="17"/>
+      <c r="P316" s="37"/>
+      <c r="Q316" s="40"/>
+      <c r="R316" s="37"/>
+      <c r="S316" s="43"/>
+      <c r="T316" s="43"/>
     </row>
     <row r="317" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O317" s="19"/>
-      <c r="P317" s="39"/>
-      <c r="Q317" s="42"/>
-      <c r="R317" s="39"/>
-      <c r="S317" s="45"/>
-      <c r="T317" s="45"/>
+      <c r="O317" s="17"/>
+      <c r="P317" s="37"/>
+      <c r="Q317" s="40"/>
+      <c r="R317" s="37"/>
+      <c r="S317" s="43"/>
+      <c r="T317" s="43"/>
     </row>
     <row r="318" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O318" s="19"/>
-      <c r="P318" s="39"/>
-      <c r="Q318" s="42"/>
-      <c r="R318" s="39"/>
-      <c r="S318" s="45"/>
-      <c r="T318" s="45"/>
+      <c r="O318" s="17"/>
+      <c r="P318" s="37"/>
+      <c r="Q318" s="40"/>
+      <c r="R318" s="37"/>
+      <c r="S318" s="43"/>
+      <c r="T318" s="43"/>
     </row>
     <row r="319" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O319" s="19"/>
-      <c r="P319" s="39"/>
-      <c r="Q319" s="42"/>
-      <c r="R319" s="39"/>
-      <c r="S319" s="45"/>
-      <c r="T319" s="45"/>
+      <c r="O319" s="17"/>
+      <c r="P319" s="37"/>
+      <c r="Q319" s="40"/>
+      <c r="R319" s="37"/>
+      <c r="S319" s="43"/>
+      <c r="T319" s="43"/>
     </row>
     <row r="320" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O320" s="19"/>
-      <c r="P320" s="39"/>
-      <c r="Q320" s="42"/>
-      <c r="R320" s="39"/>
-      <c r="S320" s="45"/>
-      <c r="T320" s="45"/>
+      <c r="O320" s="17"/>
+      <c r="P320" s="37"/>
+      <c r="Q320" s="40"/>
+      <c r="R320" s="37"/>
+      <c r="S320" s="43"/>
+      <c r="T320" s="43"/>
     </row>
     <row r="321" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O321" s="20" t="s">
+      <c r="O321" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="P321" s="39"/>
-      <c r="Q321" s="42"/>
-      <c r="R321" s="39"/>
-      <c r="S321" s="45"/>
-      <c r="T321" s="45"/>
+      <c r="P321" s="37"/>
+      <c r="Q321" s="40"/>
+      <c r="R321" s="37"/>
+      <c r="S321" s="43"/>
+      <c r="T321" s="43"/>
     </row>
     <row r="322" spans="15:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O322" s="21">
+      <c r="O322" s="19">
         <v>36</v>
       </c>
-      <c r="P322" s="40"/>
-      <c r="Q322" s="43"/>
-      <c r="R322" s="40"/>
-      <c r="S322" s="46"/>
-      <c r="T322" s="46"/>
+      <c r="P322" s="38"/>
+      <c r="Q322" s="41"/>
+      <c r="R322" s="38"/>
+      <c r="S322" s="44"/>
+      <c r="T322" s="44"/>
     </row>
     <row r="323" spans="15:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="O323" s="22" t="e" vm="19">
+      <c r="O323" s="20" t="e" vm="19">
         <v>#VALUE!</v>
       </c>
-      <c r="P323" s="27">
+      <c r="P323" s="25">
         <v>27</v>
       </c>
-      <c r="Q323" s="34" t="s">
+      <c r="Q323" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="R323" s="27"/>
-      <c r="S323" s="31" t="s">
+      <c r="R323" s="25"/>
+      <c r="S323" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="T323" s="27"/>
+      <c r="T323" s="25"/>
     </row>
     <row r="324" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O324" s="23"/>
-      <c r="P324" s="33"/>
-      <c r="Q324" s="35"/>
-      <c r="R324" s="33"/>
-      <c r="S324" s="37"/>
-      <c r="T324" s="33"/>
+      <c r="O324" s="21"/>
+      <c r="P324" s="31"/>
+      <c r="Q324" s="33"/>
+      <c r="R324" s="31"/>
+      <c r="S324" s="35"/>
+      <c r="T324" s="31"/>
     </row>
     <row r="325" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O325" s="23"/>
-      <c r="P325" s="33"/>
-      <c r="Q325" s="35"/>
-      <c r="R325" s="33"/>
-      <c r="S325" s="37"/>
-      <c r="T325" s="33"/>
+      <c r="O325" s="21"/>
+      <c r="P325" s="31"/>
+      <c r="Q325" s="33"/>
+      <c r="R325" s="31"/>
+      <c r="S325" s="35"/>
+      <c r="T325" s="31"/>
     </row>
     <row r="326" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O326" s="23"/>
-      <c r="P326" s="33"/>
-      <c r="Q326" s="35"/>
-      <c r="R326" s="33"/>
-      <c r="S326" s="37"/>
-      <c r="T326" s="33"/>
+      <c r="O326" s="21"/>
+      <c r="P326" s="31"/>
+      <c r="Q326" s="33"/>
+      <c r="R326" s="31"/>
+      <c r="S326" s="35"/>
+      <c r="T326" s="31"/>
     </row>
     <row r="327" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O327" s="23"/>
-      <c r="P327" s="33"/>
-      <c r="Q327" s="35"/>
-      <c r="R327" s="33"/>
-      <c r="S327" s="37"/>
-      <c r="T327" s="33"/>
+      <c r="O327" s="21"/>
+      <c r="P327" s="31"/>
+      <c r="Q327" s="33"/>
+      <c r="R327" s="31"/>
+      <c r="S327" s="35"/>
+      <c r="T327" s="31"/>
     </row>
     <row r="328" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O328" s="23"/>
-      <c r="P328" s="33"/>
-      <c r="Q328" s="35"/>
-      <c r="R328" s="33"/>
-      <c r="S328" s="37"/>
-      <c r="T328" s="33"/>
+      <c r="O328" s="21"/>
+      <c r="P328" s="31"/>
+      <c r="Q328" s="33"/>
+      <c r="R328" s="31"/>
+      <c r="S328" s="35"/>
+      <c r="T328" s="31"/>
     </row>
     <row r="329" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O329" s="23"/>
-      <c r="P329" s="33"/>
-      <c r="Q329" s="35"/>
-      <c r="R329" s="33"/>
-      <c r="S329" s="37"/>
-      <c r="T329" s="33"/>
+      <c r="O329" s="21"/>
+      <c r="P329" s="31"/>
+      <c r="Q329" s="33"/>
+      <c r="R329" s="31"/>
+      <c r="S329" s="35"/>
+      <c r="T329" s="31"/>
     </row>
     <row r="330" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O330" s="24" t="s">
+      <c r="O330" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="P330" s="33"/>
-      <c r="Q330" s="35"/>
-      <c r="R330" s="33"/>
-      <c r="S330" s="37"/>
-      <c r="T330" s="33"/>
+      <c r="P330" s="31"/>
+      <c r="Q330" s="33"/>
+      <c r="R330" s="31"/>
+      <c r="S330" s="35"/>
+      <c r="T330" s="31"/>
     </row>
     <row r="331" spans="15:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O331" s="17">
+      <c r="O331" s="15">
         <v>37</v>
       </c>
-      <c r="P331" s="28"/>
-      <c r="Q331" s="36"/>
-      <c r="R331" s="28"/>
-      <c r="S331" s="32"/>
-      <c r="T331" s="28"/>
+      <c r="P331" s="26"/>
+      <c r="Q331" s="34"/>
+      <c r="R331" s="26"/>
+      <c r="S331" s="30"/>
+      <c r="T331" s="26"/>
     </row>
     <row r="332" spans="15:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="O332" s="18" t="e" vm="33">
+      <c r="O332" s="16" t="e" vm="33">
         <v>#VALUE!</v>
       </c>
-      <c r="P332" s="38">
+      <c r="P332" s="36">
         <v>25</v>
       </c>
-      <c r="Q332" s="41" t="s">
+      <c r="Q332" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="R332" s="38"/>
-      <c r="S332" s="44" t="s">
+      <c r="R332" s="36"/>
+      <c r="S332" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="T332" s="38"/>
+      <c r="T332" s="36"/>
     </row>
     <row r="333" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O333" s="19"/>
-      <c r="P333" s="39"/>
-      <c r="Q333" s="42"/>
-      <c r="R333" s="39"/>
-      <c r="S333" s="45"/>
-      <c r="T333" s="39"/>
+      <c r="O333" s="17"/>
+      <c r="P333" s="37"/>
+      <c r="Q333" s="40"/>
+      <c r="R333" s="37"/>
+      <c r="S333" s="43"/>
+      <c r="T333" s="37"/>
     </row>
     <row r="334" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O334" s="19"/>
-      <c r="P334" s="39"/>
-      <c r="Q334" s="42"/>
-      <c r="R334" s="39"/>
-      <c r="S334" s="45"/>
-      <c r="T334" s="39"/>
+      <c r="O334" s="17"/>
+      <c r="P334" s="37"/>
+      <c r="Q334" s="40"/>
+      <c r="R334" s="37"/>
+      <c r="S334" s="43"/>
+      <c r="T334" s="37"/>
     </row>
     <row r="335" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O335" s="19"/>
-      <c r="P335" s="39"/>
-      <c r="Q335" s="42"/>
-      <c r="R335" s="39"/>
-      <c r="S335" s="45"/>
-      <c r="T335" s="39"/>
+      <c r="O335" s="17"/>
+      <c r="P335" s="37"/>
+      <c r="Q335" s="40"/>
+      <c r="R335" s="37"/>
+      <c r="S335" s="43"/>
+      <c r="T335" s="37"/>
     </row>
     <row r="336" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O336" s="19"/>
-      <c r="P336" s="39"/>
-      <c r="Q336" s="42"/>
-      <c r="R336" s="39"/>
-      <c r="S336" s="45"/>
-      <c r="T336" s="39"/>
+      <c r="O336" s="17"/>
+      <c r="P336" s="37"/>
+      <c r="Q336" s="40"/>
+      <c r="R336" s="37"/>
+      <c r="S336" s="43"/>
+      <c r="T336" s="37"/>
     </row>
     <row r="337" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O337" s="19"/>
-      <c r="P337" s="39"/>
-      <c r="Q337" s="42"/>
-      <c r="R337" s="39"/>
-      <c r="S337" s="45"/>
-      <c r="T337" s="39"/>
+      <c r="O337" s="17"/>
+      <c r="P337" s="37"/>
+      <c r="Q337" s="40"/>
+      <c r="R337" s="37"/>
+      <c r="S337" s="43"/>
+      <c r="T337" s="37"/>
     </row>
     <row r="338" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O338" s="19"/>
-      <c r="P338" s="39"/>
-      <c r="Q338" s="42"/>
-      <c r="R338" s="39"/>
-      <c r="S338" s="45"/>
-      <c r="T338" s="39"/>
+      <c r="O338" s="17"/>
+      <c r="P338" s="37"/>
+      <c r="Q338" s="40"/>
+      <c r="R338" s="37"/>
+      <c r="S338" s="43"/>
+      <c r="T338" s="37"/>
     </row>
     <row r="339" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O339" s="20" t="s">
+      <c r="O339" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="P339" s="39"/>
-      <c r="Q339" s="42"/>
-      <c r="R339" s="39"/>
-      <c r="S339" s="45"/>
-      <c r="T339" s="39"/>
+      <c r="P339" s="37"/>
+      <c r="Q339" s="40"/>
+      <c r="R339" s="37"/>
+      <c r="S339" s="43"/>
+      <c r="T339" s="37"/>
     </row>
     <row r="340" spans="15:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O340" s="21">
+      <c r="O340" s="19">
         <v>38</v>
       </c>
-      <c r="P340" s="40"/>
-      <c r="Q340" s="43"/>
-      <c r="R340" s="40"/>
-      <c r="S340" s="46"/>
-      <c r="T340" s="40"/>
+      <c r="P340" s="38"/>
+      <c r="Q340" s="41"/>
+      <c r="R340" s="38"/>
+      <c r="S340" s="44"/>
+      <c r="T340" s="38"/>
     </row>
     <row r="341" spans="15:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="O341" s="22" t="e" vm="19">
+      <c r="O341" s="20" t="e" vm="19">
         <v>#VALUE!</v>
       </c>
-      <c r="P341" s="27">
+      <c r="P341" s="25">
         <v>22</v>
       </c>
-      <c r="Q341" s="34" t="s">
+      <c r="Q341" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="R341" s="27"/>
-      <c r="S341" s="31" t="s">
+      <c r="R341" s="25"/>
+      <c r="S341" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="T341" s="27"/>
+      <c r="T341" s="25"/>
     </row>
     <row r="342" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O342" s="23"/>
-      <c r="P342" s="33"/>
-      <c r="Q342" s="35"/>
-      <c r="R342" s="33"/>
-      <c r="S342" s="37"/>
-      <c r="T342" s="33"/>
+      <c r="O342" s="21"/>
+      <c r="P342" s="31"/>
+      <c r="Q342" s="33"/>
+      <c r="R342" s="31"/>
+      <c r="S342" s="35"/>
+      <c r="T342" s="31"/>
     </row>
     <row r="343" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O343" s="23"/>
-      <c r="P343" s="33"/>
-      <c r="Q343" s="35"/>
-      <c r="R343" s="33"/>
-      <c r="S343" s="37"/>
-      <c r="T343" s="33"/>
+      <c r="O343" s="21"/>
+      <c r="P343" s="31"/>
+      <c r="Q343" s="33"/>
+      <c r="R343" s="31"/>
+      <c r="S343" s="35"/>
+      <c r="T343" s="31"/>
     </row>
     <row r="344" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O344" s="23"/>
-      <c r="P344" s="33"/>
-      <c r="Q344" s="35"/>
-      <c r="R344" s="33"/>
-      <c r="S344" s="37"/>
-      <c r="T344" s="33"/>
+      <c r="O344" s="21"/>
+      <c r="P344" s="31"/>
+      <c r="Q344" s="33"/>
+      <c r="R344" s="31"/>
+      <c r="S344" s="35"/>
+      <c r="T344" s="31"/>
     </row>
     <row r="345" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O345" s="23"/>
-      <c r="P345" s="33"/>
-      <c r="Q345" s="35"/>
-      <c r="R345" s="33"/>
-      <c r="S345" s="37"/>
-      <c r="T345" s="33"/>
+      <c r="O345" s="21"/>
+      <c r="P345" s="31"/>
+      <c r="Q345" s="33"/>
+      <c r="R345" s="31"/>
+      <c r="S345" s="35"/>
+      <c r="T345" s="31"/>
     </row>
     <row r="346" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O346" s="23"/>
-      <c r="P346" s="33"/>
-      <c r="Q346" s="35"/>
-      <c r="R346" s="33"/>
-      <c r="S346" s="37"/>
-      <c r="T346" s="33"/>
+      <c r="O346" s="21"/>
+      <c r="P346" s="31"/>
+      <c r="Q346" s="33"/>
+      <c r="R346" s="31"/>
+      <c r="S346" s="35"/>
+      <c r="T346" s="31"/>
     </row>
     <row r="347" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O347" s="23"/>
-      <c r="P347" s="33"/>
-      <c r="Q347" s="35"/>
-      <c r="R347" s="33"/>
-      <c r="S347" s="37"/>
-      <c r="T347" s="33"/>
+      <c r="O347" s="21"/>
+      <c r="P347" s="31"/>
+      <c r="Q347" s="33"/>
+      <c r="R347" s="31"/>
+      <c r="S347" s="35"/>
+      <c r="T347" s="31"/>
     </row>
     <row r="348" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O348" s="24" t="s">
+      <c r="O348" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="P348" s="33"/>
-      <c r="Q348" s="35"/>
-      <c r="R348" s="33"/>
-      <c r="S348" s="37"/>
-      <c r="T348" s="33"/>
+      <c r="P348" s="31"/>
+      <c r="Q348" s="33"/>
+      <c r="R348" s="31"/>
+      <c r="S348" s="35"/>
+      <c r="T348" s="31"/>
     </row>
     <row r="349" spans="15:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O349" s="17">
+      <c r="O349" s="15">
         <v>39</v>
       </c>
-      <c r="P349" s="28"/>
-      <c r="Q349" s="36"/>
-      <c r="R349" s="28"/>
-      <c r="S349" s="32"/>
-      <c r="T349" s="28"/>
+      <c r="P349" s="26"/>
+      <c r="Q349" s="34"/>
+      <c r="R349" s="26"/>
+      <c r="S349" s="30"/>
+      <c r="T349" s="26"/>
     </row>
     <row r="350" spans="15:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="O350" s="18" t="e" vm="19">
+      <c r="O350" s="16" t="e" vm="19">
         <v>#VALUE!</v>
       </c>
-      <c r="P350" s="38">
+      <c r="P350" s="36">
         <v>20</v>
       </c>
-      <c r="Q350" s="41" t="s">
+      <c r="Q350" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="R350" s="38"/>
-      <c r="S350" s="44" t="s">
+      <c r="R350" s="36"/>
+      <c r="S350" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="T350" s="38"/>
+      <c r="T350" s="36"/>
     </row>
     <row r="351" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O351" s="19"/>
-      <c r="P351" s="39"/>
-      <c r="Q351" s="42"/>
-      <c r="R351" s="39"/>
-      <c r="S351" s="45"/>
-      <c r="T351" s="39"/>
+      <c r="O351" s="17"/>
+      <c r="P351" s="37"/>
+      <c r="Q351" s="40"/>
+      <c r="R351" s="37"/>
+      <c r="S351" s="43"/>
+      <c r="T351" s="37"/>
     </row>
     <row r="352" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O352" s="19"/>
-      <c r="P352" s="39"/>
-      <c r="Q352" s="42"/>
-      <c r="R352" s="39"/>
-      <c r="S352" s="45"/>
-      <c r="T352" s="39"/>
+      <c r="O352" s="17"/>
+      <c r="P352" s="37"/>
+      <c r="Q352" s="40"/>
+      <c r="R352" s="37"/>
+      <c r="S352" s="43"/>
+      <c r="T352" s="37"/>
     </row>
     <row r="353" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O353" s="19"/>
-      <c r="P353" s="39"/>
-      <c r="Q353" s="42"/>
-      <c r="R353" s="39"/>
-      <c r="S353" s="45"/>
-      <c r="T353" s="39"/>
+      <c r="O353" s="17"/>
+      <c r="P353" s="37"/>
+      <c r="Q353" s="40"/>
+      <c r="R353" s="37"/>
+      <c r="S353" s="43"/>
+      <c r="T353" s="37"/>
     </row>
     <row r="354" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O354" s="19"/>
-      <c r="P354" s="39"/>
-      <c r="Q354" s="42"/>
-      <c r="R354" s="39"/>
-      <c r="S354" s="45"/>
-      <c r="T354" s="39"/>
+      <c r="O354" s="17"/>
+      <c r="P354" s="37"/>
+      <c r="Q354" s="40"/>
+      <c r="R354" s="37"/>
+      <c r="S354" s="43"/>
+      <c r="T354" s="37"/>
     </row>
     <row r="355" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O355" s="19"/>
-      <c r="P355" s="39"/>
-      <c r="Q355" s="42"/>
-      <c r="R355" s="39"/>
-      <c r="S355" s="45"/>
-      <c r="T355" s="39"/>
+      <c r="O355" s="17"/>
+      <c r="P355" s="37"/>
+      <c r="Q355" s="40"/>
+      <c r="R355" s="37"/>
+      <c r="S355" s="43"/>
+      <c r="T355" s="37"/>
     </row>
     <row r="356" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O356" s="19"/>
-      <c r="P356" s="39"/>
-      <c r="Q356" s="42"/>
-      <c r="R356" s="39"/>
-      <c r="S356" s="45"/>
-      <c r="T356" s="39"/>
+      <c r="O356" s="17"/>
+      <c r="P356" s="37"/>
+      <c r="Q356" s="40"/>
+      <c r="R356" s="37"/>
+      <c r="S356" s="43"/>
+      <c r="T356" s="37"/>
     </row>
     <row r="357" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O357" s="20" t="s">
+      <c r="O357" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="P357" s="39"/>
-      <c r="Q357" s="42"/>
-      <c r="R357" s="39"/>
-      <c r="S357" s="45"/>
-      <c r="T357" s="39"/>
+      <c r="P357" s="37"/>
+      <c r="Q357" s="40"/>
+      <c r="R357" s="37"/>
+      <c r="S357" s="43"/>
+      <c r="T357" s="37"/>
     </row>
     <row r="358" spans="15:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O358" s="21">
+      <c r="O358" s="19">
         <v>40</v>
       </c>
-      <c r="P358" s="40"/>
-      <c r="Q358" s="43"/>
-      <c r="R358" s="40"/>
-      <c r="S358" s="46"/>
-      <c r="T358" s="40"/>
+      <c r="P358" s="38"/>
+      <c r="Q358" s="41"/>
+      <c r="R358" s="38"/>
+      <c r="S358" s="44"/>
+      <c r="T358" s="38"/>
     </row>
     <row r="359" spans="15:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="O359" s="22" t="e" vm="19">
+      <c r="O359" s="20" t="e" vm="19">
         <v>#VALUE!</v>
       </c>
-      <c r="P359" s="27"/>
-      <c r="Q359" s="34" t="s">
+      <c r="P359" s="25"/>
+      <c r="Q359" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="R359" s="27"/>
-      <c r="S359" s="31" t="s">
+      <c r="R359" s="25"/>
+      <c r="S359" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="T359" s="27"/>
+      <c r="T359" s="25"/>
     </row>
     <row r="360" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O360" s="23"/>
-      <c r="P360" s="33"/>
-      <c r="Q360" s="35"/>
-      <c r="R360" s="33"/>
-      <c r="S360" s="37"/>
-      <c r="T360" s="33"/>
+      <c r="O360" s="21"/>
+      <c r="P360" s="31"/>
+      <c r="Q360" s="33"/>
+      <c r="R360" s="31"/>
+      <c r="S360" s="35"/>
+      <c r="T360" s="31"/>
     </row>
     <row r="361" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O361" s="23"/>
-      <c r="P361" s="33"/>
-      <c r="Q361" s="35"/>
-      <c r="R361" s="33"/>
-      <c r="S361" s="37"/>
-      <c r="T361" s="33"/>
+      <c r="O361" s="21"/>
+      <c r="P361" s="31"/>
+      <c r="Q361" s="33"/>
+      <c r="R361" s="31"/>
+      <c r="S361" s="35"/>
+      <c r="T361" s="31"/>
     </row>
     <row r="362" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O362" s="23"/>
-      <c r="P362" s="33"/>
-      <c r="Q362" s="35"/>
-      <c r="R362" s="33"/>
-      <c r="S362" s="37"/>
-      <c r="T362" s="33"/>
+      <c r="O362" s="21"/>
+      <c r="P362" s="31"/>
+      <c r="Q362" s="33"/>
+      <c r="R362" s="31"/>
+      <c r="S362" s="35"/>
+      <c r="T362" s="31"/>
     </row>
     <row r="363" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O363" s="23"/>
-      <c r="P363" s="33"/>
-      <c r="Q363" s="35"/>
-      <c r="R363" s="33"/>
-      <c r="S363" s="37"/>
-      <c r="T363" s="33"/>
+      <c r="O363" s="21"/>
+      <c r="P363" s="31"/>
+      <c r="Q363" s="33"/>
+      <c r="R363" s="31"/>
+      <c r="S363" s="35"/>
+      <c r="T363" s="31"/>
     </row>
     <row r="364" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O364" s="23"/>
-      <c r="P364" s="33"/>
-      <c r="Q364" s="35"/>
-      <c r="R364" s="33"/>
-      <c r="S364" s="37"/>
-      <c r="T364" s="33"/>
+      <c r="O364" s="21"/>
+      <c r="P364" s="31"/>
+      <c r="Q364" s="33"/>
+      <c r="R364" s="31"/>
+      <c r="S364" s="35"/>
+      <c r="T364" s="31"/>
     </row>
     <row r="365" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O365" s="23"/>
-      <c r="P365" s="33"/>
-      <c r="Q365" s="35"/>
-      <c r="R365" s="33"/>
-      <c r="S365" s="37"/>
-      <c r="T365" s="33"/>
+      <c r="O365" s="21"/>
+      <c r="P365" s="31"/>
+      <c r="Q365" s="33"/>
+      <c r="R365" s="31"/>
+      <c r="S365" s="35"/>
+      <c r="T365" s="31"/>
     </row>
     <row r="366" spans="15:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O366" s="25" t="s">
+      <c r="O366" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="P366" s="28"/>
-      <c r="Q366" s="36"/>
-      <c r="R366" s="28"/>
-      <c r="S366" s="32"/>
-      <c r="T366" s="28"/>
+      <c r="P366" s="26"/>
+      <c r="Q366" s="34"/>
+      <c r="R366" s="26"/>
+      <c r="S366" s="30"/>
+      <c r="T366" s="26"/>
     </row>
     <row r="367" spans="15:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="O367" s="18" t="e" vm="34">
+      <c r="O367" s="16" t="e" vm="34">
         <v>#VALUE!</v>
       </c>
-      <c r="P367" s="38"/>
-      <c r="Q367" s="41" t="s">
+      <c r="P367" s="36"/>
+      <c r="Q367" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="R367" s="38"/>
-      <c r="S367" s="44" t="s">
+      <c r="R367" s="36"/>
+      <c r="S367" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="T367" s="38"/>
+      <c r="T367" s="36"/>
     </row>
     <row r="368" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O368" s="19"/>
-      <c r="P368" s="39"/>
-      <c r="Q368" s="42"/>
-      <c r="R368" s="39"/>
-      <c r="S368" s="45"/>
-      <c r="T368" s="39"/>
+      <c r="O368" s="17"/>
+      <c r="P368" s="37"/>
+      <c r="Q368" s="40"/>
+      <c r="R368" s="37"/>
+      <c r="S368" s="43"/>
+      <c r="T368" s="37"/>
     </row>
     <row r="369" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O369" s="19"/>
-      <c r="P369" s="39"/>
-      <c r="Q369" s="42"/>
-      <c r="R369" s="39"/>
-      <c r="S369" s="45"/>
-      <c r="T369" s="39"/>
+      <c r="O369" s="17"/>
+      <c r="P369" s="37"/>
+      <c r="Q369" s="40"/>
+      <c r="R369" s="37"/>
+      <c r="S369" s="43"/>
+      <c r="T369" s="37"/>
     </row>
     <row r="370" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O370" s="19"/>
-      <c r="P370" s="39"/>
-      <c r="Q370" s="42"/>
-      <c r="R370" s="39"/>
-      <c r="S370" s="45"/>
-      <c r="T370" s="39"/>
+      <c r="O370" s="17"/>
+      <c r="P370" s="37"/>
+      <c r="Q370" s="40"/>
+      <c r="R370" s="37"/>
+      <c r="S370" s="43"/>
+      <c r="T370" s="37"/>
     </row>
     <row r="371" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O371" s="19"/>
-      <c r="P371" s="39"/>
-      <c r="Q371" s="42"/>
-      <c r="R371" s="39"/>
-      <c r="S371" s="45"/>
-      <c r="T371" s="39"/>
+      <c r="O371" s="17"/>
+      <c r="P371" s="37"/>
+      <c r="Q371" s="40"/>
+      <c r="R371" s="37"/>
+      <c r="S371" s="43"/>
+      <c r="T371" s="37"/>
     </row>
     <row r="372" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O372" s="19"/>
-      <c r="P372" s="39"/>
-      <c r="Q372" s="42"/>
-      <c r="R372" s="39"/>
-      <c r="S372" s="45"/>
-      <c r="T372" s="39"/>
+      <c r="O372" s="17"/>
+      <c r="P372" s="37"/>
+      <c r="Q372" s="40"/>
+      <c r="R372" s="37"/>
+      <c r="S372" s="43"/>
+      <c r="T372" s="37"/>
     </row>
     <row r="373" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O373" s="19"/>
-      <c r="P373" s="39"/>
-      <c r="Q373" s="42"/>
-      <c r="R373" s="39"/>
-      <c r="S373" s="45"/>
-      <c r="T373" s="39"/>
+      <c r="O373" s="17"/>
+      <c r="P373" s="37"/>
+      <c r="Q373" s="40"/>
+      <c r="R373" s="37"/>
+      <c r="S373" s="43"/>
+      <c r="T373" s="37"/>
     </row>
     <row r="374" spans="15:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O374" s="26" t="s">
+      <c r="O374" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="P374" s="40"/>
-      <c r="Q374" s="43"/>
-      <c r="R374" s="40"/>
-      <c r="S374" s="46"/>
-      <c r="T374" s="40"/>
+      <c r="P374" s="38"/>
+      <c r="Q374" s="41"/>
+      <c r="R374" s="38"/>
+      <c r="S374" s="44"/>
+      <c r="T374" s="38"/>
     </row>
     <row r="375" spans="15:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="O375" s="22" t="e" vm="19">
+      <c r="O375" s="20" t="e" vm="19">
         <v>#VALUE!</v>
       </c>
-      <c r="P375" s="27"/>
-      <c r="Q375" s="34" t="s">
+      <c r="P375" s="25"/>
+      <c r="Q375" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="R375" s="27"/>
-      <c r="S375" s="31" t="s">
+      <c r="R375" s="25"/>
+      <c r="S375" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="T375" s="27"/>
+      <c r="T375" s="25"/>
     </row>
     <row r="376" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O376" s="23"/>
-      <c r="P376" s="33"/>
-      <c r="Q376" s="35"/>
-      <c r="R376" s="33"/>
-      <c r="S376" s="37"/>
-      <c r="T376" s="33"/>
+      <c r="O376" s="21"/>
+      <c r="P376" s="31"/>
+      <c r="Q376" s="33"/>
+      <c r="R376" s="31"/>
+      <c r="S376" s="35"/>
+      <c r="T376" s="31"/>
     </row>
     <row r="377" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O377" s="23"/>
-      <c r="P377" s="33"/>
-      <c r="Q377" s="35"/>
-      <c r="R377" s="33"/>
-      <c r="S377" s="37"/>
-      <c r="T377" s="33"/>
+      <c r="O377" s="21"/>
+      <c r="P377" s="31"/>
+      <c r="Q377" s="33"/>
+      <c r="R377" s="31"/>
+      <c r="S377" s="35"/>
+      <c r="T377" s="31"/>
     </row>
     <row r="378" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O378" s="23"/>
-      <c r="P378" s="33"/>
-      <c r="Q378" s="35"/>
-      <c r="R378" s="33"/>
-      <c r="S378" s="37"/>
-      <c r="T378" s="33"/>
+      <c r="O378" s="21"/>
+      <c r="P378" s="31"/>
+      <c r="Q378" s="33"/>
+      <c r="R378" s="31"/>
+      <c r="S378" s="35"/>
+      <c r="T378" s="31"/>
     </row>
     <row r="379" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O379" s="23"/>
-      <c r="P379" s="33"/>
-      <c r="Q379" s="35"/>
-      <c r="R379" s="33"/>
-      <c r="S379" s="37"/>
-      <c r="T379" s="33"/>
+      <c r="O379" s="21"/>
+      <c r="P379" s="31"/>
+      <c r="Q379" s="33"/>
+      <c r="R379" s="31"/>
+      <c r="S379" s="35"/>
+      <c r="T379" s="31"/>
     </row>
     <row r="380" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O380" s="23"/>
-      <c r="P380" s="33"/>
-      <c r="Q380" s="35"/>
-      <c r="R380" s="33"/>
-      <c r="S380" s="37"/>
-      <c r="T380" s="33"/>
+      <c r="O380" s="21"/>
+      <c r="P380" s="31"/>
+      <c r="Q380" s="33"/>
+      <c r="R380" s="31"/>
+      <c r="S380" s="35"/>
+      <c r="T380" s="31"/>
     </row>
     <row r="381" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O381" s="23"/>
-      <c r="P381" s="33"/>
-      <c r="Q381" s="35"/>
-      <c r="R381" s="33"/>
-      <c r="S381" s="37"/>
-      <c r="T381" s="33"/>
+      <c r="O381" s="21"/>
+      <c r="P381" s="31"/>
+      <c r="Q381" s="33"/>
+      <c r="R381" s="31"/>
+      <c r="S381" s="35"/>
+      <c r="T381" s="31"/>
     </row>
     <row r="382" spans="15:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O382" s="25" t="s">
+      <c r="O382" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="P382" s="28"/>
-      <c r="Q382" s="36"/>
-      <c r="R382" s="28"/>
-      <c r="S382" s="32"/>
-      <c r="T382" s="28"/>
+      <c r="P382" s="26"/>
+      <c r="Q382" s="34"/>
+      <c r="R382" s="26"/>
+      <c r="S382" s="30"/>
+      <c r="T382" s="26"/>
     </row>
     <row r="383" spans="15:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="O383" s="18" t="e" vm="19">
+      <c r="O383" s="16" t="e" vm="19">
         <v>#VALUE!</v>
       </c>
-      <c r="P383" s="38"/>
-      <c r="Q383" s="41" t="s">
+      <c r="P383" s="36"/>
+      <c r="Q383" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="R383" s="38"/>
-      <c r="S383" s="44" t="s">
+      <c r="R383" s="36"/>
+      <c r="S383" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="T383" s="38"/>
+      <c r="T383" s="36"/>
     </row>
     <row r="384" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O384" s="19"/>
-      <c r="P384" s="39"/>
-      <c r="Q384" s="42"/>
-      <c r="R384" s="39"/>
-      <c r="S384" s="45"/>
-      <c r="T384" s="39"/>
+      <c r="O384" s="17"/>
+      <c r="P384" s="37"/>
+      <c r="Q384" s="40"/>
+      <c r="R384" s="37"/>
+      <c r="S384" s="43"/>
+      <c r="T384" s="37"/>
     </row>
     <row r="385" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O385" s="19"/>
-      <c r="P385" s="39"/>
-      <c r="Q385" s="42"/>
-      <c r="R385" s="39"/>
-      <c r="S385" s="45"/>
-      <c r="T385" s="39"/>
+      <c r="O385" s="17"/>
+      <c r="P385" s="37"/>
+      <c r="Q385" s="40"/>
+      <c r="R385" s="37"/>
+      <c r="S385" s="43"/>
+      <c r="T385" s="37"/>
     </row>
     <row r="386" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O386" s="19"/>
-      <c r="P386" s="39"/>
-      <c r="Q386" s="42"/>
-      <c r="R386" s="39"/>
-      <c r="S386" s="45"/>
-      <c r="T386" s="39"/>
+      <c r="O386" s="17"/>
+      <c r="P386" s="37"/>
+      <c r="Q386" s="40"/>
+      <c r="R386" s="37"/>
+      <c r="S386" s="43"/>
+      <c r="T386" s="37"/>
     </row>
     <row r="387" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O387" s="19"/>
-      <c r="P387" s="39"/>
-      <c r="Q387" s="42"/>
-      <c r="R387" s="39"/>
-      <c r="S387" s="45"/>
-      <c r="T387" s="39"/>
+      <c r="O387" s="17"/>
+      <c r="P387" s="37"/>
+      <c r="Q387" s="40"/>
+      <c r="R387" s="37"/>
+      <c r="S387" s="43"/>
+      <c r="T387" s="37"/>
     </row>
     <row r="388" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O388" s="19"/>
-      <c r="P388" s="39"/>
-      <c r="Q388" s="42"/>
-      <c r="R388" s="39"/>
-      <c r="S388" s="45"/>
-      <c r="T388" s="39"/>
+      <c r="O388" s="17"/>
+      <c r="P388" s="37"/>
+      <c r="Q388" s="40"/>
+      <c r="R388" s="37"/>
+      <c r="S388" s="43"/>
+      <c r="T388" s="37"/>
     </row>
     <row r="389" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O389" s="19"/>
-      <c r="P389" s="39"/>
-      <c r="Q389" s="42"/>
-      <c r="R389" s="39"/>
-      <c r="S389" s="45"/>
-      <c r="T389" s="39"/>
+      <c r="O389" s="17"/>
+      <c r="P389" s="37"/>
+      <c r="Q389" s="40"/>
+      <c r="R389" s="37"/>
+      <c r="S389" s="43"/>
+      <c r="T389" s="37"/>
     </row>
     <row r="390" spans="15:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O390" s="26" t="s">
+      <c r="O390" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="P390" s="40"/>
-      <c r="Q390" s="43"/>
-      <c r="R390" s="40"/>
-      <c r="S390" s="46"/>
-      <c r="T390" s="40"/>
+      <c r="P390" s="38"/>
+      <c r="Q390" s="41"/>
+      <c r="R390" s="38"/>
+      <c r="S390" s="44"/>
+      <c r="T390" s="38"/>
     </row>
     <row r="391" spans="15:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="O391" s="22" t="e" vm="19">
+      <c r="O391" s="20" t="e" vm="19">
         <v>#VALUE!</v>
       </c>
-      <c r="P391" s="27"/>
-      <c r="Q391" s="34" t="s">
+      <c r="P391" s="25"/>
+      <c r="Q391" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="R391" s="27"/>
-      <c r="S391" s="31" t="s">
+      <c r="R391" s="25"/>
+      <c r="S391" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="T391" s="27"/>
+      <c r="T391" s="25"/>
     </row>
     <row r="392" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O392" s="23"/>
-      <c r="P392" s="33"/>
-      <c r="Q392" s="35"/>
-      <c r="R392" s="33"/>
-      <c r="S392" s="37"/>
-      <c r="T392" s="33"/>
+      <c r="O392" s="21"/>
+      <c r="P392" s="31"/>
+      <c r="Q392" s="33"/>
+      <c r="R392" s="31"/>
+      <c r="S392" s="35"/>
+      <c r="T392" s="31"/>
     </row>
     <row r="393" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O393" s="23"/>
-      <c r="P393" s="33"/>
-      <c r="Q393" s="35"/>
-      <c r="R393" s="33"/>
-      <c r="S393" s="37"/>
-      <c r="T393" s="33"/>
+      <c r="O393" s="21"/>
+      <c r="P393" s="31"/>
+      <c r="Q393" s="33"/>
+      <c r="R393" s="31"/>
+      <c r="S393" s="35"/>
+      <c r="T393" s="31"/>
     </row>
     <row r="394" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O394" s="23"/>
-      <c r="P394" s="33"/>
-      <c r="Q394" s="35"/>
-      <c r="R394" s="33"/>
-      <c r="S394" s="37"/>
-      <c r="T394" s="33"/>
+      <c r="O394" s="21"/>
+      <c r="P394" s="31"/>
+      <c r="Q394" s="33"/>
+      <c r="R394" s="31"/>
+      <c r="S394" s="35"/>
+      <c r="T394" s="31"/>
     </row>
     <row r="395" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O395" s="23"/>
-      <c r="P395" s="33"/>
-      <c r="Q395" s="35"/>
-      <c r="R395" s="33"/>
-      <c r="S395" s="37"/>
-      <c r="T395" s="33"/>
+      <c r="O395" s="21"/>
+      <c r="P395" s="31"/>
+      <c r="Q395" s="33"/>
+      <c r="R395" s="31"/>
+      <c r="S395" s="35"/>
+      <c r="T395" s="31"/>
     </row>
     <row r="396" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O396" s="23"/>
-      <c r="P396" s="33"/>
-      <c r="Q396" s="35"/>
-      <c r="R396" s="33"/>
-      <c r="S396" s="37"/>
-      <c r="T396" s="33"/>
+      <c r="O396" s="21"/>
+      <c r="P396" s="31"/>
+      <c r="Q396" s="33"/>
+      <c r="R396" s="31"/>
+      <c r="S396" s="35"/>
+      <c r="T396" s="31"/>
     </row>
     <row r="397" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O397" s="23"/>
-      <c r="P397" s="33"/>
-      <c r="Q397" s="35"/>
-      <c r="R397" s="33"/>
-      <c r="S397" s="37"/>
-      <c r="T397" s="33"/>
+      <c r="O397" s="21"/>
+      <c r="P397" s="31"/>
+      <c r="Q397" s="33"/>
+      <c r="R397" s="31"/>
+      <c r="S397" s="35"/>
+      <c r="T397" s="31"/>
     </row>
     <row r="398" spans="15:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O398" s="25" t="s">
+      <c r="O398" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="P398" s="28"/>
-      <c r="Q398" s="36"/>
-      <c r="R398" s="28"/>
-      <c r="S398" s="32"/>
-      <c r="T398" s="28"/>
+      <c r="P398" s="26"/>
+      <c r="Q398" s="34"/>
+      <c r="R398" s="26"/>
+      <c r="S398" s="30"/>
+      <c r="T398" s="26"/>
     </row>
     <row r="399" spans="15:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="O399" s="18" t="e" vm="19">
+      <c r="O399" s="16" t="e" vm="19">
         <v>#VALUE!</v>
       </c>
-      <c r="P399" s="38"/>
-      <c r="Q399" s="41" t="s">
+      <c r="P399" s="36"/>
+      <c r="Q399" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="R399" s="38"/>
-      <c r="S399" s="44" t="s">
+      <c r="R399" s="36"/>
+      <c r="S399" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="T399" s="38"/>
+      <c r="T399" s="36"/>
     </row>
     <row r="400" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O400" s="19"/>
-      <c r="P400" s="39"/>
-      <c r="Q400" s="42"/>
-      <c r="R400" s="39"/>
-      <c r="S400" s="45"/>
-      <c r="T400" s="39"/>
+      <c r="O400" s="17"/>
+      <c r="P400" s="37"/>
+      <c r="Q400" s="40"/>
+      <c r="R400" s="37"/>
+      <c r="S400" s="43"/>
+      <c r="T400" s="37"/>
     </row>
     <row r="401" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O401" s="19"/>
-      <c r="P401" s="39"/>
-      <c r="Q401" s="42"/>
-      <c r="R401" s="39"/>
-      <c r="S401" s="45"/>
-      <c r="T401" s="39"/>
+      <c r="O401" s="17"/>
+      <c r="P401" s="37"/>
+      <c r="Q401" s="40"/>
+      <c r="R401" s="37"/>
+      <c r="S401" s="43"/>
+      <c r="T401" s="37"/>
     </row>
     <row r="402" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O402" s="19"/>
-      <c r="P402" s="39"/>
-      <c r="Q402" s="42"/>
-      <c r="R402" s="39"/>
-      <c r="S402" s="45"/>
-      <c r="T402" s="39"/>
+      <c r="O402" s="17"/>
+      <c r="P402" s="37"/>
+      <c r="Q402" s="40"/>
+      <c r="R402" s="37"/>
+      <c r="S402" s="43"/>
+      <c r="T402" s="37"/>
     </row>
     <row r="403" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O403" s="19"/>
-      <c r="P403" s="39"/>
-      <c r="Q403" s="42"/>
-      <c r="R403" s="39"/>
-      <c r="S403" s="45"/>
-      <c r="T403" s="39"/>
+      <c r="O403" s="17"/>
+      <c r="P403" s="37"/>
+      <c r="Q403" s="40"/>
+      <c r="R403" s="37"/>
+      <c r="S403" s="43"/>
+      <c r="T403" s="37"/>
     </row>
     <row r="404" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O404" s="19"/>
-      <c r="P404" s="39"/>
-      <c r="Q404" s="42"/>
-      <c r="R404" s="39"/>
-      <c r="S404" s="45"/>
-      <c r="T404" s="39"/>
+      <c r="O404" s="17"/>
+      <c r="P404" s="37"/>
+      <c r="Q404" s="40"/>
+      <c r="R404" s="37"/>
+      <c r="S404" s="43"/>
+      <c r="T404" s="37"/>
     </row>
     <row r="405" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O405" s="19"/>
-      <c r="P405" s="39"/>
-      <c r="Q405" s="42"/>
-      <c r="R405" s="39"/>
-      <c r="S405" s="45"/>
-      <c r="T405" s="39"/>
+      <c r="O405" s="17"/>
+      <c r="P405" s="37"/>
+      <c r="Q405" s="40"/>
+      <c r="R405" s="37"/>
+      <c r="S405" s="43"/>
+      <c r="T405" s="37"/>
     </row>
     <row r="406" spans="15:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O406" s="26" t="s">
+      <c r="O406" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="P406" s="40"/>
-      <c r="Q406" s="43"/>
-      <c r="R406" s="40"/>
-      <c r="S406" s="46"/>
-      <c r="T406" s="40"/>
+      <c r="P406" s="38"/>
+      <c r="Q406" s="41"/>
+      <c r="R406" s="38"/>
+      <c r="S406" s="44"/>
+      <c r="T406" s="38"/>
     </row>
     <row r="407" spans="15:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O407" s="22" t="e" vm="35">
+      <c r="O407" s="20" t="e" vm="35">
         <v>#VALUE!</v>
       </c>
-      <c r="P407" s="27"/>
-      <c r="Q407" s="34" t="s">
+      <c r="P407" s="25"/>
+      <c r="Q407" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="R407" s="27"/>
-      <c r="S407" s="31" t="s">
+      <c r="R407" s="25"/>
+      <c r="S407" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="T407" s="27"/>
+      <c r="T407" s="25"/>
     </row>
     <row r="408" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O408" s="23"/>
-      <c r="P408" s="33"/>
-      <c r="Q408" s="35"/>
-      <c r="R408" s="33"/>
-      <c r="S408" s="37"/>
-      <c r="T408" s="33"/>
+      <c r="O408" s="21"/>
+      <c r="P408" s="31"/>
+      <c r="Q408" s="33"/>
+      <c r="R408" s="31"/>
+      <c r="S408" s="35"/>
+      <c r="T408" s="31"/>
     </row>
     <row r="409" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O409" s="23"/>
-      <c r="P409" s="33"/>
-      <c r="Q409" s="35"/>
-      <c r="R409" s="33"/>
-      <c r="S409" s="37"/>
-      <c r="T409" s="33"/>
+      <c r="O409" s="21"/>
+      <c r="P409" s="31"/>
+      <c r="Q409" s="33"/>
+      <c r="R409" s="31"/>
+      <c r="S409" s="35"/>
+      <c r="T409" s="31"/>
     </row>
     <row r="410" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O410" s="23"/>
-      <c r="P410" s="33"/>
-      <c r="Q410" s="35"/>
-      <c r="R410" s="33"/>
-      <c r="S410" s="37"/>
-      <c r="T410" s="33"/>
+      <c r="O410" s="21"/>
+      <c r="P410" s="31"/>
+      <c r="Q410" s="33"/>
+      <c r="R410" s="31"/>
+      <c r="S410" s="35"/>
+      <c r="T410" s="31"/>
     </row>
     <row r="411" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O411" s="23"/>
-      <c r="P411" s="33"/>
-      <c r="Q411" s="35"/>
-      <c r="R411" s="33"/>
-      <c r="S411" s="37"/>
-      <c r="T411" s="33"/>
+      <c r="O411" s="21"/>
+      <c r="P411" s="31"/>
+      <c r="Q411" s="33"/>
+      <c r="R411" s="31"/>
+      <c r="S411" s="35"/>
+      <c r="T411" s="31"/>
     </row>
     <row r="412" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O412" s="23"/>
-      <c r="P412" s="33"/>
-      <c r="Q412" s="35"/>
-      <c r="R412" s="33"/>
-      <c r="S412" s="37"/>
-      <c r="T412" s="33"/>
+      <c r="O412" s="21"/>
+      <c r="P412" s="31"/>
+      <c r="Q412" s="33"/>
+      <c r="R412" s="31"/>
+      <c r="S412" s="35"/>
+      <c r="T412" s="31"/>
     </row>
     <row r="413" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O413" s="23"/>
-      <c r="P413" s="33"/>
-      <c r="Q413" s="35"/>
-      <c r="R413" s="33"/>
-      <c r="S413" s="37"/>
-      <c r="T413" s="33"/>
+      <c r="O413" s="21"/>
+      <c r="P413" s="31"/>
+      <c r="Q413" s="33"/>
+      <c r="R413" s="31"/>
+      <c r="S413" s="35"/>
+      <c r="T413" s="31"/>
     </row>
     <row r="414" spans="15:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O414" s="25" t="s">
+      <c r="O414" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="P414" s="28"/>
-      <c r="Q414" s="36"/>
-      <c r="R414" s="28"/>
-      <c r="S414" s="32"/>
-      <c r="T414" s="28"/>
+      <c r="P414" s="26"/>
+      <c r="Q414" s="34"/>
+      <c r="R414" s="26"/>
+      <c r="S414" s="30"/>
+      <c r="T414" s="26"/>
     </row>
     <row r="415" spans="15:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O415" s="18" t="e" vm="36">
+      <c r="O415" s="16" t="e" vm="36">
         <v>#VALUE!</v>
       </c>
-      <c r="P415" s="38"/>
-      <c r="Q415" s="41" t="s">
+      <c r="P415" s="36"/>
+      <c r="Q415" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="R415" s="38"/>
-      <c r="S415" s="44" t="s">
+      <c r="R415" s="36"/>
+      <c r="S415" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="T415" s="38"/>
+      <c r="T415" s="36"/>
     </row>
     <row r="416" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O416" s="19"/>
-      <c r="P416" s="39"/>
-      <c r="Q416" s="42"/>
-      <c r="R416" s="39"/>
-      <c r="S416" s="45"/>
-      <c r="T416" s="39"/>
+      <c r="O416" s="17"/>
+      <c r="P416" s="37"/>
+      <c r="Q416" s="40"/>
+      <c r="R416" s="37"/>
+      <c r="S416" s="43"/>
+      <c r="T416" s="37"/>
     </row>
     <row r="417" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O417" s="19"/>
-      <c r="P417" s="39"/>
-      <c r="Q417" s="42"/>
-      <c r="R417" s="39"/>
-      <c r="S417" s="45"/>
-      <c r="T417" s="39"/>
+      <c r="O417" s="17"/>
+      <c r="P417" s="37"/>
+      <c r="Q417" s="40"/>
+      <c r="R417" s="37"/>
+      <c r="S417" s="43"/>
+      <c r="T417" s="37"/>
     </row>
     <row r="418" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O418" s="19"/>
-      <c r="P418" s="39"/>
-      <c r="Q418" s="42"/>
-      <c r="R418" s="39"/>
-      <c r="S418" s="45"/>
-      <c r="T418" s="39"/>
+      <c r="O418" s="17"/>
+      <c r="P418" s="37"/>
+      <c r="Q418" s="40"/>
+      <c r="R418" s="37"/>
+      <c r="S418" s="43"/>
+      <c r="T418" s="37"/>
     </row>
     <row r="419" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O419" s="19"/>
-      <c r="P419" s="39"/>
-      <c r="Q419" s="42"/>
-      <c r="R419" s="39"/>
-      <c r="S419" s="45"/>
-      <c r="T419" s="39"/>
+      <c r="O419" s="17"/>
+      <c r="P419" s="37"/>
+      <c r="Q419" s="40"/>
+      <c r="R419" s="37"/>
+      <c r="S419" s="43"/>
+      <c r="T419" s="37"/>
     </row>
     <row r="420" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O420" s="19"/>
-      <c r="P420" s="39"/>
-      <c r="Q420" s="42"/>
-      <c r="R420" s="39"/>
-      <c r="S420" s="45"/>
-      <c r="T420" s="39"/>
+      <c r="O420" s="17"/>
+      <c r="P420" s="37"/>
+      <c r="Q420" s="40"/>
+      <c r="R420" s="37"/>
+      <c r="S420" s="43"/>
+      <c r="T420" s="37"/>
     </row>
     <row r="421" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O421" s="19"/>
-      <c r="P421" s="39"/>
-      <c r="Q421" s="42"/>
-      <c r="R421" s="39"/>
-      <c r="S421" s="45"/>
-      <c r="T421" s="39"/>
+      <c r="O421" s="17"/>
+      <c r="P421" s="37"/>
+      <c r="Q421" s="40"/>
+      <c r="R421" s="37"/>
+      <c r="S421" s="43"/>
+      <c r="T421" s="37"/>
     </row>
     <row r="422" spans="15:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O422" s="26" t="s">
+      <c r="O422" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="P422" s="40"/>
-      <c r="Q422" s="43"/>
-      <c r="R422" s="40"/>
-      <c r="S422" s="46"/>
-      <c r="T422" s="40"/>
+      <c r="P422" s="38"/>
+      <c r="Q422" s="41"/>
+      <c r="R422" s="38"/>
+      <c r="S422" s="44"/>
+      <c r="T422" s="38"/>
     </row>
     <row r="423" spans="15:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O423" s="22" t="e" vm="37">
+      <c r="O423" s="20" t="e" vm="37">
         <v>#VALUE!</v>
       </c>
-      <c r="P423" s="27"/>
-      <c r="Q423" s="34" t="s">
+      <c r="P423" s="25"/>
+      <c r="Q423" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="R423" s="27" t="s">
+      <c r="R423" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="S423" s="31" t="s">
+      <c r="S423" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="T423" s="31" t="s">
+      <c r="T423" s="29" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="424" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O424" s="23"/>
-      <c r="P424" s="33"/>
-      <c r="Q424" s="35"/>
-      <c r="R424" s="33"/>
-      <c r="S424" s="37"/>
-      <c r="T424" s="37"/>
+      <c r="O424" s="21"/>
+      <c r="P424" s="31"/>
+      <c r="Q424" s="33"/>
+      <c r="R424" s="31"/>
+      <c r="S424" s="35"/>
+      <c r="T424" s="35"/>
     </row>
     <row r="425" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O425" s="23"/>
-      <c r="P425" s="33"/>
-      <c r="Q425" s="35"/>
-      <c r="R425" s="33"/>
-      <c r="S425" s="37"/>
-      <c r="T425" s="37"/>
+      <c r="O425" s="21"/>
+      <c r="P425" s="31"/>
+      <c r="Q425" s="33"/>
+      <c r="R425" s="31"/>
+      <c r="S425" s="35"/>
+      <c r="T425" s="35"/>
     </row>
     <row r="426" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O426" s="23"/>
-      <c r="P426" s="33"/>
-      <c r="Q426" s="35"/>
-      <c r="R426" s="33"/>
-      <c r="S426" s="37"/>
-      <c r="T426" s="37"/>
+      <c r="O426" s="21"/>
+      <c r="P426" s="31"/>
+      <c r="Q426" s="33"/>
+      <c r="R426" s="31"/>
+      <c r="S426" s="35"/>
+      <c r="T426" s="35"/>
     </row>
     <row r="427" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O427" s="23"/>
-      <c r="P427" s="33"/>
-      <c r="Q427" s="35"/>
-      <c r="R427" s="33"/>
-      <c r="S427" s="37"/>
-      <c r="T427" s="37"/>
+      <c r="O427" s="21"/>
+      <c r="P427" s="31"/>
+      <c r="Q427" s="33"/>
+      <c r="R427" s="31"/>
+      <c r="S427" s="35"/>
+      <c r="T427" s="35"/>
     </row>
     <row r="428" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O428" s="23"/>
-      <c r="P428" s="33"/>
-      <c r="Q428" s="35"/>
-      <c r="R428" s="33"/>
-      <c r="S428" s="37"/>
-      <c r="T428" s="37"/>
+      <c r="O428" s="21"/>
+      <c r="P428" s="31"/>
+      <c r="Q428" s="33"/>
+      <c r="R428" s="31"/>
+      <c r="S428" s="35"/>
+      <c r="T428" s="35"/>
     </row>
     <row r="429" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O429" s="23"/>
-      <c r="P429" s="33"/>
-      <c r="Q429" s="35"/>
-      <c r="R429" s="33"/>
-      <c r="S429" s="37"/>
-      <c r="T429" s="37"/>
+      <c r="O429" s="21"/>
+      <c r="P429" s="31"/>
+      <c r="Q429" s="33"/>
+      <c r="R429" s="31"/>
+      <c r="S429" s="35"/>
+      <c r="T429" s="35"/>
     </row>
     <row r="430" spans="15:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O430" s="25" t="s">
+      <c r="O430" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="P430" s="28"/>
-      <c r="Q430" s="36"/>
-      <c r="R430" s="28"/>
-      <c r="S430" s="32"/>
-      <c r="T430" s="32"/>
+      <c r="P430" s="26"/>
+      <c r="Q430" s="34"/>
+      <c r="R430" s="26"/>
+      <c r="S430" s="30"/>
+      <c r="T430" s="30"/>
     </row>
     <row r="431" spans="15:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O431" s="18" t="e" vm="38">
+      <c r="O431" s="16" t="e" vm="38">
         <v>#VALUE!</v>
       </c>
-      <c r="P431" s="38"/>
-      <c r="Q431" s="41" t="s">
+      <c r="P431" s="36"/>
+      <c r="Q431" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="R431" s="38" t="s">
+      <c r="R431" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="S431" s="44" t="s">
+      <c r="S431" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="T431" s="44" t="s">
+      <c r="T431" s="42" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="432" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O432" s="19"/>
-      <c r="P432" s="39"/>
-      <c r="Q432" s="42"/>
-      <c r="R432" s="39"/>
-      <c r="S432" s="45"/>
-      <c r="T432" s="45"/>
+      <c r="O432" s="17"/>
+      <c r="P432" s="37"/>
+      <c r="Q432" s="40"/>
+      <c r="R432" s="37"/>
+      <c r="S432" s="43"/>
+      <c r="T432" s="43"/>
     </row>
     <row r="433" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O433" s="19"/>
-      <c r="P433" s="39"/>
-      <c r="Q433" s="42"/>
-      <c r="R433" s="39"/>
-      <c r="S433" s="45"/>
-      <c r="T433" s="45"/>
+      <c r="O433" s="17"/>
+      <c r="P433" s="37"/>
+      <c r="Q433" s="40"/>
+      <c r="R433" s="37"/>
+      <c r="S433" s="43"/>
+      <c r="T433" s="43"/>
     </row>
     <row r="434" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O434" s="19"/>
-      <c r="P434" s="39"/>
-      <c r="Q434" s="42"/>
-      <c r="R434" s="39"/>
-      <c r="S434" s="45"/>
-      <c r="T434" s="45"/>
+      <c r="O434" s="17"/>
+      <c r="P434" s="37"/>
+      <c r="Q434" s="40"/>
+      <c r="R434" s="37"/>
+      <c r="S434" s="43"/>
+      <c r="T434" s="43"/>
     </row>
     <row r="435" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O435" s="19"/>
-      <c r="P435" s="39"/>
-      <c r="Q435" s="42"/>
-      <c r="R435" s="39"/>
-      <c r="S435" s="45"/>
-      <c r="T435" s="45"/>
+      <c r="O435" s="17"/>
+      <c r="P435" s="37"/>
+      <c r="Q435" s="40"/>
+      <c r="R435" s="37"/>
+      <c r="S435" s="43"/>
+      <c r="T435" s="43"/>
     </row>
     <row r="436" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O436" s="19"/>
-      <c r="P436" s="39"/>
-      <c r="Q436" s="42"/>
-      <c r="R436" s="39"/>
-      <c r="S436" s="45"/>
-      <c r="T436" s="45"/>
+      <c r="O436" s="17"/>
+      <c r="P436" s="37"/>
+      <c r="Q436" s="40"/>
+      <c r="R436" s="37"/>
+      <c r="S436" s="43"/>
+      <c r="T436" s="43"/>
     </row>
     <row r="437" spans="15:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O437" s="19"/>
-      <c r="P437" s="39"/>
-      <c r="Q437" s="42"/>
-      <c r="R437" s="39"/>
-      <c r="S437" s="45"/>
-      <c r="T437" s="45"/>
+      <c r="O437" s="17"/>
+      <c r="P437" s="37"/>
+      <c r="Q437" s="40"/>
+      <c r="R437" s="37"/>
+      <c r="S437" s="43"/>
+      <c r="T437" s="43"/>
     </row>
     <row r="438" spans="15:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O438" s="26" t="s">
+      <c r="O438" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="P438" s="40"/>
-      <c r="Q438" s="43"/>
-      <c r="R438" s="40"/>
-      <c r="S438" s="46"/>
-      <c r="T438" s="46"/>
+      <c r="P438" s="38"/>
+      <c r="Q438" s="41"/>
+      <c r="R438" s="38"/>
+      <c r="S438" s="44"/>
+      <c r="T438" s="44"/>
     </row>
   </sheetData>
   <hyperlinks>
